--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D5163-AE56-0640-8E9C-E516AA009CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A115EF1-B65A-BB4B-94E3-FAA3D5B25A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="323">
   <si>
     <t>题号</t>
   </si>
@@ -1000,6 +1000,20 @@
   </si>
   <si>
     <t>1.stack   2.递归</t>
+  </si>
+  <si>
+    <t>用stack从上往下迭代</t>
+  </si>
+  <si>
+    <t>优先队列 PriorityQueue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双端队列 Deque
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23
+</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1227,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,20 +1245,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,10 +1585,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1606,19 +1620,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1629,17 +1643,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1650,15 +1664,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2162,17 +2176,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2183,15 +2197,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -3068,7 +3082,7 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3087,10 +3101,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3122,19 +3136,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -3145,17 +3159,17 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3166,15 +3180,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3230,7 +3244,7 @@
       <c r="D6" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="27">
         <v>2.2200000000000002</v>
       </c>
       <c r="F6" s="8"/>
@@ -3288,7 +3302,7 @@
       <c r="D8" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="27">
         <v>2.23</v>
       </c>
       <c r="F8" s="8"/>
@@ -3319,7 +3333,7 @@
       <c r="D9" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="27">
         <v>2.23</v>
       </c>
       <c r="F9" s="8"/>
@@ -3350,7 +3364,7 @@
       <c r="D10" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="27">
         <v>2.23</v>
       </c>
       <c r="F10" s="8"/>
@@ -3381,7 +3395,7 @@
       <c r="D11" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="27">
         <v>2.23</v>
       </c>
       <c r="F11" s="8"/>
@@ -3409,8 +3423,12 @@
       <c r="C12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="27">
+        <v>2.23</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
@@ -3436,8 +3454,12 @@
       <c r="C13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="27">
+        <v>2.23</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3462,10 +3484,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>13</v>
+        <v>321</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>322</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -3527,7 +3549,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -3548,7 +3570,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6707,10 +6729,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6742,19 +6764,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -6765,7 +6787,7 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -6786,7 +6808,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7191,7 +7213,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7212,7 +7234,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -10732,10 +10754,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10767,19 +10789,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -10790,7 +10812,7 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -10811,7 +10833,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11078,7 +11100,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11099,7 +11121,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14421,10 +14443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14456,19 +14478,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -14479,7 +14501,7 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -14500,7 +14522,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15053,11 +15075,11 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -15262,7 +15284,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15283,7 +15305,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18037,10 +18059,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18073,19 +18095,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -18097,7 +18119,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18119,7 +18141,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -21873,10 +21895,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -21909,19 +21931,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -21933,7 +21955,7 @@
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -21955,7 +21977,7 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22199,7 +22221,7 @@
       <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22221,7 +22243,7 @@
       <c r="R14" s="10"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26038,10 +26060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26074,19 +26096,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -26098,7 +26120,7 @@
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26120,7 +26142,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -26908,7 +26930,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -26930,7 +26952,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="326">
   <si>
     <t>题号</t>
   </si>
@@ -1017,6 +1017,14 @@
   <si>
     <t xml:space="preserve">
 泛型递归</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛型递归</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归(更快)，BFS</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,6 +1293,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6750,7 +6764,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6758,7 +6772,7 @@
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="33.453125" customWidth="1"/>
     <col min="3" max="3" width="47.36328125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="4.6328125" customWidth="1"/>
     <col min="6" max="7" width="5.453125" customWidth="1"/>
     <col min="8" max="9" width="5.1796875" customWidth="1"/>
@@ -6938,8 +6952,12 @@
       <c r="C7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="44">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -6963,8 +6981,12 @@
       <c r="C8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="327">
   <si>
     <t>题号</t>
   </si>
@@ -304,9 +304,6 @@
     <t>https://leetcode-cn.com/problems/validate-binary-search-tree/</t>
   </si>
   <si>
-    <t>二叉树的最大深度</t>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/</t>
   </si>
   <si>
@@ -1025,6 +1022,14 @@
   </si>
   <si>
     <t>递归(更快)，BFS</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3259,7 +3264,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="29">
         <v>2.2200000000000002</v>
@@ -3292,7 +3297,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E6" s="27">
         <v>2.2200000000000002</v>
@@ -3350,7 +3355,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E8" s="27">
         <v>2.23</v>
@@ -3381,7 +3386,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="27">
         <v>2.23</v>
@@ -3412,7 +3417,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E10" s="27">
         <v>2.23</v>
@@ -3443,7 +3448,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="27">
         <v>2.23</v>
@@ -3474,7 +3479,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E12" s="27">
         <v>2.23</v>
@@ -3505,7 +3510,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" s="27">
         <v>2.23</v>
@@ -3534,10 +3539,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>321</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>322</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -6764,7 +6769,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6916,7 +6921,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="42">
         <v>2.2799999999999998</v>
@@ -6953,7 +6958,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="44">
         <v>2.2799999999999998</v>
@@ -6982,7 +6987,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E8" s="44">
         <v>2.2799999999999998</v>
@@ -7004,14 +7009,18 @@
       <c r="A9" s="11">
         <v>104</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="44">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -7030,10 +7039,10 @@
         <v>111</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>93</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -7055,10 +7064,10 @@
         <v>297</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7080,10 +7089,10 @@
         <v>50</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7105,10 +7114,10 @@
         <v>78</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7130,10 +7139,10 @@
         <v>169</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
@@ -7165,10 +7174,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -7202,10 +7211,10 @@
         <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -7317,10 +7326,10 @@
         <v>236</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -7342,10 +7351,10 @@
         <v>105</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -7367,10 +7376,10 @@
         <v>77</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -7392,10 +7401,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -7417,10 +7426,10 @@
         <v>47</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -10854,11 +10863,11 @@
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -10920,10 +10929,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="15"/>
@@ -10949,10 +10958,10 @@
         <v>433</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>13</v>
@@ -11023,10 +11032,10 @@
         <v>515</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -11060,10 +11069,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
@@ -11095,10 +11104,10 @@
         <v>367</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
@@ -11208,10 +11217,10 @@
         <v>860</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -11245,10 +11254,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -11282,10 +11291,10 @@
         <v>455</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -11319,10 +11328,10 @@
         <v>874</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -11356,10 +11365,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -11393,10 +11402,10 @@
         <v>200</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -11430,10 +11439,10 @@
         <v>529</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
@@ -11467,10 +11476,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>13</v>
@@ -11504,10 +11513,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
@@ -11539,10 +11548,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
@@ -11574,10 +11583,10 @@
         <v>153</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
@@ -11609,10 +11618,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>13</v>
@@ -11646,10 +11655,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>13</v>
@@ -14544,11 +14553,11 @@
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -14610,10 +14619,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="15"/>
@@ -14637,10 +14646,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -14662,10 +14671,10 @@
         <v>1143</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -14690,7 +14699,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -14724,10 +14733,10 @@
         <v>120</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -14761,10 +14770,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -14798,10 +14807,10 @@
         <v>152</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -14823,10 +14832,10 @@
         <v>322</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14848,10 +14857,10 @@
         <v>198</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
@@ -14885,10 +14894,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
@@ -14922,10 +14931,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -14959,10 +14968,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -14996,10 +15005,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -15033,10 +15042,10 @@
         <v>309</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -15070,10 +15079,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -15107,10 +15116,10 @@
         <v>714</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -15141,7 +15150,7 @@
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -15165,10 +15174,10 @@
         <v>279</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -15190,10 +15199,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -15215,10 +15224,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -15240,10 +15249,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -15265,10 +15274,10 @@
         <v>980</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -15290,10 +15299,10 @@
         <v>518</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -15393,10 +15402,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>13</v>
@@ -15430,10 +15439,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>13</v>
@@ -15467,10 +15476,10 @@
         <v>221</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>13</v>
@@ -15504,10 +15513,10 @@
         <v>621</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>13</v>
@@ -15541,10 +15550,10 @@
         <v>647</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
@@ -15578,10 +15587,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>13</v>
@@ -15615,10 +15624,10 @@
         <v>363</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>13</v>
@@ -15652,10 +15661,10 @@
         <v>403</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>13</v>
@@ -15689,10 +15698,10 @@
         <v>410</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>13</v>
@@ -15726,10 +15735,10 @@
         <v>552</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>13</v>
@@ -15763,10 +15772,10 @@
         <v>76</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>13</v>
@@ -15800,10 +15809,10 @@
         <v>312</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>13</v>
@@ -18162,11 +18171,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -18231,10 +18240,10 @@
         <v>208</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="24"/>
@@ -18259,10 +18268,10 @@
         <v>212</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -18285,10 +18294,10 @@
         <v>547</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -18311,10 +18320,10 @@
         <v>200</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -18337,10 +18346,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -18366,7 +18375,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -18392,7 +18401,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18415,10 +18424,10 @@
         <v>51</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18441,10 +18450,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18467,10 +18476,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18493,10 +18502,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -18519,10 +18528,10 @@
         <v>433</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18545,10 +18554,10 @@
         <v>1091</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -18571,10 +18580,10 @@
         <v>773</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -21999,11 +22008,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -22068,10 +22077,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="24"/>
@@ -22096,10 +22105,10 @@
         <v>231</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -22122,10 +22131,10 @@
         <v>190</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -22148,10 +22157,10 @@
         <v>51</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -22174,10 +22183,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -22200,10 +22209,10 @@
         <v>338</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -22226,10 +22235,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22334,10 +22343,10 @@
         <v>1122</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22386,10 +22395,10 @@
         <v>1244</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -22412,10 +22421,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -22438,10 +22447,10 @@
         <v>493</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -26165,11 +26174,11 @@
     </row>
     <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="37"/>
       <c r="C2" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -26237,7 +26246,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="24"/>
@@ -26260,10 +26269,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -26286,10 +26295,10 @@
         <v>198</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -26312,10 +26321,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -26338,10 +26347,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -26364,10 +26373,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -26390,10 +26399,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26416,10 +26425,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26442,10 +26451,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26468,10 +26477,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26494,10 +26503,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -26520,10 +26529,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26546,10 +26555,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -26572,10 +26581,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -26598,10 +26607,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -26624,10 +26633,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -26650,10 +26659,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -26676,10 +26685,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -26754,10 +26763,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -26780,10 +26789,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -26806,10 +26815,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -26832,10 +26841,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26858,10 +26867,10 @@
         <v>1143</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -26884,10 +26893,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>302</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>303</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -26910,10 +26919,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -26936,10 +26945,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -27044,10 +27053,10 @@
         <v>205</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -27070,10 +27079,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
@@ -27096,10 +27105,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -27122,10 +27131,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
@@ -27148,10 +27157,10 @@
         <v>818</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="328">
   <si>
     <t>题号</t>
   </si>
@@ -1026,6 +1026,10 @@
   </si>
   <si>
     <t>二叉树的最大深度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -6769,7 +6773,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7044,8 +7048,12 @@
       <c r="C10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="44">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE95C9D-20A9-E845-80B2-5BB08B7BB3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB4870D-741F-1A49-9354-626C374EEB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="330">
   <si>
     <t>题号</t>
   </si>
@@ -1039,6 +1039,9 @@
   </si>
   <si>
     <t>递归</t>
+  </si>
+  <si>
+    <t>分治</t>
   </si>
 </sst>
 </file>
@@ -6777,7 +6780,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7110,8 +7113,12 @@
       <c r="C12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="37">
+        <v>3.1</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="335">
   <si>
     <t>题号</t>
   </si>
@@ -1059,6 +1059,10 @@
   <si>
     <t xml:space="preserve">
 回溯</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -6798,7 +6802,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7378,8 +7382,12 @@
       <c r="C21" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="37">
+        <v>3.1</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="335">
   <si>
     <t>题号</t>
   </si>
@@ -6802,14 +6802,14 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="47.36328125" customWidth="1"/>
+    <col min="3" max="3" width="58.6328125" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="4.6328125" customWidth="1"/>
     <col min="6" max="7" width="5.453125" customWidth="1"/>
@@ -7411,8 +7411,12 @@
       <c r="C22" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="37">
+        <v>3.1</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835FBA44-C393-B343-8916-CCFA7A4DB3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66A22A-F827-8646-96A4-401221D40F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="335">
   <si>
     <t>题号</t>
   </si>
@@ -1057,6 +1057,10 @@
   <si>
     <t xml:space="preserve">
 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+回溯，board[][],hen,shu,pie</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1348,9 +1352,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6823,7 +6824,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6831,7 +6832,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="9" width="5.1640625" customWidth="1"/>
@@ -7286,10 +7287,10 @@
         <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>13</v>
+        <v>334</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>331</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -7401,7 +7402,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -7426,7 +7427,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -7451,7 +7452,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="20"/>
-      <c r="E23" s="49"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -7476,7 +7477,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="49"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -7501,7 +7502,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="20"/>
-      <c r="E25" s="49"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -7843,7 +7844,7 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="50"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -7862,7 +7863,7 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="50"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -7881,7 +7882,7 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="50"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -7900,7 +7901,7 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="50"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -7919,7 +7920,7 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="50"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -7938,7 +7939,7 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="50"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -7957,7 +7958,7 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="50"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -7976,7 +7977,7 @@
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="50"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -7995,7 +7996,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="50"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -8014,7 +8015,7 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="50"/>
+      <c r="E52" s="49"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -8033,7 +8034,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="50"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -8052,7 +8053,7 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="50"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -8071,7 +8072,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="50"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -8090,7 +8091,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="50"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -8109,7 +8110,7 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="50"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -8128,7 +8129,7 @@
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="50"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -8147,7 +8148,7 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="50"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -8166,7 +8167,7 @@
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="50"/>
+      <c r="E60" s="49"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -8185,7 +8186,7 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="50"/>
+      <c r="E61" s="49"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -8204,7 +8205,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="50"/>
+      <c r="E62" s="49"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -8223,7 +8224,7 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="50"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -8242,7 +8243,7 @@
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="50"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -8261,7 +8262,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="50"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -8280,7 +8281,7 @@
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="50"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -8299,7 +8300,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="50"/>
+      <c r="E67" s="49"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -8318,7 +8319,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="50"/>
+      <c r="E68" s="49"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -8337,7 +8338,7 @@
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="50"/>
+      <c r="E69" s="49"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -8356,7 +8357,7 @@
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="50"/>
+      <c r="E70" s="49"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -8375,7 +8376,7 @@
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="50"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -8394,7 +8395,7 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="50"/>
+      <c r="E72" s="49"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -8413,7 +8414,7 @@
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="50"/>
+      <c r="E73" s="49"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -8432,7 +8433,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="50"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -8451,7 +8452,7 @@
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="50"/>
+      <c r="E75" s="49"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -8470,7 +8471,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="50"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -8489,7 +8490,7 @@
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="50"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -8508,7 +8509,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="50"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -8527,7 +8528,7 @@
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="50"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -8546,7 +8547,7 @@
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="50"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -8565,7 +8566,7 @@
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="50"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -8584,7 +8585,7 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="50"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -8603,7 +8604,7 @@
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="50"/>
+      <c r="E83" s="49"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -8622,7 +8623,7 @@
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
-      <c r="E84" s="50"/>
+      <c r="E84" s="49"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -8641,7 +8642,7 @@
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="50"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -8660,7 +8661,7 @@
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="50"/>
+      <c r="E86" s="49"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -8679,7 +8680,7 @@
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="50"/>
+      <c r="E87" s="49"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -8698,7 +8699,7 @@
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="50"/>
+      <c r="E88" s="49"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -8717,7 +8718,7 @@
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="50"/>
+      <c r="E89" s="49"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -8736,7 +8737,7 @@
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="50"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -8755,7 +8756,7 @@
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="50"/>
+      <c r="E91" s="49"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -8774,7 +8775,7 @@
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="50"/>
+      <c r="E92" s="49"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -8793,7 +8794,7 @@
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="50"/>
+      <c r="E93" s="49"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -8812,7 +8813,7 @@
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
-      <c r="E94" s="50"/>
+      <c r="E94" s="49"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -8831,7 +8832,7 @@
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
-      <c r="E95" s="50"/>
+      <c r="E95" s="49"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -8850,7 +8851,7 @@
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="50"/>
+      <c r="E96" s="49"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -8869,7 +8870,7 @@
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
-      <c r="E97" s="50"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -8888,7 +8889,7 @@
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="50"/>
+      <c r="E98" s="49"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -8907,7 +8908,7 @@
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
-      <c r="E99" s="50"/>
+      <c r="E99" s="49"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -8926,7 +8927,7 @@
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="50"/>
+      <c r="E100" s="49"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -8945,7 +8946,7 @@
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="50"/>
+      <c r="E101" s="49"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
@@ -8964,7 +8965,7 @@
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="50"/>
+      <c r="E102" s="49"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -8983,7 +8984,7 @@
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="50"/>
+      <c r="E103" s="49"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -9002,7 +9003,7 @@
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
-      <c r="E104" s="50"/>
+      <c r="E104" s="49"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -9021,7 +9022,7 @@
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
-      <c r="E105" s="50"/>
+      <c r="E105" s="49"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
@@ -9040,7 +9041,7 @@
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
-      <c r="E106" s="50"/>
+      <c r="E106" s="49"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
@@ -9059,7 +9060,7 @@
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
-      <c r="E107" s="50"/>
+      <c r="E107" s="49"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
@@ -9078,7 +9079,7 @@
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
-      <c r="E108" s="50"/>
+      <c r="E108" s="49"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
@@ -9097,7 +9098,7 @@
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="50"/>
+      <c r="E109" s="49"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
@@ -9116,7 +9117,7 @@
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
-      <c r="E110" s="50"/>
+      <c r="E110" s="49"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -9135,7 +9136,7 @@
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="50"/>
+      <c r="E111" s="49"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -9154,7 +9155,7 @@
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="50"/>
+      <c r="E112" s="49"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
@@ -9173,7 +9174,7 @@
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="50"/>
+      <c r="E113" s="49"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
@@ -9192,7 +9193,7 @@
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
-      <c r="E114" s="50"/>
+      <c r="E114" s="49"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
@@ -9211,7 +9212,7 @@
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
-      <c r="E115" s="50"/>
+      <c r="E115" s="49"/>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
@@ -9230,7 +9231,7 @@
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="50"/>
+      <c r="E116" s="49"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
@@ -9249,7 +9250,7 @@
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="50"/>
+      <c r="E117" s="49"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
@@ -9268,7 +9269,7 @@
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="50"/>
+      <c r="E118" s="49"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
@@ -9287,7 +9288,7 @@
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
-      <c r="E119" s="50"/>
+      <c r="E119" s="49"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
@@ -9306,7 +9307,7 @@
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
-      <c r="E120" s="50"/>
+      <c r="E120" s="49"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -9325,7 +9326,7 @@
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="50"/>
+      <c r="E121" s="49"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -9344,7 +9345,7 @@
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
-      <c r="E122" s="50"/>
+      <c r="E122" s="49"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -9363,7 +9364,7 @@
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
-      <c r="E123" s="50"/>
+      <c r="E123" s="49"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -9382,7 +9383,7 @@
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="50"/>
+      <c r="E124" s="49"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
@@ -9401,7 +9402,7 @@
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
-      <c r="E125" s="50"/>
+      <c r="E125" s="49"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
@@ -9420,7 +9421,7 @@
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
-      <c r="E126" s="50"/>
+      <c r="E126" s="49"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
@@ -9439,7 +9440,7 @@
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="50"/>
+      <c r="E127" s="49"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
@@ -9458,7 +9459,7 @@
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
-      <c r="E128" s="50"/>
+      <c r="E128" s="49"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
@@ -9477,7 +9478,7 @@
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
-      <c r="E129" s="50"/>
+      <c r="E129" s="49"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -9496,7 +9497,7 @@
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="50"/>
+      <c r="E130" s="49"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -9515,7 +9516,7 @@
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
-      <c r="E131" s="50"/>
+      <c r="E131" s="49"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
@@ -9534,7 +9535,7 @@
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
-      <c r="E132" s="50"/>
+      <c r="E132" s="49"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
@@ -9553,7 +9554,7 @@
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
-      <c r="E133" s="50"/>
+      <c r="E133" s="49"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
@@ -9572,7 +9573,7 @@
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="50"/>
+      <c r="E134" s="49"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
@@ -9591,7 +9592,7 @@
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
-      <c r="E135" s="50"/>
+      <c r="E135" s="49"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
@@ -9610,7 +9611,7 @@
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
-      <c r="E136" s="50"/>
+      <c r="E136" s="49"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
@@ -9629,7 +9630,7 @@
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
-      <c r="E137" s="50"/>
+      <c r="E137" s="49"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
@@ -9648,7 +9649,7 @@
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="50"/>
+      <c r="E138" s="49"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
@@ -9667,7 +9668,7 @@
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
-      <c r="E139" s="50"/>
+      <c r="E139" s="49"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
@@ -9686,7 +9687,7 @@
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="50"/>
+      <c r="E140" s="49"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
@@ -9705,7 +9706,7 @@
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
-      <c r="E141" s="50"/>
+      <c r="E141" s="49"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
@@ -9724,7 +9725,7 @@
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="50"/>
+      <c r="E142" s="49"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
@@ -9743,7 +9744,7 @@
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="50"/>
+      <c r="E143" s="49"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -9762,7 +9763,7 @@
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="50"/>
+      <c r="E144" s="49"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
@@ -9781,7 +9782,7 @@
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="50"/>
+      <c r="E145" s="49"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
@@ -9800,7 +9801,7 @@
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="50"/>
+      <c r="E146" s="49"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
@@ -9819,7 +9820,7 @@
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="50"/>
+      <c r="E147" s="49"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
@@ -9838,7 +9839,7 @@
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="50"/>
+      <c r="E148" s="49"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
@@ -9857,7 +9858,7 @@
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="50"/>
+      <c r="E149" s="49"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
@@ -9876,7 +9877,7 @@
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
-      <c r="E150" s="50"/>
+      <c r="E150" s="49"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
@@ -9895,7 +9896,7 @@
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
-      <c r="E151" s="50"/>
+      <c r="E151" s="49"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
@@ -9914,7 +9915,7 @@
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
-      <c r="E152" s="50"/>
+      <c r="E152" s="49"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
@@ -9933,7 +9934,7 @@
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="50"/>
+      <c r="E153" s="49"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
@@ -9952,7 +9953,7 @@
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
-      <c r="E154" s="50"/>
+      <c r="E154" s="49"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
@@ -9971,7 +9972,7 @@
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
-      <c r="E155" s="50"/>
+      <c r="E155" s="49"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
@@ -9990,7 +9991,7 @@
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="50"/>
+      <c r="E156" s="49"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
@@ -10009,7 +10010,7 @@
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="50"/>
+      <c r="E157" s="49"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
@@ -10028,7 +10029,7 @@
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="50"/>
+      <c r="E158" s="49"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
@@ -10047,7 +10048,7 @@
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
-      <c r="E159" s="50"/>
+      <c r="E159" s="49"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
@@ -10066,7 +10067,7 @@
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="50"/>
+      <c r="E160" s="49"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
@@ -10085,7 +10086,7 @@
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="50"/>
+      <c r="E161" s="49"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -10104,7 +10105,7 @@
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
-      <c r="E162" s="50"/>
+      <c r="E162" s="49"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
@@ -10123,7 +10124,7 @@
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="50"/>
+      <c r="E163" s="49"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -10142,7 +10143,7 @@
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="50"/>
+      <c r="E164" s="49"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -10161,7 +10162,7 @@
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="50"/>
+      <c r="E165" s="49"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -10180,7 +10181,7 @@
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="50"/>
+      <c r="E166" s="49"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
@@ -10199,7 +10200,7 @@
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
-      <c r="E167" s="50"/>
+      <c r="E167" s="49"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
@@ -10218,7 +10219,7 @@
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="50"/>
+      <c r="E168" s="49"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
@@ -10237,7 +10238,7 @@
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
-      <c r="E169" s="50"/>
+      <c r="E169" s="49"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
@@ -10256,7 +10257,7 @@
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
-      <c r="E170" s="50"/>
+      <c r="E170" s="49"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
@@ -10275,7 +10276,7 @@
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
-      <c r="E171" s="50"/>
+      <c r="E171" s="49"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
@@ -10294,7 +10295,7 @@
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="50"/>
+      <c r="E172" s="49"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
@@ -10313,7 +10314,7 @@
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
-      <c r="E173" s="50"/>
+      <c r="E173" s="49"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
@@ -10332,7 +10333,7 @@
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="50"/>
+      <c r="E174" s="49"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
@@ -10351,7 +10352,7 @@
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
-      <c r="E175" s="50"/>
+      <c r="E175" s="49"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
@@ -10370,7 +10371,7 @@
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="50"/>
+      <c r="E176" s="49"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
@@ -10389,7 +10390,7 @@
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="50"/>
+      <c r="E177" s="49"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
@@ -10408,7 +10409,7 @@
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="50"/>
+      <c r="E178" s="49"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
@@ -10427,7 +10428,7 @@
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="50"/>
+      <c r="E179" s="49"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
@@ -10446,7 +10447,7 @@
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="50"/>
+      <c r="E180" s="49"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
@@ -10465,7 +10466,7 @@
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="50"/>
+      <c r="E181" s="49"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
@@ -10484,7 +10485,7 @@
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
-      <c r="E182" s="50"/>
+      <c r="E182" s="49"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
@@ -10503,7 +10504,7 @@
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
-      <c r="E183" s="50"/>
+      <c r="E183" s="49"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
@@ -10522,7 +10523,7 @@
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="50"/>
+      <c r="E184" s="49"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
@@ -10541,7 +10542,7 @@
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
-      <c r="E185" s="50"/>
+      <c r="E185" s="49"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
@@ -10560,7 +10561,7 @@
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="50"/>
+      <c r="E186" s="49"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
@@ -10579,7 +10580,7 @@
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="50"/>
+      <c r="E187" s="49"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
@@ -10598,7 +10599,7 @@
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
-      <c r="E188" s="50"/>
+      <c r="E188" s="49"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
@@ -10617,7 +10618,7 @@
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="50"/>
+      <c r="E189" s="49"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
@@ -10636,7 +10637,7 @@
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
-      <c r="E190" s="50"/>
+      <c r="E190" s="49"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
@@ -10655,7 +10656,7 @@
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
-      <c r="E191" s="50"/>
+      <c r="E191" s="49"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
@@ -10674,7 +10675,7 @@
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
-      <c r="E192" s="50"/>
+      <c r="E192" s="49"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
@@ -10693,7 +10694,7 @@
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
-      <c r="E193" s="50"/>
+      <c r="E193" s="49"/>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
@@ -10712,7 +10713,7 @@
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
-      <c r="E194" s="50"/>
+      <c r="E194" s="49"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
@@ -10731,7 +10732,7 @@
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="50"/>
+      <c r="E195" s="49"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
@@ -10750,7 +10751,7 @@
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="50"/>
+      <c r="E196" s="49"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
@@ -10769,7 +10770,7 @@
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="50"/>
+      <c r="E197" s="49"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
@@ -10788,7 +10789,7 @@
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
-      <c r="E198" s="50"/>
+      <c r="E198" s="49"/>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
@@ -10807,7 +10808,7 @@
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
-      <c r="E199" s="50"/>
+      <c r="E199" s="49"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
@@ -10826,7 +10827,7 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="50"/>
+      <c r="E200" s="49"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66A22A-F827-8646-96A4-401221D40F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF9A56-8537-F94F-9AA6-43B4CD0BC22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="336">
   <si>
     <t>题号</t>
   </si>
@@ -1061,6 +1061,9 @@
   <si>
     <t xml:space="preserve">
 回溯，board[][],hen,shu,pie</t>
+  </si>
+  <si>
+    <t>递归，每次找到左右子树的长度</t>
   </si>
 </sst>
 </file>
@@ -6823,15 +6826,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="5.5" customWidth="1"/>
@@ -7401,8 +7404,12 @@
       <c r="C21" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="E21" s="47">
+        <v>3.1</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -7426,8 +7433,12 @@
       <c r="C22" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E22" s="47">
+        <v>3.1</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF9A56-8537-F94F-9AA6-43B4CD0BC22A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846209C-76D9-7E44-AA8F-26CB09FABAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="337">
   <si>
     <t>题号</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>递归，每次找到左右子树的长度</t>
+  </si>
+  <si>
+    <t>回溯，需要visited标记,visited为bool数组</t>
   </si>
 </sst>
 </file>
@@ -6827,7 +6830,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6835,7 +6838,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="9" width="5.1640625" customWidth="1"/>
@@ -7462,8 +7465,12 @@
       <c r="C23" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E23" s="47">
+        <v>3.1</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -7487,8 +7494,12 @@
       <c r="C24" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" s="47">
+        <v>3.1</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846209C-76D9-7E44-AA8F-26CB09FABAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25390A15-AF28-344D-9C34-6B5E743227FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="338">
   <si>
     <t>题号</t>
   </si>
@@ -1067,6 +1067,9 @@
   </si>
   <si>
     <t>回溯，需要visited标记,visited为bool数组</t>
+  </si>
+  <si>
+    <t>回溯，需要visited标记, sort，剪枝</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1357,9 +1360,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6830,7 +6830,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7523,8 +7523,12 @@
       <c r="C25" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="47">
+        <v>3.1</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -7866,7 +7870,7 @@
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="49"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -7885,7 +7889,7 @@
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="49"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
@@ -7904,7 +7908,7 @@
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="49"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -7923,7 +7927,7 @@
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
-      <c r="E46" s="49"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
@@ -7942,7 +7946,7 @@
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="49"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -7961,7 +7965,7 @@
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
-      <c r="E48" s="49"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -7980,7 +7984,7 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="49"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -7999,7 +8003,7 @@
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="49"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -8018,7 +8022,7 @@
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="49"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -8037,7 +8041,7 @@
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="49"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
@@ -8056,7 +8060,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
-      <c r="E53" s="49"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
@@ -8075,7 +8079,7 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="49"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -8094,7 +8098,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="49"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
@@ -8113,7 +8117,7 @@
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="49"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
@@ -8132,7 +8136,7 @@
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="49"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
@@ -8151,7 +8155,7 @@
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="49"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
@@ -8170,7 +8174,7 @@
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="49"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
@@ -8189,7 +8193,7 @@
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
-      <c r="E60" s="49"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
@@ -8208,7 +8212,7 @@
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="49"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
@@ -8227,7 +8231,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="49"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
@@ -8246,7 +8250,7 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="49"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
@@ -8265,7 +8269,7 @@
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="49"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
@@ -8284,7 +8288,7 @@
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
-      <c r="E65" s="49"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
@@ -8303,7 +8307,7 @@
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="49"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -8322,7 +8326,7 @@
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="49"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
@@ -8341,7 +8345,7 @@
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="49"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
@@ -8360,7 +8364,7 @@
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="49"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
@@ -8379,7 +8383,7 @@
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="49"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
@@ -8398,7 +8402,7 @@
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="49"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
@@ -8417,7 +8421,7 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="49"/>
+      <c r="E72" s="48"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -8436,7 +8440,7 @@
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
-      <c r="E73" s="49"/>
+      <c r="E73" s="48"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
@@ -8455,7 +8459,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="49"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -8474,7 +8478,7 @@
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="49"/>
+      <c r="E75" s="48"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
@@ -8493,7 +8497,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
-      <c r="E76" s="49"/>
+      <c r="E76" s="48"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
@@ -8512,7 +8516,7 @@
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="49"/>
+      <c r="E77" s="48"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
@@ -8531,7 +8535,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="49"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -8550,7 +8554,7 @@
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="49"/>
+      <c r="E79" s="48"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -8569,7 +8573,7 @@
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
-      <c r="E80" s="49"/>
+      <c r="E80" s="48"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -8588,7 +8592,7 @@
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
-      <c r="E81" s="49"/>
+      <c r="E81" s="48"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
@@ -8607,7 +8611,7 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
-      <c r="E82" s="49"/>
+      <c r="E82" s="48"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
@@ -8626,7 +8630,7 @@
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="49"/>
+      <c r="E83" s="48"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
@@ -8645,7 +8649,7 @@
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
-      <c r="E84" s="49"/>
+      <c r="E84" s="48"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -8664,7 +8668,7 @@
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="49"/>
+      <c r="E85" s="48"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -8683,7 +8687,7 @@
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="49"/>
+      <c r="E86" s="48"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -8702,7 +8706,7 @@
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="49"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
@@ -8721,7 +8725,7 @@
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="49"/>
+      <c r="E88" s="48"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
@@ -8740,7 +8744,7 @@
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
-      <c r="E89" s="49"/>
+      <c r="E89" s="48"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
@@ -8759,7 +8763,7 @@
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
-      <c r="E90" s="49"/>
+      <c r="E90" s="48"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -8778,7 +8782,7 @@
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
-      <c r="E91" s="49"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
@@ -8797,7 +8801,7 @@
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="49"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
@@ -8816,7 +8820,7 @@
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="49"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
@@ -8835,7 +8839,7 @@
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
-      <c r="E94" s="49"/>
+      <c r="E94" s="48"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
@@ -8854,7 +8858,7 @@
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
-      <c r="E95" s="49"/>
+      <c r="E95" s="48"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
@@ -8873,7 +8877,7 @@
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
-      <c r="E96" s="49"/>
+      <c r="E96" s="48"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
@@ -8892,7 +8896,7 @@
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
-      <c r="E97" s="49"/>
+      <c r="E97" s="48"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
@@ -8911,7 +8915,7 @@
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
-      <c r="E98" s="49"/>
+      <c r="E98" s="48"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
@@ -8930,7 +8934,7 @@
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
-      <c r="E99" s="49"/>
+      <c r="E99" s="48"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
@@ -8949,7 +8953,7 @@
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="49"/>
+      <c r="E100" s="48"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
@@ -8968,7 +8972,7 @@
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="49"/>
+      <c r="E101" s="48"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
@@ -8987,7 +8991,7 @@
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="49"/>
+      <c r="E102" s="48"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -9006,7 +9010,7 @@
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
-      <c r="E103" s="49"/>
+      <c r="E103" s="48"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
@@ -9025,7 +9029,7 @@
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
-      <c r="E104" s="49"/>
+      <c r="E104" s="48"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
@@ -9044,7 +9048,7 @@
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
-      <c r="E105" s="49"/>
+      <c r="E105" s="48"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
@@ -9063,7 +9067,7 @@
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
-      <c r="E106" s="49"/>
+      <c r="E106" s="48"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
@@ -9082,7 +9086,7 @@
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
-      <c r="E107" s="49"/>
+      <c r="E107" s="48"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
@@ -9101,7 +9105,7 @@
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
-      <c r="E108" s="49"/>
+      <c r="E108" s="48"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
@@ -9120,7 +9124,7 @@
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
-      <c r="E109" s="49"/>
+      <c r="E109" s="48"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
@@ -9139,7 +9143,7 @@
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
-      <c r="E110" s="49"/>
+      <c r="E110" s="48"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
@@ -9158,7 +9162,7 @@
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="49"/>
+      <c r="E111" s="48"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
@@ -9177,7 +9181,7 @@
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
-      <c r="E112" s="49"/>
+      <c r="E112" s="48"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
@@ -9196,7 +9200,7 @@
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
-      <c r="E113" s="49"/>
+      <c r="E113" s="48"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
@@ -9215,7 +9219,7 @@
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
-      <c r="E114" s="49"/>
+      <c r="E114" s="48"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
@@ -9234,7 +9238,7 @@
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
-      <c r="E115" s="49"/>
+      <c r="E115" s="48"/>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
@@ -9253,7 +9257,7 @@
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="49"/>
+      <c r="E116" s="48"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
@@ -9272,7 +9276,7 @@
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
-      <c r="E117" s="49"/>
+      <c r="E117" s="48"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
@@ -9291,7 +9295,7 @@
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
-      <c r="E118" s="49"/>
+      <c r="E118" s="48"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
@@ -9310,7 +9314,7 @@
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
-      <c r="E119" s="49"/>
+      <c r="E119" s="48"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
@@ -9329,7 +9333,7 @@
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
-      <c r="E120" s="49"/>
+      <c r="E120" s="48"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
@@ -9348,7 +9352,7 @@
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
-      <c r="E121" s="49"/>
+      <c r="E121" s="48"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
@@ -9367,7 +9371,7 @@
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
-      <c r="E122" s="49"/>
+      <c r="E122" s="48"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
@@ -9386,7 +9390,7 @@
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
-      <c r="E123" s="49"/>
+      <c r="E123" s="48"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
@@ -9405,7 +9409,7 @@
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
-      <c r="E124" s="49"/>
+      <c r="E124" s="48"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
@@ -9424,7 +9428,7 @@
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
-      <c r="E125" s="49"/>
+      <c r="E125" s="48"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
@@ -9443,7 +9447,7 @@
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
-      <c r="E126" s="49"/>
+      <c r="E126" s="48"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
@@ -9462,7 +9466,7 @@
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
-      <c r="E127" s="49"/>
+      <c r="E127" s="48"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
@@ -9481,7 +9485,7 @@
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
-      <c r="E128" s="49"/>
+      <c r="E128" s="48"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
@@ -9500,7 +9504,7 @@
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
-      <c r="E129" s="49"/>
+      <c r="E129" s="48"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
@@ -9519,7 +9523,7 @@
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="49"/>
+      <c r="E130" s="48"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
@@ -9538,7 +9542,7 @@
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
-      <c r="E131" s="49"/>
+      <c r="E131" s="48"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
@@ -9557,7 +9561,7 @@
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="48"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
@@ -9576,7 +9580,7 @@
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
-      <c r="E133" s="49"/>
+      <c r="E133" s="48"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
@@ -9595,7 +9599,7 @@
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
-      <c r="E134" s="49"/>
+      <c r="E134" s="48"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
@@ -9614,7 +9618,7 @@
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
-      <c r="E135" s="49"/>
+      <c r="E135" s="48"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
@@ -9633,7 +9637,7 @@
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
-      <c r="E136" s="49"/>
+      <c r="E136" s="48"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
@@ -9652,7 +9656,7 @@
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
-      <c r="E137" s="49"/>
+      <c r="E137" s="48"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
@@ -9671,7 +9675,7 @@
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
-      <c r="E138" s="49"/>
+      <c r="E138" s="48"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
@@ -9690,7 +9694,7 @@
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
-      <c r="E139" s="49"/>
+      <c r="E139" s="48"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
@@ -9709,7 +9713,7 @@
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
-      <c r="E140" s="49"/>
+      <c r="E140" s="48"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
@@ -9728,7 +9732,7 @@
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
-      <c r="E141" s="49"/>
+      <c r="E141" s="48"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
@@ -9747,7 +9751,7 @@
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="49"/>
+      <c r="E142" s="48"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
@@ -9766,7 +9770,7 @@
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="49"/>
+      <c r="E143" s="48"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
@@ -9785,7 +9789,7 @@
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="49"/>
+      <c r="E144" s="48"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
@@ -9804,7 +9808,7 @@
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="49"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
@@ -9823,7 +9827,7 @@
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
-      <c r="E146" s="49"/>
+      <c r="E146" s="48"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
@@ -9842,7 +9846,7 @@
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
-      <c r="E147" s="49"/>
+      <c r="E147" s="48"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
@@ -9861,7 +9865,7 @@
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
-      <c r="E148" s="49"/>
+      <c r="E148" s="48"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
@@ -9880,7 +9884,7 @@
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
-      <c r="E149" s="49"/>
+      <c r="E149" s="48"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
@@ -9899,7 +9903,7 @@
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
-      <c r="E150" s="49"/>
+      <c r="E150" s="48"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
@@ -9918,7 +9922,7 @@
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
-      <c r="E151" s="49"/>
+      <c r="E151" s="48"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
@@ -9937,7 +9941,7 @@
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
-      <c r="E152" s="49"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
@@ -9956,7 +9960,7 @@
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
-      <c r="E153" s="49"/>
+      <c r="E153" s="48"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
@@ -9975,7 +9979,7 @@
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
-      <c r="E154" s="49"/>
+      <c r="E154" s="48"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
@@ -9994,7 +9998,7 @@
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
-      <c r="E155" s="49"/>
+      <c r="E155" s="48"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
@@ -10013,7 +10017,7 @@
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
-      <c r="E156" s="49"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
@@ -10032,7 +10036,7 @@
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="49"/>
+      <c r="E157" s="48"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
@@ -10051,7 +10055,7 @@
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
-      <c r="E158" s="49"/>
+      <c r="E158" s="48"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
@@ -10070,7 +10074,7 @@
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
-      <c r="E159" s="49"/>
+      <c r="E159" s="48"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
@@ -10089,7 +10093,7 @@
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
-      <c r="E160" s="49"/>
+      <c r="E160" s="48"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
@@ -10108,7 +10112,7 @@
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
-      <c r="E161" s="49"/>
+      <c r="E161" s="48"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -10127,7 +10131,7 @@
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
-      <c r="E162" s="49"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
@@ -10146,7 +10150,7 @@
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="49"/>
+      <c r="E163" s="48"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -10165,7 +10169,7 @@
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="49"/>
+      <c r="E164" s="48"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -10184,7 +10188,7 @@
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="49"/>
+      <c r="E165" s="48"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -10203,7 +10207,7 @@
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="49"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
@@ -10222,7 +10226,7 @@
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
-      <c r="E167" s="49"/>
+      <c r="E167" s="48"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
@@ -10241,7 +10245,7 @@
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="49"/>
+      <c r="E168" s="48"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
@@ -10260,7 +10264,7 @@
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
-      <c r="E169" s="49"/>
+      <c r="E169" s="48"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
@@ -10279,7 +10283,7 @@
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
-      <c r="E170" s="49"/>
+      <c r="E170" s="48"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
@@ -10298,7 +10302,7 @@
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
-      <c r="E171" s="49"/>
+      <c r="E171" s="48"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
@@ -10317,7 +10321,7 @@
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="49"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
@@ -10336,7 +10340,7 @@
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
-      <c r="E173" s="49"/>
+      <c r="E173" s="48"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
@@ -10355,7 +10359,7 @@
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="49"/>
+      <c r="E174" s="48"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
@@ -10374,7 +10378,7 @@
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
-      <c r="E175" s="49"/>
+      <c r="E175" s="48"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
@@ -10393,7 +10397,7 @@
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="49"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
@@ -10412,7 +10416,7 @@
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="49"/>
+      <c r="E177" s="48"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
@@ -10431,7 +10435,7 @@
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="49"/>
+      <c r="E178" s="48"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
@@ -10450,7 +10454,7 @@
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
-      <c r="E179" s="49"/>
+      <c r="E179" s="48"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
@@ -10469,7 +10473,7 @@
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="49"/>
+      <c r="E180" s="48"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
@@ -10488,7 +10492,7 @@
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
-      <c r="E181" s="49"/>
+      <c r="E181" s="48"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
@@ -10507,7 +10511,7 @@
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
-      <c r="E182" s="49"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
@@ -10526,7 +10530,7 @@
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
-      <c r="E183" s="49"/>
+      <c r="E183" s="48"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
@@ -10545,7 +10549,7 @@
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
-      <c r="E184" s="49"/>
+      <c r="E184" s="48"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
@@ -10564,7 +10568,7 @@
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
-      <c r="E185" s="49"/>
+      <c r="E185" s="48"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
@@ -10583,7 +10587,7 @@
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="49"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
@@ -10602,7 +10606,7 @@
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="49"/>
+      <c r="E187" s="48"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
@@ -10621,7 +10625,7 @@
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
-      <c r="E188" s="49"/>
+      <c r="E188" s="48"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
@@ -10640,7 +10644,7 @@
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
-      <c r="E189" s="49"/>
+      <c r="E189" s="48"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
@@ -10659,7 +10663,7 @@
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
-      <c r="E190" s="49"/>
+      <c r="E190" s="48"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
@@ -10678,7 +10682,7 @@
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
-      <c r="E191" s="49"/>
+      <c r="E191" s="48"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
@@ -10697,7 +10701,7 @@
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
-      <c r="E192" s="49"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
@@ -10716,7 +10720,7 @@
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
-      <c r="E193" s="49"/>
+      <c r="E193" s="48"/>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
@@ -10735,7 +10739,7 @@
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
-      <c r="E194" s="49"/>
+      <c r="E194" s="48"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
@@ -10754,7 +10758,7 @@
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
-      <c r="E195" s="49"/>
+      <c r="E195" s="48"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
@@ -10773,7 +10777,7 @@
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
-      <c r="E196" s="49"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
@@ -10792,7 +10796,7 @@
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
-      <c r="E197" s="49"/>
+      <c r="E197" s="48"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
@@ -10811,7 +10815,7 @@
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
-      <c r="E198" s="49"/>
+      <c r="E198" s="48"/>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
@@ -10830,7 +10834,7 @@
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
-      <c r="E199" s="49"/>
+      <c r="E199" s="48"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
@@ -10849,7 +10853,7 @@
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
-      <c r="E200" s="49"/>
+      <c r="E200" s="48"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/jiketraining/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF7035F-C3F6-B141-A6D8-C05F501A9917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDFAD94-707F-D048-B7ED-341B71A4C4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="344">
   <si>
     <t>题号</t>
   </si>
@@ -1094,6 +1094,10 @@
     <t xml:space="preserve">
 2.16</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3.2</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1372,6 +1376,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1808,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -1818,25 +1825,25 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="52" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="9" width="4.5" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1861,19 +1868,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1884,17 +1891,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1905,15 +1912,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1934,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="49">
+      <c r="E5" s="50">
         <v>2.14</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1971,7 +1978,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="50">
+      <c r="E6" s="51">
         <v>2.14</v>
       </c>
       <c r="F6" s="8"/>
@@ -1998,7 +2005,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="51" t="s">
         <v>338</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -2033,7 +2040,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="51" t="s">
         <v>339</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -2068,11 +2075,11 @@
         <v>22</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
+      <c r="F9" s="35" t="s">
+        <v>343</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>13</v>
@@ -2103,7 +2110,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="51" t="s">
         <v>339</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -2138,7 +2145,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="51" t="s">
         <v>340</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -2173,7 +2180,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="51" t="s">
         <v>339</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -2208,7 +2215,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="51" t="s">
         <v>340</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2245,7 +2252,7 @@
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="51" t="s">
         <v>340</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -2282,7 +2289,7 @@
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="51">
         <v>2.16</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -2319,7 +2326,7 @@
       <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="52" t="s">
         <v>341</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -2356,7 +2363,7 @@
       <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="51" t="s">
         <v>342</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -2417,17 +2424,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2438,15 +2445,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2467,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2492,7 +2499,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -2527,7 +2534,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -2562,7 +2569,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -2597,7 +2604,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -2632,7 +2639,7 @@
         <v>51</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2669,7 +2676,7 @@
       <c r="D28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -2706,7 +2713,7 @@
       <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="54" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -3316,10 +3323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3351,19 +3358,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3374,17 +3381,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3395,15 +3402,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3764,7 +3771,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -3785,7 +3792,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6928,7 +6935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="125" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -6946,10 +6953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6981,19 +6988,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7004,7 +7011,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7025,7 +7032,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7054,7 +7061,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -7083,7 +7090,7 @@
       <c r="D6" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="46">
         <v>2.2799999999999998</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -7117,10 +7124,10 @@
       <c r="C7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="47">
         <v>2.2799999999999998</v>
       </c>
       <c r="F7" s="19"/>
@@ -7146,10 +7153,10 @@
       <c r="C8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="47">
         <v>2.2799999999999998</v>
       </c>
       <c r="F8" s="19"/>
@@ -7169,16 +7176,16 @@
       <c r="A9" s="10">
         <v>104</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>325</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="47">
         <v>2.2799999999999998</v>
       </c>
       <c r="F9" s="19"/>
@@ -7204,10 +7211,10 @@
       <c r="C10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="47">
         <v>2.2799999999999998</v>
       </c>
       <c r="F10" s="19"/>
@@ -7236,7 +7243,7 @@
       <c r="D11" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="47">
         <v>3.1</v>
       </c>
       <c r="F11" s="19"/>
@@ -7265,7 +7272,7 @@
       <c r="D12" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="47">
         <v>3.1</v>
       </c>
       <c r="F12" s="19"/>
@@ -7288,13 +7295,13 @@
       <c r="B13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="47">
         <v>3.1</v>
       </c>
       <c r="F13" s="19"/>
@@ -7320,7 +7327,7 @@
       <c r="C14" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="46" t="s">
         <v>331</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -7357,7 +7364,7 @@
       <c r="D15" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="46" t="s">
         <v>333</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -7394,7 +7401,7 @@
       <c r="D16" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="46" t="s">
         <v>331</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -7457,7 +7464,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7478,7 +7485,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1">
-      <c r="A20" s="36"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7509,7 +7516,7 @@
       <c r="D21" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="47">
         <v>3.1</v>
       </c>
       <c r="F21" s="19"/>
@@ -7538,7 +7545,7 @@
       <c r="D22" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="47">
         <v>3.1</v>
       </c>
       <c r="F22" s="19"/>
@@ -7567,7 +7574,7 @@
       <c r="D23" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="47">
         <v>3.1</v>
       </c>
       <c r="F23" s="19"/>
@@ -7596,7 +7603,7 @@
       <c r="D24" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="47">
         <v>3.1</v>
       </c>
       <c r="F24" s="19"/>
@@ -7625,7 +7632,7 @@
       <c r="D25" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="47">
         <v>3.1</v>
       </c>
       <c r="F25" s="19"/>
@@ -7969,7 +7976,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="47"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -7988,7 +7995,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="47"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -8007,7 +8014,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="47"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -8026,7 +8033,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="47"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -8045,7 +8052,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="47"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -8064,7 +8071,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="47"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -8083,7 +8090,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -8102,7 +8109,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="47"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -8121,7 +8128,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="47"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -8140,7 +8147,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="47"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -8159,7 +8166,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="47"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -8178,7 +8185,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="47"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -8197,7 +8204,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="47"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -8216,7 +8223,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="47"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -8235,7 +8242,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="47"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -8254,7 +8261,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="47"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -8273,7 +8280,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="47"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -8292,7 +8299,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="47"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -8311,7 +8318,7 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="47"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -8330,7 +8337,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="47"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -8349,7 +8356,7 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="47"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -8368,7 +8375,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="47"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -8387,7 +8394,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="47"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -8406,7 +8413,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="47"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -8425,7 +8432,7 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="47"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -8444,7 +8451,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="47"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -8463,7 +8470,7 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="47"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -8482,7 +8489,7 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="47"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -8501,7 +8508,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="47"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -8520,7 +8527,7 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="47"/>
+      <c r="E72" s="48"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -8539,7 +8546,7 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="47"/>
+      <c r="E73" s="48"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -8558,7 +8565,7 @@
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="47"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -8577,7 +8584,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="47"/>
+      <c r="E75" s="48"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -8596,7 +8603,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="47"/>
+      <c r="E76" s="48"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -8615,7 +8622,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="47"/>
+      <c r="E77" s="48"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -8634,7 +8641,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="47"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -8653,7 +8660,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="47"/>
+      <c r="E79" s="48"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -8672,7 +8679,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="47"/>
+      <c r="E80" s="48"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -8691,7 +8698,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="47"/>
+      <c r="E81" s="48"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -8710,7 +8717,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="47"/>
+      <c r="E82" s="48"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -8729,7 +8736,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="47"/>
+      <c r="E83" s="48"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -8748,7 +8755,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="47"/>
+      <c r="E84" s="48"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -8767,7 +8774,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="47"/>
+      <c r="E85" s="48"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -8786,7 +8793,7 @@
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="47"/>
+      <c r="E86" s="48"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -8805,7 +8812,7 @@
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="47"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -8824,7 +8831,7 @@
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="47"/>
+      <c r="E88" s="48"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -8843,7 +8850,7 @@
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="47"/>
+      <c r="E89" s="48"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -8862,7 +8869,7 @@
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="47"/>
+      <c r="E90" s="48"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -8881,7 +8888,7 @@
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="47"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -8900,7 +8907,7 @@
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="47"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -8919,7 +8926,7 @@
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="47"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -8938,7 +8945,7 @@
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="47"/>
+      <c r="E94" s="48"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -8957,7 +8964,7 @@
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="47"/>
+      <c r="E95" s="48"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -8976,7 +8983,7 @@
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="47"/>
+      <c r="E96" s="48"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -8995,7 +9002,7 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="47"/>
+      <c r="E97" s="48"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -9014,7 +9021,7 @@
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="47"/>
+      <c r="E98" s="48"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -9033,7 +9040,7 @@
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="47"/>
+      <c r="E99" s="48"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -9052,7 +9059,7 @@
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="47"/>
+      <c r="E100" s="48"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -9071,7 +9078,7 @@
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="47"/>
+      <c r="E101" s="48"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -9090,7 +9097,7 @@
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="47"/>
+      <c r="E102" s="48"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -9109,7 +9116,7 @@
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="47"/>
+      <c r="E103" s="48"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -9128,7 +9135,7 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="47"/>
+      <c r="E104" s="48"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -9147,7 +9154,7 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="47"/>
+      <c r="E105" s="48"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -9166,7 +9173,7 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="47"/>
+      <c r="E106" s="48"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -9185,7 +9192,7 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="47"/>
+      <c r="E107" s="48"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -9204,7 +9211,7 @@
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="47"/>
+      <c r="E108" s="48"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -9223,7 +9230,7 @@
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="47"/>
+      <c r="E109" s="48"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -9242,7 +9249,7 @@
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="47"/>
+      <c r="E110" s="48"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -9261,7 +9268,7 @@
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="47"/>
+      <c r="E111" s="48"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -9280,7 +9287,7 @@
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="47"/>
+      <c r="E112" s="48"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -9299,7 +9306,7 @@
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="47"/>
+      <c r="E113" s="48"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -9318,7 +9325,7 @@
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="47"/>
+      <c r="E114" s="48"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -9337,7 +9344,7 @@
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="47"/>
+      <c r="E115" s="48"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -9356,7 +9363,7 @@
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="47"/>
+      <c r="E116" s="48"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -9375,7 +9382,7 @@
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="47"/>
+      <c r="E117" s="48"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -9394,7 +9401,7 @@
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="47"/>
+      <c r="E118" s="48"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -9413,7 +9420,7 @@
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="47"/>
+      <c r="E119" s="48"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -9432,7 +9439,7 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="47"/>
+      <c r="E120" s="48"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -9451,7 +9458,7 @@
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="47"/>
+      <c r="E121" s="48"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -9470,7 +9477,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="47"/>
+      <c r="E122" s="48"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -9489,7 +9496,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="47"/>
+      <c r="E123" s="48"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -9508,7 +9515,7 @@
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="47"/>
+      <c r="E124" s="48"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -9527,7 +9534,7 @@
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="47"/>
+      <c r="E125" s="48"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -9546,7 +9553,7 @@
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="47"/>
+      <c r="E126" s="48"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -9565,7 +9572,7 @@
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="47"/>
+      <c r="E127" s="48"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -9584,7 +9591,7 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="47"/>
+      <c r="E128" s="48"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -9603,7 +9610,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="47"/>
+      <c r="E129" s="48"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -9622,7 +9629,7 @@
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="47"/>
+      <c r="E130" s="48"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -9641,7 +9648,7 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="47"/>
+      <c r="E131" s="48"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -9660,7 +9667,7 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="47"/>
+      <c r="E132" s="48"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -9679,7 +9686,7 @@
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
-      <c r="E133" s="47"/>
+      <c r="E133" s="48"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -9698,7 +9705,7 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-      <c r="E134" s="47"/>
+      <c r="E134" s="48"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -9717,7 +9724,7 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="47"/>
+      <c r="E135" s="48"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -9736,7 +9743,7 @@
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="47"/>
+      <c r="E136" s="48"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -9755,7 +9762,7 @@
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="47"/>
+      <c r="E137" s="48"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -9774,7 +9781,7 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="47"/>
+      <c r="E138" s="48"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -9793,7 +9800,7 @@
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="47"/>
+      <c r="E139" s="48"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -9812,7 +9819,7 @@
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="47"/>
+      <c r="E140" s="48"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -9831,7 +9838,7 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="47"/>
+      <c r="E141" s="48"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -9850,7 +9857,7 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="47"/>
+      <c r="E142" s="48"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -9869,7 +9876,7 @@
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="47"/>
+      <c r="E143" s="48"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -9888,7 +9895,7 @@
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="47"/>
+      <c r="E144" s="48"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -9907,7 +9914,7 @@
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="47"/>
+      <c r="E145" s="48"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -9926,7 +9933,7 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="47"/>
+      <c r="E146" s="48"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -9945,7 +9952,7 @@
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="47"/>
+      <c r="E147" s="48"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -9964,7 +9971,7 @@
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="47"/>
+      <c r="E148" s="48"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -9983,7 +9990,7 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="47"/>
+      <c r="E149" s="48"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -10002,7 +10009,7 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="47"/>
+      <c r="E150" s="48"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -10021,7 +10028,7 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="47"/>
+      <c r="E151" s="48"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -10040,7 +10047,7 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="47"/>
+      <c r="E152" s="48"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -10059,7 +10066,7 @@
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="47"/>
+      <c r="E153" s="48"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -10078,7 +10085,7 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="47"/>
+      <c r="E154" s="48"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -10097,7 +10104,7 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="47"/>
+      <c r="E155" s="48"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -10116,7 +10123,7 @@
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="47"/>
+      <c r="E156" s="48"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -10135,7 +10142,7 @@
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="47"/>
+      <c r="E157" s="48"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -10154,7 +10161,7 @@
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="47"/>
+      <c r="E158" s="48"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -10173,7 +10180,7 @@
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="47"/>
+      <c r="E159" s="48"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -10192,7 +10199,7 @@
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="47"/>
+      <c r="E160" s="48"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -10211,7 +10218,7 @@
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="47"/>
+      <c r="E161" s="48"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -10230,7 +10237,7 @@
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
-      <c r="E162" s="47"/>
+      <c r="E162" s="48"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -10249,7 +10256,7 @@
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="47"/>
+      <c r="E163" s="48"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -10268,7 +10275,7 @@
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="47"/>
+      <c r="E164" s="48"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -10287,7 +10294,7 @@
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="47"/>
+      <c r="E165" s="48"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -10306,7 +10313,7 @@
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="47"/>
+      <c r="E166" s="48"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -10325,7 +10332,7 @@
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="47"/>
+      <c r="E167" s="48"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -10344,7 +10351,7 @@
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="47"/>
+      <c r="E168" s="48"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -10363,7 +10370,7 @@
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="47"/>
+      <c r="E169" s="48"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -10382,7 +10389,7 @@
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="47"/>
+      <c r="E170" s="48"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -10401,7 +10408,7 @@
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="47"/>
+      <c r="E171" s="48"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -10420,7 +10427,7 @@
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="47"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -10439,7 +10446,7 @@
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="47"/>
+      <c r="E173" s="48"/>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -10458,7 +10465,7 @@
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="47"/>
+      <c r="E174" s="48"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -10477,7 +10484,7 @@
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="47"/>
+      <c r="E175" s="48"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -10496,7 +10503,7 @@
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="47"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -10515,7 +10522,7 @@
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="47"/>
+      <c r="E177" s="48"/>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -10534,7 +10541,7 @@
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="47"/>
+      <c r="E178" s="48"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -10553,7 +10560,7 @@
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
-      <c r="E179" s="47"/>
+      <c r="E179" s="48"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -10572,7 +10579,7 @@
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-      <c r="E180" s="47"/>
+      <c r="E180" s="48"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -10591,7 +10598,7 @@
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
-      <c r="E181" s="47"/>
+      <c r="E181" s="48"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -10610,7 +10617,7 @@
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
-      <c r="E182" s="47"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -10629,7 +10636,7 @@
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
-      <c r="E183" s="47"/>
+      <c r="E183" s="48"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -10648,7 +10655,7 @@
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
-      <c r="E184" s="47"/>
+      <c r="E184" s="48"/>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -10667,7 +10674,7 @@
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
-      <c r="E185" s="47"/>
+      <c r="E185" s="48"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -10686,7 +10693,7 @@
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-      <c r="E186" s="47"/>
+      <c r="E186" s="48"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -10705,7 +10712,7 @@
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-      <c r="E187" s="47"/>
+      <c r="E187" s="48"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -10724,7 +10731,7 @@
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-      <c r="E188" s="47"/>
+      <c r="E188" s="48"/>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -10743,7 +10750,7 @@
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-      <c r="E189" s="47"/>
+      <c r="E189" s="48"/>
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -10762,7 +10769,7 @@
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-      <c r="E190" s="47"/>
+      <c r="E190" s="48"/>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -10781,7 +10788,7 @@
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
-      <c r="E191" s="47"/>
+      <c r="E191" s="48"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -10800,7 +10807,7 @@
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-      <c r="E192" s="47"/>
+      <c r="E192" s="48"/>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -10819,7 +10826,7 @@
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
-      <c r="E193" s="47"/>
+      <c r="E193" s="48"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -10838,7 +10845,7 @@
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-      <c r="E194" s="47"/>
+      <c r="E194" s="48"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -10857,7 +10864,7 @@
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
-      <c r="E195" s="47"/>
+      <c r="E195" s="48"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -10876,7 +10883,7 @@
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-      <c r="E196" s="47"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -10895,7 +10902,7 @@
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
-      <c r="E197" s="47"/>
+      <c r="E197" s="48"/>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -10914,7 +10921,7 @@
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
-      <c r="E198" s="47"/>
+      <c r="E198" s="48"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -10933,7 +10940,7 @@
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
-      <c r="E199" s="47"/>
+      <c r="E199" s="48"/>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -10952,7 +10959,7 @@
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
-      <c r="E200" s="47"/>
+      <c r="E200" s="48"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -11022,10 +11029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11057,19 +11064,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11080,7 +11087,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11101,7 +11108,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11368,7 +11375,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11389,7 +11396,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14712,10 +14719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14747,19 +14754,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -14770,7 +14777,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -14791,7 +14798,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15344,11 +15351,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15553,7 +15560,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15574,7 +15581,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1">
-      <c r="A31" s="36"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18329,10 +18336,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18365,19 +18372,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18389,7 +18396,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18411,7 +18418,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22166,10 +22173,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22202,19 +22209,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22226,7 +22233,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22248,7 +22255,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22492,7 +22499,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22514,7 +22521,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26332,10 +26339,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26368,19 +26375,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26392,7 +26399,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26414,7 +26421,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27202,7 +27209,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27224,7 +27231,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="350">
   <si>
     <t>题号</t>
   </si>
@@ -1100,6 +1100,41 @@
   </si>
   <si>
     <t>双指针法</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ashMap</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1118,6 +1153,7 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,22 +1161,26 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1148,6 +1188,7 @@
       <sz val="9"/>
       <color indexed="30"/>
       <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1474,7 +1515,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1860,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2506,8 +2547,8 @@
         <v>43</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="47" t="s">
-        <v>13</v>
+      <c r="E23" s="44" t="s">
+        <v>345</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>13</v>
@@ -2540,9 +2581,11 @@
       <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="47" t="s">
-        <v>13</v>
+      <c r="D24" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>346</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
@@ -2575,9 +2618,11 @@
       <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="47" t="s">
-        <v>13</v>
+      <c r="D25" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="44">
+        <v>3.2</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>13</v>
@@ -2610,9 +2655,11 @@
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="34" t="s">
+        <v>348</v>
+      </c>
       <c r="E26" s="47" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
@@ -3302,7 +3349,8 @@
     <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <drawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="354">
   <si>
     <t>题号</t>
   </si>
@@ -1134,6 +1134,37 @@
   </si>
   <si>
     <t xml:space="preserve">3.2
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从后往前，逢9进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+双指针法：头部先左移后赋值 ，尾部先赋值再右移</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4
 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1859,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2658,7 +2689,7 @@
       <c r="D26" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="44" t="s">
         <v>349</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -2682,7 +2713,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>66</v>
       </c>
@@ -2692,9 +2723,11 @@
       <c r="C27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="47" t="s">
-        <v>13</v>
+      <c r="D27" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>350</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>13</v>
@@ -2717,7 +2750,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>641</v>
       </c>
@@ -2727,11 +2760,11 @@
       <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>13</v>
+      <c r="D28" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>353</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19440"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="360">
   <si>
     <t>题号</t>
   </si>
@@ -387,9 +387,6 @@
 第11课：二分查找</t>
   </si>
   <si>
-    <t>二叉树的层次遍历</t>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/binary-tree-level-order-traversal/#/description</t>
   </si>
   <si>
@@ -405,13 +402,7 @@
     <t>https://leetcode-cn.com/problems/find-largest-value-in-each-tree-row/#/description</t>
   </si>
   <si>
-    <t>x的平方根</t>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/sqrtx/</t>
-  </si>
-  <si>
-    <t>有效的完全平方数</t>
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/valid-perfect-square/</t>
@@ -1165,6 +1156,69 @@
   </si>
   <si>
     <t xml:space="preserve">3.4
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.14</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序加双指针</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的层次遍历</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的完全平方数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>x的平方根</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fs</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1349,7 +1403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1513,6 +1567,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1546,7 +1609,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2081,7 +2144,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -2114,12 +2177,14 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="34" t="s">
+        <v>352</v>
+      </c>
       <c r="E8" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
+        <v>336</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>351</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
@@ -2151,10 +2216,10 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>340</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>343</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>13</v>
@@ -2186,7 +2251,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
@@ -2221,7 +2286,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="44" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>13</v>
@@ -2256,7 +2321,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>13</v>
@@ -2291,7 +2356,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="44" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>
@@ -2328,7 +2393,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -2402,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -2439,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>13</v>
@@ -2549,7 +2614,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E22" s="44">
         <v>3.2</v>
@@ -2579,7 +2644,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>13</v>
@@ -2613,10 +2678,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
@@ -2650,7 +2715,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E25" s="44">
         <v>3.2</v>
@@ -2687,10 +2752,10 @@
         <v>49</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
@@ -2724,10 +2789,10 @@
         <v>51</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>13</v>
@@ -2761,10 +2826,10 @@
         <v>53</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>13</v>
@@ -3391,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:I4"/>
     </sheetView>
   </sheetViews>
@@ -3519,7 +3584,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E5" s="28">
         <v>2.2200000000000002</v>
@@ -3552,7 +3617,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E6" s="26">
         <v>2.2200000000000002</v>
@@ -3610,7 +3675,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E8" s="26">
         <v>2.23</v>
@@ -3641,7 +3706,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E9" s="26">
         <v>2.23</v>
@@ -3672,7 +3737,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E10" s="26">
         <v>2.23</v>
@@ -3703,7 +3768,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E11" s="26">
         <v>2.23</v>
@@ -3734,7 +3799,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E12" s="26">
         <v>2.23</v>
@@ -3765,7 +3830,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E13" s="26">
         <v>2.23</v>
@@ -3794,10 +3859,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -7023,8 +7088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="C16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7145,8 +7210,8 @@
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
+      <c r="C5" s="56" t="s">
+        <v>353</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="38"/>
@@ -7176,7 +7241,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E6" s="39">
         <v>2.2799999999999998</v>
@@ -7213,7 +7278,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E7" s="40">
         <v>2.2799999999999998</v>
@@ -7242,7 +7307,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E8" s="40">
         <v>2.2799999999999998</v>
@@ -7265,13 +7330,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E9" s="40">
         <v>2.2799999999999998</v>
@@ -7300,7 +7365,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E10" s="40">
         <v>2.2799999999999998</v>
@@ -7329,7 +7394,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E11" s="40">
         <v>3.1</v>
@@ -7358,7 +7423,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E12" s="40">
         <v>3.1</v>
@@ -7387,7 +7452,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E13" s="40">
         <v>3.1</v>
@@ -7416,7 +7481,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -7450,10 +7515,10 @@
         <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>13</v>
@@ -7487,10 +7552,10 @@
         <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -7602,7 +7667,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E21" s="40">
         <v>3.1</v>
@@ -7631,7 +7696,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E22" s="40">
         <v>3.1</v>
@@ -7660,7 +7725,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E23" s="40">
         <v>3.1</v>
@@ -7689,7 +7754,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E24" s="40">
         <v>3.1</v>
@@ -7718,7 +7783,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E25" s="40">
         <v>3.1</v>
@@ -11098,8 +11163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11218,14 +11283,18 @@
       <c r="A5" s="5">
         <v>102</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="14">
+        <v>3.14</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
@@ -11248,16 +11317,16 @@
         <v>433</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
+      <c r="D6" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>359</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -11322,10 +11391,10 @@
         <v>515</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -11358,11 +11427,11 @@
       <c r="A9" s="10">
         <v>69</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>123</v>
+      <c r="B9" s="57" t="s">
+        <v>356</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
@@ -11393,11 +11462,11 @@
       <c r="A10" s="10">
         <v>367</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>125</v>
+      <c r="B10" s="57" t="s">
+        <v>355</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
@@ -11507,10 +11576,10 @@
         <v>860</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -11544,10 +11613,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -11581,10 +11650,10 @@
         <v>455</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -11618,10 +11687,10 @@
         <v>874</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -11655,10 +11724,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -11692,10 +11761,10 @@
         <v>200</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -11729,10 +11798,10 @@
         <v>529</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
@@ -11766,10 +11835,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>13</v>
@@ -11803,10 +11872,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
@@ -11838,10 +11907,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
@@ -11873,10 +11942,10 @@
         <v>153</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
@@ -11908,10 +11977,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>13</v>
@@ -11945,10 +12014,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>13</v>
@@ -14843,11 +14912,11 @@
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -14909,10 +14978,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
@@ -14936,10 +15005,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -14961,10 +15030,10 @@
         <v>1143</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -14989,7 +15058,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -15023,10 +15092,10 @@
         <v>120</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -15060,10 +15129,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -15097,10 +15166,10 @@
         <v>152</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -15122,10 +15191,10 @@
         <v>322</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -15147,10 +15216,10 @@
         <v>198</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
@@ -15184,10 +15253,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
@@ -15221,10 +15290,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -15258,10 +15327,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -15295,10 +15364,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -15332,10 +15401,10 @@
         <v>309</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -15369,10 +15438,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -15406,10 +15475,10 @@
         <v>714</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -15440,7 +15509,7 @@
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -15464,10 +15533,10 @@
         <v>279</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -15489,10 +15558,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -15514,10 +15583,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -15539,10 +15608,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -15564,10 +15633,10 @@
         <v>980</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -15589,10 +15658,10 @@
         <v>518</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -15692,10 +15761,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>13</v>
@@ -15729,10 +15798,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>13</v>
@@ -15766,10 +15835,10 @@
         <v>221</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>13</v>
@@ -15803,10 +15872,10 @@
         <v>621</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>13</v>
@@ -15840,10 +15909,10 @@
         <v>647</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
@@ -15877,10 +15946,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>13</v>
@@ -15914,10 +15983,10 @@
         <v>363</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>13</v>
@@ -15951,10 +16020,10 @@
         <v>403</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>13</v>
@@ -15988,10 +16057,10 @@
         <v>410</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>13</v>
@@ -16025,10 +16094,10 @@
         <v>552</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>13</v>
@@ -16062,10 +16131,10 @@
         <v>76</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>13</v>
@@ -16099,10 +16168,10 @@
         <v>312</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>13</v>
@@ -18461,11 +18530,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -18530,10 +18599,10 @@
         <v>208</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -18558,10 +18627,10 @@
         <v>212</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -18584,10 +18653,10 @@
         <v>547</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -18610,10 +18679,10 @@
         <v>200</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -18636,10 +18705,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -18665,7 +18734,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -18691,7 +18760,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -18714,7 +18783,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>104</v>
@@ -18740,10 +18809,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -18766,10 +18835,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -18792,10 +18861,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -18818,10 +18887,10 @@
         <v>433</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -18844,10 +18913,10 @@
         <v>1091</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -18870,10 +18939,10 @@
         <v>773</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -22298,11 +22367,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -22367,10 +22436,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -22395,10 +22464,10 @@
         <v>231</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -22421,10 +22490,10 @@
         <v>190</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -22450,7 +22519,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -22473,10 +22542,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -22499,10 +22568,10 @@
         <v>338</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -22525,10 +22594,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -22633,10 +22702,10 @@
         <v>1122</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -22685,10 +22754,10 @@
         <v>1244</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -22711,10 +22780,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -22737,10 +22806,10 @@
         <v>493</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -26464,11 +26533,11 @@
     </row>
     <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -26536,7 +26605,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -26559,10 +26628,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -26585,10 +26654,10 @@
         <v>198</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -26611,10 +26680,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -26637,10 +26706,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -26663,10 +26732,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -26689,10 +26758,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -26715,10 +26784,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -26741,10 +26810,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -26767,10 +26836,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -26793,10 +26862,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -26819,10 +26888,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -26845,10 +26914,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -26871,10 +26940,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -26897,10 +26966,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -26923,10 +26992,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -26949,10 +27018,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -26975,10 +27044,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -27053,10 +27122,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -27079,10 +27148,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -27105,10 +27174,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -27131,10 +27200,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -27157,10 +27226,10 @@
         <v>1143</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -27183,10 +27252,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -27209,10 +27278,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -27235,10 +27304,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -27343,10 +27412,10 @@
         <v>205</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -27369,10 +27438,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -27395,10 +27464,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -27421,10 +27490,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -27447,10 +27516,10 @@
         <v>818</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="360">
   <si>
     <t>题号</t>
   </si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>最小基因变化</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/minimum-genetic-mutation/#/description</t>
   </si>
   <si>
     <t>在每个树行中找最大值</t>
@@ -1213,13 +1210,17 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>https://leetcode-cn.com/problems/minimum-genetic-mutation/#/description</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14
 </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
-</t>
+bfs,dfs都可</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2144,7 +2145,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -2178,13 +2179,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
@@ -2216,10 +2217,10 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>13</v>
@@ -2251,7 +2252,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>13</v>
@@ -2321,7 +2322,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>13</v>
@@ -2356,7 +2357,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>
@@ -2393,7 +2394,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -2467,7 +2468,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -2504,7 +2505,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>13</v>
@@ -2614,7 +2615,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" s="44">
         <v>3.2</v>
@@ -2644,7 +2645,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>13</v>
@@ -2678,10 +2679,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
@@ -2715,7 +2716,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E25" s="44">
         <v>3.2</v>
@@ -2752,10 +2753,10 @@
         <v>49</v>
       </c>
       <c r="D26" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="E26" s="44" t="s">
         <v>345</v>
-      </c>
-      <c r="E26" s="44" t="s">
-        <v>346</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
@@ -2789,10 +2790,10 @@
         <v>51</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>13</v>
@@ -2826,10 +2827,10 @@
         <v>53</v>
       </c>
       <c r="D28" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>349</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>350</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>13</v>
@@ -3584,7 +3585,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" s="28">
         <v>2.2200000000000002</v>
@@ -3617,7 +3618,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" s="26">
         <v>2.2200000000000002</v>
@@ -3675,7 +3676,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="26">
         <v>2.23</v>
@@ -3706,7 +3707,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E9" s="26">
         <v>2.23</v>
@@ -3737,7 +3738,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="26">
         <v>2.23</v>
@@ -3768,7 +3769,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E11" s="26">
         <v>2.23</v>
@@ -3799,7 +3800,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E12" s="26">
         <v>2.23</v>
@@ -3830,7 +3831,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E13" s="26">
         <v>2.23</v>
@@ -3859,10 +3860,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>317</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>318</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -7211,7 +7212,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="38"/>
@@ -7241,7 +7242,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E6" s="39">
         <v>2.2799999999999998</v>
@@ -7278,7 +7279,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E7" s="40">
         <v>2.2799999999999998</v>
@@ -7307,7 +7308,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" s="40">
         <v>2.2799999999999998</v>
@@ -7330,13 +7331,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" s="40">
         <v>2.2799999999999998</v>
@@ -7365,7 +7366,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" s="40">
         <v>2.2799999999999998</v>
@@ -7394,7 +7395,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" s="40">
         <v>3.1</v>
@@ -7423,7 +7424,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="40">
         <v>3.1</v>
@@ -7452,7 +7453,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" s="40">
         <v>3.1</v>
@@ -7481,7 +7482,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -7515,10 +7516,10 @@
         <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>329</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>330</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>13</v>
@@ -7552,10 +7553,10 @@
         <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -7667,7 +7668,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" s="40">
         <v>3.1</v>
@@ -7696,7 +7697,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E22" s="40">
         <v>3.1</v>
@@ -7725,7 +7726,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E23" s="40">
         <v>3.1</v>
@@ -7754,7 +7755,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E24" s="40">
         <v>3.1</v>
@@ -7783,7 +7784,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E25" s="40">
         <v>3.1</v>
@@ -11164,7 +11165,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11284,13 +11285,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E5" s="14">
         <v>3.14</v>
@@ -11319,14 +11320,14 @@
       <c r="B6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>119</v>
+      <c r="C6" s="56" t="s">
+        <v>357</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>358</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>359</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -11391,10 +11392,10 @@
         <v>515</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -11428,10 +11429,10 @@
         <v>69</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
@@ -11463,10 +11464,10 @@
         <v>367</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
@@ -11576,10 +11577,10 @@
         <v>860</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -11613,10 +11614,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -11650,10 +11651,10 @@
         <v>455</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -11687,10 +11688,10 @@
         <v>874</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -11724,10 +11725,10 @@
         <v>127</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -11761,10 +11762,10 @@
         <v>200</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -11798,10 +11799,10 @@
         <v>529</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>13</v>
@@ -11835,10 +11836,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>13</v>
@@ -11872,10 +11873,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
@@ -11907,10 +11908,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
@@ -11942,10 +11943,10 @@
         <v>153</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
@@ -11977,10 +11978,10 @@
         <v>126</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>13</v>
@@ -12014,10 +12015,10 @@
         <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>13</v>
@@ -14851,6 +14852,7 @@
     <hyperlink ref="C27" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -14912,11 +14914,11 @@
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -14978,10 +14980,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="14"/>
@@ -15005,10 +15007,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -15030,10 +15032,10 @@
         <v>1143</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -15058,7 +15060,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -15092,10 +15094,10 @@
         <v>120</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>13</v>
@@ -15129,10 +15131,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>13</v>
@@ -15166,10 +15168,10 @@
         <v>152</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -15191,10 +15193,10 @@
         <v>322</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -15216,10 +15218,10 @@
         <v>198</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>13</v>
@@ -15253,10 +15255,10 @@
         <v>213</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>13</v>
@@ -15290,10 +15292,10 @@
         <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>13</v>
@@ -15327,10 +15329,10 @@
         <v>122</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
@@ -15364,10 +15366,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>13</v>
@@ -15401,10 +15403,10 @@
         <v>309</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>13</v>
@@ -15438,10 +15440,10 @@
         <v>188</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -15475,10 +15477,10 @@
         <v>714</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>13</v>
@@ -15509,7 +15511,7 @@
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -15533,10 +15535,10 @@
         <v>279</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -15558,10 +15560,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -15583,10 +15585,10 @@
         <v>55</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -15608,10 +15610,10 @@
         <v>45</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -15633,10 +15635,10 @@
         <v>980</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -15658,10 +15660,10 @@
         <v>518</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -15761,10 +15763,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>13</v>
@@ -15798,10 +15800,10 @@
         <v>91</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>13</v>
@@ -15835,10 +15837,10 @@
         <v>221</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>13</v>
@@ -15872,10 +15874,10 @@
         <v>621</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>13</v>
@@ -15909,10 +15911,10 @@
         <v>647</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>13</v>
@@ -15946,10 +15948,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>13</v>
@@ -15983,10 +15985,10 @@
         <v>363</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>13</v>
@@ -16020,10 +16022,10 @@
         <v>403</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>13</v>
@@ -16057,10 +16059,10 @@
         <v>410</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>13</v>
@@ -16094,10 +16096,10 @@
         <v>552</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>13</v>
@@ -16131,10 +16133,10 @@
         <v>76</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>13</v>
@@ -16168,10 +16170,10 @@
         <v>312</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>13</v>
@@ -18530,11 +18532,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -18599,10 +18601,10 @@
         <v>208</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -18627,10 +18629,10 @@
         <v>212</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -18653,10 +18655,10 @@
         <v>547</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -18679,10 +18681,10 @@
         <v>200</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -18705,10 +18707,10 @@
         <v>130</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -18734,7 +18736,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -18760,7 +18762,7 @@
         <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -18783,7 +18785,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>104</v>
@@ -18809,10 +18811,10 @@
         <v>36</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -18835,10 +18837,10 @@
         <v>37</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -18861,10 +18863,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -18890,7 +18892,7 @@
         <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -18913,10 +18915,10 @@
         <v>1091</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -18939,10 +18941,10 @@
         <v>773</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -22367,11 +22369,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -22436,10 +22438,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -22464,10 +22466,10 @@
         <v>231</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -22490,10 +22492,10 @@
         <v>190</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -22519,7 +22521,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -22542,10 +22544,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -22568,10 +22570,10 @@
         <v>338</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -22594,10 +22596,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -22702,10 +22704,10 @@
         <v>1122</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -22754,10 +22756,10 @@
         <v>1244</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -22780,10 +22782,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -22806,10 +22808,10 @@
         <v>493</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -26533,11 +26535,11 @@
     </row>
     <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
@@ -26605,7 +26607,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -26628,10 +26630,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -26654,10 +26656,10 @@
         <v>198</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -26680,10 +26682,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -26706,10 +26708,10 @@
         <v>121</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -26732,10 +26734,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -26758,10 +26760,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -26784,10 +26786,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -26810,10 +26812,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -26836,10 +26838,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -26862,10 +26864,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -26888,10 +26890,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>277</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -26914,10 +26916,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -26940,10 +26942,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -26966,10 +26968,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -26992,10 +26994,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -27018,10 +27020,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -27044,10 +27046,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -27122,10 +27124,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -27148,10 +27150,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -27174,10 +27176,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -27200,10 +27202,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -27226,10 +27228,10 @@
         <v>1143</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -27252,10 +27254,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>298</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>299</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -27278,10 +27280,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -27304,10 +27306,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -27412,10 +27414,10 @@
         <v>205</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -27438,10 +27440,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -27464,10 +27466,10 @@
         <v>91</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -27490,10 +27492,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -27516,10 +27518,10 @@
         <v>818</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="363">
   <si>
     <t>题号</t>
   </si>
@@ -1220,7 +1220,22 @@
   </si>
   <si>
     <t xml:space="preserve">
-bfs,dfs都可</t>
+bfs（套用单词接龙模板）,dfs都可</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+dfs：关键代码if(left&lt;n){}
+if(right&lt;left){}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -11165,7 +11180,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11173,7 +11188,7 @@
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="6.1796875" customWidth="1"/>
     <col min="6" max="7" width="5.453125" customWidth="1"/>
     <col min="8" max="8" width="5.1796875" customWidth="1"/>
@@ -11313,7 +11328,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>433</v>
       </c>
@@ -11350,21 +11365,21 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>84</v>
+      <c r="B7" s="57" t="s">
+        <v>360</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
+      <c r="D7" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>362</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532F3AFE-50FC-E841-B8AC-9E2430476CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72053E7-EDB3-1D46-AE40-61B6766664FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="365">
   <si>
     <t>题号</t>
   </si>
@@ -1242,6 +1242,10 @@
   <si>
     <t xml:space="preserve">4.1
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.1</t>
   </si>
 </sst>
 </file>
@@ -1975,7 +1979,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2171,8 +2175,8 @@
       <c r="E7" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
+      <c r="F7" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
@@ -2211,8 +2215,8 @@
       <c r="F8" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>13</v>
+      <c r="G8" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C92EB-88C1-2045-945E-D24F94AC7718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B25E0F-4725-904D-8A7A-F995C33CA5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,8 +2387,8 @@
       <c r="E13" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
+      <c r="F13" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -2424,8 +2424,8 @@
       <c r="E14" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
+      <c r="F14" s="35" t="s">
+        <v>363</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -2461,8 +2461,8 @@
       <c r="E15" s="44">
         <v>2.16</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>13</v>
+      <c r="F15" s="35" t="s">
+        <v>363</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -2498,8 +2498,8 @@
       <c r="E16" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>13</v>
+      <c r="F16" s="35" t="s">
+        <v>363</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B25E0F-4725-904D-8A7A-F995C33CA5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE1DB9-1DB7-FC43-A54F-A121D58B5747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="366">
   <si>
     <t>题号</t>
   </si>
@@ -1246,6 +1246,10 @@
   <si>
     <t xml:space="preserve">
 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+deque(双端队列)</t>
   </si>
 </sst>
 </file>
@@ -1978,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1987,7 +1991,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="46" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
@@ -2530,7 +2534,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>13</v>
+        <v>365</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>338</v>
@@ -3485,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:I4"/>
     </sheetView>
   </sheetViews>
@@ -7117,7 +7121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="C6" zoomScale="125" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BE1DB9-1DB7-FC43-A54F-A121D58B5747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F075C1-DFF4-0F4E-9091-BAD3B86476AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="370">
   <si>
     <t>题号</t>
   </si>
@@ -1250,6 +1250,21 @@
   <si>
     <t xml:space="preserve">
 deque(双端队列)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+hashMap</t>
+  </si>
+  <si>
+    <t>双指针法, 翻转数组</t>
   </si>
 </sst>
 </file>
@@ -1982,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2438,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>13</v>
+        <v>368</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>336</v>
@@ -2460,7 +2475,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>13</v>
+        <v>367</v>
       </c>
       <c r="E15" s="44">
         <v>2.16</v>
@@ -2497,7 +2512,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>13</v>
+        <v>366</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>337</v>
@@ -2539,8 +2554,8 @@
       <c r="E17" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>13</v>
+      <c r="F17" s="35" t="s">
+        <v>363</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>13</v>
@@ -2652,7 +2667,9 @@
       <c r="E22" s="44">
         <v>3.2</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -2675,12 +2692,14 @@
       <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="E23" s="44" t="s">
         <v>341</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>13</v>
+      <c r="F23" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F075C1-DFF4-0F4E-9091-BAD3B86476AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17416AB-0ECD-1C4A-A46E-12FB758FF445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:I21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2735,8 +2735,8 @@
       <c r="E24" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>13</v>
+      <c r="F24" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17416AB-0ECD-1C4A-A46E-12FB758FF445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E37F3-1281-1047-B535-8555076C417F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2772,8 +2772,8 @@
       <c r="E25" s="44">
         <v>3.2</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>13</v>
+      <c r="F25" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E37F3-1281-1047-B535-8555076C417F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62254572-76B9-E849-87D3-8314DCB30CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1447,7 +1447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1599,6 +1599,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1619,6 +1622,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1998,7 +2007,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2008,7 +2017,7 @@
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="46" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
@@ -2017,10 +2026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +2039,7 @@
       <c r="E1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="51" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2052,19 +2061,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2075,17 +2084,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2096,15 +2105,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2128,7 +2137,7 @@
       <c r="E5" s="43">
         <v>2.14</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>363</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2165,7 +2174,7 @@
       <c r="E6" s="44">
         <v>2.14</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="39" t="s">
         <v>363</v>
       </c>
       <c r="G6" s="8"/>
@@ -2194,7 +2203,7 @@
       <c r="E7" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2231,7 +2240,7 @@
       <c r="E8" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="59" t="s">
         <v>350</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -2266,7 +2275,7 @@
       <c r="E9" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="39" t="s">
         <v>339</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2301,7 +2310,7 @@
       <c r="E10" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -2336,7 +2345,7 @@
       <c r="E11" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2371,7 +2380,7 @@
       <c r="E12" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -2406,7 +2415,7 @@
       <c r="E13" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -2443,7 +2452,7 @@
       <c r="E14" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="39" t="s">
         <v>363</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -2480,7 +2489,7 @@
       <c r="E15" s="44">
         <v>2.16</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="39" t="s">
         <v>363</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -2517,7 +2526,7 @@
       <c r="E16" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="39" t="s">
         <v>363</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -2554,7 +2563,7 @@
       <c r="E17" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="39" t="s">
         <v>363</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -2580,7 +2589,7 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2598,7 +2607,7 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2612,17 +2621,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2633,15 +2642,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2667,7 +2676,7 @@
       <c r="E22" s="44">
         <v>3.2</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="39">
         <v>4.0999999999999996</v>
       </c>
       <c r="G22" s="8"/>
@@ -2735,7 +2744,7 @@
       <c r="E24" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -2772,7 +2781,7 @@
       <c r="E25" s="44">
         <v>3.2</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="39" t="s">
         <v>364</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -2809,8 +2818,8 @@
       <c r="E26" s="44" t="s">
         <v>345</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>13</v>
+      <c r="F26" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2846,7 +2855,7 @@
       <c r="E27" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -2883,7 +2892,7 @@
       <c r="E28" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -2920,7 +2929,7 @@
       <c r="E29" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="60" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -2946,7 +2955,7 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2964,7 +2973,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2982,7 +2991,7 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -3000,7 +3009,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -3018,7 +3027,7 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -3036,7 +3045,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -3054,7 +3063,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -3072,7 +3081,7 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -3090,7 +3099,7 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -3108,7 +3117,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -3126,7 +3135,7 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -3144,7 +3153,7 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -3162,7 +3171,7 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -3180,7 +3189,7 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -3198,7 +3207,7 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3216,7 +3225,7 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -3234,7 +3243,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3252,7 +3261,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -3270,7 +3279,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -3288,7 +3297,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -3306,7 +3315,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3324,7 +3333,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3342,7 +3351,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -3360,7 +3369,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -3378,7 +3387,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -3396,7 +3405,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -3414,7 +3423,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -3432,7 +3441,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -3450,7 +3459,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="F58" s="9"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3528,10 +3537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3563,19 +3572,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3586,17 +3595,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3607,15 +3616,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3976,7 +3985,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -3997,7 +4006,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7158,10 +7167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7193,19 +7202,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7216,7 +7225,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7237,7 +7246,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7669,7 +7678,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7690,7 +7699,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -11234,10 +11243,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11269,19 +11278,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11292,7 +11301,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11313,7 +11322,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11584,7 +11593,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11605,7 +11614,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14929,10 +14938,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14964,19 +14973,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -14987,7 +14996,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15008,7 +15017,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15561,11 +15570,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15770,7 +15779,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15791,7 +15800,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18546,10 +18555,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18582,19 +18591,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18606,7 +18615,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18628,7 +18637,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22383,10 +22392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22419,19 +22428,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22443,7 +22452,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22465,7 +22474,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22709,7 +22718,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22731,7 +22740,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26551,10 +26560,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26587,19 +26596,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26611,7 +26620,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26633,7 +26642,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27421,7 +27430,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27443,7 +27452,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9603B3-44B3-6242-8F08-CB1F3CEC00D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC62E84-C154-4740-B2A5-4B09A8F5BFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1602,6 +1602,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1622,12 +1628,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2007,7 +2007,7 @@
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2026,10 +2026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2061,19 +2061,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2084,17 +2084,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2105,15 +2105,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2240,7 +2240,7 @@
       <c r="E8" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="52" t="s">
         <v>350</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -2621,17 +2621,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2642,15 +2642,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2855,8 +2855,8 @@
       <c r="E27" s="44" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="60" t="s">
-        <v>13</v>
+      <c r="F27" s="39" t="s">
+        <v>363</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
@@ -2892,7 +2892,7 @@
       <c r="E28" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="60" t="s">
+      <c r="F28" s="53" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -2929,7 +2929,7 @@
       <c r="E29" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="53" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -3537,10 +3537,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3572,19 +3572,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3595,17 +3595,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3616,15 +3616,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3985,7 +3985,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -4006,7 +4006,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7167,10 +7167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7202,19 +7202,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7225,7 +7225,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7246,7 +7246,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7678,7 +7678,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7699,7 +7699,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -11243,10 +11243,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11278,19 +11278,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11301,7 +11301,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11322,7 +11322,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11593,7 +11593,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11614,7 +11614,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14938,10 +14938,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14973,19 +14973,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -14996,7 +14996,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15017,7 +15017,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15570,11 +15570,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15779,7 +15779,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15800,7 +15800,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18555,10 +18555,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18591,19 +18591,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18615,7 +18615,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18637,7 +18637,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22392,10 +22392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22428,19 +22428,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22452,7 +22452,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22474,7 +22474,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22718,7 +22718,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22740,7 +22740,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26560,10 +26560,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26596,19 +26596,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26620,7 +26620,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26642,7 +26642,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27430,7 +27430,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27452,7 +27452,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC62E84-C154-4740-B2A5-4B09A8F5BFEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906989A-8E0B-4742-8325-489AC8EE26CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3517,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3650,7 +3650,9 @@
       <c r="E5" s="28">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E906989A-8E0B-4742-8325-489AC8EE26CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90471605-FAE1-204A-A733-0FAC6BF5DC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3517,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3685,7 +3685,9 @@
       <c r="E6" s="26">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90471605-FAE1-204A-A733-0FAC6BF5DC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A122BBE-C76B-E84F-830B-9DC7D4FB5654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3713,8 +3713,12 @@
         <v>62</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F7" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -3745,7 +3749,9 @@
       <c r="E8" s="26">
         <v>2.23</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A122BBE-C76B-E84F-830B-9DC7D4FB5654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41085EA-C893-EB4F-B6DF-8E018F15D6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3782,7 +3782,9 @@
       <c r="E9" s="26">
         <v>2.23</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41085EA-C893-EB4F-B6DF-8E018F15D6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3188D4-B1CD-9E44-A578-3A198281A8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3815,7 +3815,9 @@
       <c r="E10" s="26">
         <v>2.23</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3188D4-B1CD-9E44-A578-3A198281A8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC1FF39-4D47-3244-90E2-7682DB7DDFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3848,7 +3848,9 @@
       <c r="E11" s="26">
         <v>2.23</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
         <v>13</v>
@@ -3879,7 +3881,9 @@
       <c r="E12" s="26">
         <v>2.23</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC1FF39-4D47-3244-90E2-7682DB7DDFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF039A18-A3F5-1B47-82D6-13C726EBF486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3914,7 +3914,9 @@
       <c r="E13" s="26">
         <v>2.23</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF039A18-A3F5-1B47-82D6-13C726EBF486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3944D2C4-6659-BA4A-9EE1-B595735223B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="371">
   <si>
     <t>题号</t>
   </si>
@@ -1265,6 +1265,9 @@
   </si>
   <si>
     <t>双指针法, 翻转数组</t>
+  </si>
+  <si>
+    <t>1.优先队列，2.动态规划</t>
   </si>
 </sst>
 </file>
@@ -3517,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4054,8 +4057,12 @@
       <c r="C19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3944D2C4-6659-BA4A-9EE1-B595735223B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50837537-6D90-3545-A690-9B697E8744C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="372">
   <si>
     <t>题号</t>
   </si>
@@ -1268,6 +1268,9 @@
   </si>
   <si>
     <t>1.优先队列，2.动态规划</t>
+  </si>
+  <si>
+    <t>优先队列 ，HashMap</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1534,9 +1537,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2019,8 +2019,8 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="45.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="45" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.5" customWidth="1"/>
@@ -2029,20 +2029,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2064,19 +2064,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2087,17 +2087,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2108,15 +2108,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2137,10 +2137,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>2.14</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2174,10 +2174,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>2.14</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G6" s="8"/>
@@ -2203,10 +2203,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2237,16 +2237,16 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>364</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -2275,13 +2275,13 @@
         <v>22</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>364</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -2310,10 +2310,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -2345,10 +2345,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2380,10 +2380,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -2415,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -2452,10 +2452,10 @@
       <c r="D14" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -2489,10 +2489,10 @@
       <c r="D15" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>2.16</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -2526,10 +2526,10 @@
       <c r="D16" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -2563,10 +2563,10 @@
       <c r="D17" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -2624,17 +2624,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2645,15 +2645,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2673,13 +2673,13 @@
       <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>3.2</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>4.0999999999999996</v>
       </c>
       <c r="G22" s="8"/>
@@ -2707,10 +2707,10 @@
       <c r="D23" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -2741,13 +2741,13 @@
       <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -2778,13 +2778,13 @@
       <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <v>3.2</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="38" t="s">
         <v>364</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -2815,13 +2815,13 @@
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -2852,13 +2852,13 @@
       <c r="C27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>347</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="E27" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="38" t="s">
         <v>363</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -2889,13 +2889,13 @@
       <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -2929,10 +2929,10 @@
       <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="53" t="s">
+      <c r="E29" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -3246,7 +3246,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="F46" s="41"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -3264,7 +3264,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="F47" s="41"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -3282,7 +3282,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="F48" s="41"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -3300,7 +3300,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="F49" s="41"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -3318,7 +3318,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="F50" s="41"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3336,7 +3336,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="F51" s="41"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3354,7 +3354,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="F52" s="41"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -3372,7 +3372,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="F53" s="41"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -3390,7 +3390,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="F54" s="41"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -3408,7 +3408,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="F55" s="41"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -3426,7 +3426,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="F56" s="41"/>
+      <c r="F56" s="40"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -3444,7 +3444,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="F57" s="41"/>
+      <c r="F57" s="40"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -3462,7 +3462,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="F58" s="41"/>
+      <c r="F58" s="40"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3520,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3530,7 +3530,7 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="45.5" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="31" customWidth="1"/>
     <col min="6" max="6" width="34.6640625" customWidth="1"/>
     <col min="7" max="7" width="28.1640625" customWidth="1"/>
     <col min="8" max="8" width="29.83203125" customWidth="1"/>
@@ -3540,10 +3540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3575,19 +3575,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3598,17 +3598,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3619,15 +3619,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3653,7 +3653,7 @@
       <c r="E5" s="28">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G5" s="8"/>
@@ -3688,7 +3688,7 @@
       <c r="E6" s="26">
         <v>2.2200000000000002</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="8"/>
@@ -3719,7 +3719,7 @@
       <c r="E7" s="26">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G7" s="8"/>
@@ -3752,7 +3752,7 @@
       <c r="E8" s="26">
         <v>2.23</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G8" s="8"/>
@@ -3785,7 +3785,7 @@
       <c r="E9" s="26">
         <v>2.23</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G9" s="8"/>
@@ -3818,7 +3818,7 @@
       <c r="E10" s="26">
         <v>2.23</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G10" s="8"/>
@@ -3851,7 +3851,7 @@
       <c r="E11" s="26">
         <v>2.23</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G11" s="8"/>
@@ -3884,7 +3884,7 @@
       <c r="E12" s="26">
         <v>2.23</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G12" s="8"/>
@@ -3917,7 +3917,7 @@
       <c r="E13" s="26">
         <v>2.23</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="G13" s="8"/>
@@ -3974,7 +3974,7 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="30"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -3993,7 +3993,7 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="30"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -4008,13 +4008,13 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="30"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -4029,11 +4029,11 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="30"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -4060,7 +4060,7 @@
       <c r="D19" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <v>4.0999999999999996</v>
       </c>
       <c r="F19" s="8"/>
@@ -4088,8 +4088,12 @@
       <c r="C20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="29"/>
+      <c r="D20" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" s="34">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -4108,7 +4112,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="30"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -4127,7 +4131,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -4146,7 +4150,7 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -4165,7 +4169,7 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -4184,7 +4188,7 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="31"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -4203,7 +4207,7 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -4222,7 +4226,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -4241,7 +4245,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -4260,7 +4264,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="31"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -4279,7 +4283,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -4298,7 +4302,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -4317,7 +4321,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -4336,7 +4340,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
@@ -4355,7 +4359,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -4374,7 +4378,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="31"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -4393,7 +4397,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -4412,7 +4416,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -4431,7 +4435,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="30"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -4450,7 +4454,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="31"/>
+      <c r="E39" s="30"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -4469,7 +4473,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="31"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -4488,7 +4492,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="31"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -4507,7 +4511,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="31"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -4526,7 +4530,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -4545,7 +4549,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="31"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -4564,7 +4568,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="31"/>
+      <c r="E45" s="30"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -4583,7 +4587,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="31"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -4602,7 +4606,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="31"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -4621,7 +4625,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="31"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -4640,7 +4644,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -4659,7 +4663,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="31"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -4678,7 +4682,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="31"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -4697,7 +4701,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="31"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -4716,7 +4720,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="31"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -4735,7 +4739,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="31"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -4754,7 +4758,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="31"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -4773,7 +4777,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="31"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -4792,7 +4796,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="31"/>
+      <c r="E57" s="30"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -4811,7 +4815,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -4830,7 +4834,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -4849,7 +4853,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="31"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -4868,7 +4872,7 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="31"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -4887,7 +4891,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="31"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -4906,7 +4910,7 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="31"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -4925,7 +4929,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="31"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -4944,7 +4948,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="31"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -4963,7 +4967,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="31"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -4982,7 +4986,7 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="31"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -5001,7 +5005,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="31"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -5020,7 +5024,7 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="31"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -5039,7 +5043,7 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="31"/>
+      <c r="E70" s="30"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -5058,7 +5062,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="31"/>
+      <c r="E71" s="30"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -5077,7 +5081,7 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="31"/>
+      <c r="E72" s="30"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -5096,7 +5100,7 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="31"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -5115,7 +5119,7 @@
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -5134,7 +5138,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="31"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -5153,7 +5157,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="31"/>
+      <c r="E76" s="30"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -5172,7 +5176,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="31"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -5191,7 +5195,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="31"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -5210,7 +5214,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="31"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -5229,7 +5233,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="31"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -5248,7 +5252,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="31"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -5267,7 +5271,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="31"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -5286,7 +5290,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="31"/>
+      <c r="E83" s="30"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -5305,7 +5309,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="31"/>
+      <c r="E84" s="30"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -5324,7 +5328,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="31"/>
+      <c r="E85" s="30"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -5343,7 +5347,7 @@
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="31"/>
+      <c r="E86" s="30"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -5362,7 +5366,7 @@
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="31"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -5381,7 +5385,7 @@
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="31"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -5400,7 +5404,7 @@
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="31"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -5419,7 +5423,7 @@
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="31"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -5438,7 +5442,7 @@
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="31"/>
+      <c r="E91" s="30"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -5457,7 +5461,7 @@
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="31"/>
+      <c r="E92" s="30"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -5476,7 +5480,7 @@
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="31"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -5495,7 +5499,7 @@
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="31"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -5514,7 +5518,7 @@
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="31"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -5533,7 +5537,7 @@
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="31"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -5552,7 +5556,7 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="31"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -5571,7 +5575,7 @@
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="31"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -5590,7 +5594,7 @@
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="31"/>
+      <c r="E99" s="30"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -5609,7 +5613,7 @@
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="31"/>
+      <c r="E100" s="30"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -5628,7 +5632,7 @@
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="31"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -5647,7 +5651,7 @@
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="31"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -5666,7 +5670,7 @@
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="31"/>
+      <c r="E103" s="30"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -5685,7 +5689,7 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="31"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -5704,7 +5708,7 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="31"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -5723,7 +5727,7 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="31"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -5742,7 +5746,7 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="31"/>
+      <c r="E107" s="30"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -5761,7 +5765,7 @@
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="31"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -5780,7 +5784,7 @@
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="31"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -5799,7 +5803,7 @@
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="31"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -5818,7 +5822,7 @@
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="31"/>
+      <c r="E111" s="30"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -5837,7 +5841,7 @@
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="31"/>
+      <c r="E112" s="30"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -5856,7 +5860,7 @@
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="31"/>
+      <c r="E113" s="30"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -5875,7 +5879,7 @@
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="31"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -5894,7 +5898,7 @@
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="31"/>
+      <c r="E115" s="30"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -5913,7 +5917,7 @@
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="31"/>
+      <c r="E116" s="30"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -5932,7 +5936,7 @@
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="31"/>
+      <c r="E117" s="30"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -5951,7 +5955,7 @@
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="31"/>
+      <c r="E118" s="30"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -5970,7 +5974,7 @@
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="31"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -5989,7 +5993,7 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="31"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -6008,7 +6012,7 @@
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="31"/>
+      <c r="E121" s="30"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -6027,7 +6031,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="31"/>
+      <c r="E122" s="30"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -6046,7 +6050,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="31"/>
+      <c r="E123" s="30"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -6065,7 +6069,7 @@
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="31"/>
+      <c r="E124" s="30"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -6084,7 +6088,7 @@
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="31"/>
+      <c r="E125" s="30"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -6103,7 +6107,7 @@
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="31"/>
+      <c r="E126" s="30"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -6122,7 +6126,7 @@
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="31"/>
+      <c r="E127" s="30"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -6141,7 +6145,7 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="31"/>
+      <c r="E128" s="30"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -6160,7 +6164,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="31"/>
+      <c r="E129" s="30"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -6179,7 +6183,7 @@
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="31"/>
+      <c r="E130" s="30"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -6198,7 +6202,7 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="31"/>
+      <c r="E131" s="30"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -6217,7 +6221,7 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="31"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -6236,7 +6240,7 @@
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
-      <c r="E133" s="31"/>
+      <c r="E133" s="30"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -6255,7 +6259,7 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-      <c r="E134" s="31"/>
+      <c r="E134" s="30"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -6274,7 +6278,7 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="31"/>
+      <c r="E135" s="30"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -6293,7 +6297,7 @@
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="31"/>
+      <c r="E136" s="30"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -6312,7 +6316,7 @@
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="31"/>
+      <c r="E137" s="30"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -6331,7 +6335,7 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="30"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -6350,7 +6354,7 @@
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="31"/>
+      <c r="E139" s="30"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -6369,7 +6373,7 @@
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="31"/>
+      <c r="E140" s="30"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -6388,7 +6392,7 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="31"/>
+      <c r="E141" s="30"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -6407,7 +6411,7 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="31"/>
+      <c r="E142" s="30"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -6426,7 +6430,7 @@
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="31"/>
+      <c r="E143" s="30"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -6445,7 +6449,7 @@
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="31"/>
+      <c r="E144" s="30"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -6464,7 +6468,7 @@
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="31"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -6483,7 +6487,7 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="31"/>
+      <c r="E146" s="30"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -6502,7 +6506,7 @@
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="31"/>
+      <c r="E147" s="30"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -6521,7 +6525,7 @@
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="31"/>
+      <c r="E148" s="30"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -6540,7 +6544,7 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="31"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -6559,7 +6563,7 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="31"/>
+      <c r="E150" s="30"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -6578,7 +6582,7 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="31"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -6597,7 +6601,7 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="31"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -6616,7 +6620,7 @@
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="31"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -6635,7 +6639,7 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="31"/>
+      <c r="E154" s="30"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -6654,7 +6658,7 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="31"/>
+      <c r="E155" s="30"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -6673,7 +6677,7 @@
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="31"/>
+      <c r="E156" s="30"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -6692,7 +6696,7 @@
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="31"/>
+      <c r="E157" s="30"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -6711,7 +6715,7 @@
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="31"/>
+      <c r="E158" s="30"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -6730,7 +6734,7 @@
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="31"/>
+      <c r="E159" s="30"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -6749,7 +6753,7 @@
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="31"/>
+      <c r="E160" s="30"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -6768,7 +6772,7 @@
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="31"/>
+      <c r="E161" s="30"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -6787,7 +6791,7 @@
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
-      <c r="E162" s="31"/>
+      <c r="E162" s="30"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -6806,7 +6810,7 @@
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="31"/>
+      <c r="E163" s="30"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -6825,7 +6829,7 @@
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="31"/>
+      <c r="E164" s="30"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -6844,7 +6848,7 @@
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="31"/>
+      <c r="E165" s="30"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -6863,7 +6867,7 @@
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="31"/>
+      <c r="E166" s="30"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -6882,7 +6886,7 @@
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="31"/>
+      <c r="E167" s="30"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -6901,7 +6905,7 @@
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="31"/>
+      <c r="E168" s="30"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -6920,7 +6924,7 @@
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="31"/>
+      <c r="E169" s="30"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -6939,7 +6943,7 @@
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="31"/>
+      <c r="E170" s="30"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -6958,7 +6962,7 @@
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="31"/>
+      <c r="E171" s="30"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -6977,7 +6981,7 @@
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="31"/>
+      <c r="E172" s="30"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -6996,7 +7000,7 @@
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="31"/>
+      <c r="E173" s="30"/>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -7015,7 +7019,7 @@
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="31"/>
+      <c r="E174" s="30"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -7034,7 +7038,7 @@
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="31"/>
+      <c r="E175" s="30"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -7053,7 +7057,7 @@
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="31"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -7072,7 +7076,7 @@
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="31"/>
+      <c r="E177" s="30"/>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -7091,7 +7095,7 @@
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="31"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -7110,7 +7114,7 @@
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
-      <c r="E179" s="31"/>
+      <c r="E179" s="30"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -7129,7 +7133,7 @@
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-      <c r="E180" s="31"/>
+      <c r="E180" s="30"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -7186,7 +7190,7 @@
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
     <col min="6" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="9" width="5.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
@@ -7194,17 +7198,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -7229,19 +7233,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7252,7 +7256,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7273,7 +7277,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7298,11 +7302,11 @@
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>352</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="38"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -7328,10 +7332,10 @@
       <c r="C6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>2.2799999999999998</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -7365,10 +7369,10 @@
       <c r="C7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>2.2799999999999998</v>
       </c>
       <c r="F7" s="19"/>
@@ -7394,10 +7398,10 @@
       <c r="C8" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>2.2799999999999998</v>
       </c>
       <c r="F8" s="19"/>
@@ -7417,16 +7421,16 @@
       <c r="A9" s="10">
         <v>104</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>2.2799999999999998</v>
       </c>
       <c r="F9" s="19"/>
@@ -7452,10 +7456,10 @@
       <c r="C10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>2.2799999999999998</v>
       </c>
       <c r="F10" s="19"/>
@@ -7484,7 +7488,7 @@
       <c r="D11" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="39">
         <v>3.1</v>
       </c>
       <c r="F11" s="19"/>
@@ -7513,7 +7517,7 @@
       <c r="D12" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="39">
         <v>3.1</v>
       </c>
       <c r="F12" s="19"/>
@@ -7536,13 +7540,13 @@
       <c r="B13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="39">
         <v>3.1</v>
       </c>
       <c r="F13" s="19"/>
@@ -7568,7 +7572,7 @@
       <c r="C14" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>327</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -7605,7 +7609,7 @@
       <c r="D15" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>329</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -7642,7 +7646,7 @@
       <c r="D16" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>327</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -7705,7 +7709,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7726,7 +7730,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7757,7 +7761,7 @@
       <c r="D21" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <v>3.1</v>
       </c>
       <c r="F21" s="19"/>
@@ -7786,7 +7790,7 @@
       <c r="D22" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="39">
         <v>3.1</v>
       </c>
       <c r="F22" s="19"/>
@@ -7815,7 +7819,7 @@
       <c r="D23" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="39">
         <v>3.1</v>
       </c>
       <c r="F23" s="19"/>
@@ -7844,7 +7848,7 @@
       <c r="D24" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="39">
         <v>3.1</v>
       </c>
       <c r="F24" s="19"/>
@@ -7873,7 +7877,7 @@
       <c r="D25" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="39">
         <v>3.1</v>
       </c>
       <c r="F25" s="19"/>
@@ -8217,7 +8221,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -8236,7 +8240,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -8255,7 +8259,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -8274,7 +8278,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -8293,7 +8297,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -8312,7 +8316,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -8331,7 +8335,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -8350,7 +8354,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -8369,7 +8373,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -8388,7 +8392,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -8407,7 +8411,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -8426,7 +8430,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -8445,7 +8449,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -8464,7 +8468,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -8483,7 +8487,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -8502,7 +8506,7 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -8521,7 +8525,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -8540,7 +8544,7 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -8559,7 +8563,7 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -8578,7 +8582,7 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -8597,7 +8601,7 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -8616,7 +8620,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -8635,7 +8639,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -8654,7 +8658,7 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -8673,7 +8677,7 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -8692,7 +8696,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -8711,7 +8715,7 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -8730,7 +8734,7 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -8749,7 +8753,7 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -8768,7 +8772,7 @@
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -8787,7 +8791,7 @@
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -8806,7 +8810,7 @@
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -8825,7 +8829,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -8844,7 +8848,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -8863,7 +8867,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -8882,7 +8886,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -8901,7 +8905,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -8920,7 +8924,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -8939,7 +8943,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
@@ -8958,7 +8962,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
@@ -8977,7 +8981,7 @@
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
@@ -8996,7 +9000,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -9015,7 +9019,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
@@ -9034,7 +9038,7 @@
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
@@ -9053,7 +9057,7 @@
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
@@ -9072,7 +9076,7 @@
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -9091,7 +9095,7 @@
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
@@ -9110,7 +9114,7 @@
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
@@ -9129,7 +9133,7 @@
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
@@ -9148,7 +9152,7 @@
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -9167,7 +9171,7 @@
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
@@ -9186,7 +9190,7 @@
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -9205,7 +9209,7 @@
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -9224,7 +9228,7 @@
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -9243,7 +9247,7 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -9262,7 +9266,7 @@
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -9281,7 +9285,7 @@
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -9300,7 +9304,7 @@
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -9319,7 +9323,7 @@
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="41"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
@@ -9338,7 +9342,7 @@
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="41"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
@@ -9357,7 +9361,7 @@
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="41"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
@@ -9376,7 +9380,7 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="41"/>
+      <c r="E104" s="40"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -9395,7 +9399,7 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="41"/>
+      <c r="E105" s="40"/>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
@@ -9414,7 +9418,7 @@
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="41"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
@@ -9433,7 +9437,7 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="41"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
@@ -9452,7 +9456,7 @@
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="41"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -9471,7 +9475,7 @@
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="41"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
@@ -9490,7 +9494,7 @@
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="41"/>
+      <c r="E110" s="40"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
@@ -9509,7 +9513,7 @@
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="41"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
@@ -9528,7 +9532,7 @@
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="41"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -9547,7 +9551,7 @@
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="41"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
@@ -9566,7 +9570,7 @@
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="41"/>
+      <c r="E114" s="40"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
@@ -9585,7 +9589,7 @@
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="41"/>
+      <c r="E115" s="40"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
@@ -9604,7 +9608,7 @@
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="41"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -9623,7 +9627,7 @@
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="41"/>
+      <c r="E117" s="40"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
@@ -9642,7 +9646,7 @@
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="41"/>
+      <c r="E118" s="40"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
@@ -9661,7 +9665,7 @@
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="41"/>
+      <c r="E119" s="40"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -9680,7 +9684,7 @@
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="41"/>
+      <c r="E120" s="40"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -9699,7 +9703,7 @@
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="41"/>
+      <c r="E121" s="40"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -9718,7 +9722,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="41"/>
+      <c r="E122" s="40"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
@@ -9737,7 +9741,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="41"/>
+      <c r="E123" s="40"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -9756,7 +9760,7 @@
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="41"/>
+      <c r="E124" s="40"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -9775,7 +9779,7 @@
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="41"/>
+      <c r="E125" s="40"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -9794,7 +9798,7 @@
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="41"/>
+      <c r="E126" s="40"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
@@ -9813,7 +9817,7 @@
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="41"/>
+      <c r="E127" s="40"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -9832,7 +9836,7 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="41"/>
+      <c r="E128" s="40"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -9851,7 +9855,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="41"/>
+      <c r="E129" s="40"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -9870,7 +9874,7 @@
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="41"/>
+      <c r="E130" s="40"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
@@ -9889,7 +9893,7 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="41"/>
+      <c r="E131" s="40"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
@@ -9908,7 +9912,7 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="41"/>
+      <c r="E132" s="40"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -9927,7 +9931,7 @@
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
-      <c r="E133" s="41"/>
+      <c r="E133" s="40"/>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
@@ -9946,7 +9950,7 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-      <c r="E134" s="41"/>
+      <c r="E134" s="40"/>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
@@ -9965,7 +9969,7 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="41"/>
+      <c r="E135" s="40"/>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
@@ -9984,7 +9988,7 @@
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="41"/>
+      <c r="E136" s="40"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -10003,7 +10007,7 @@
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="41"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
@@ -10022,7 +10026,7 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="41"/>
+      <c r="E138" s="40"/>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
@@ -10041,7 +10045,7 @@
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="41"/>
+      <c r="E139" s="40"/>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
@@ -10060,7 +10064,7 @@
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="41"/>
+      <c r="E140" s="40"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -10079,7 +10083,7 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="41"/>
+      <c r="E141" s="40"/>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
@@ -10098,7 +10102,7 @@
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="41"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
@@ -10117,7 +10121,7 @@
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="41"/>
+      <c r="E143" s="40"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
@@ -10136,7 +10140,7 @@
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="41"/>
+      <c r="E144" s="40"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -10155,7 +10159,7 @@
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="41"/>
+      <c r="E145" s="40"/>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
@@ -10174,7 +10178,7 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="41"/>
+      <c r="E146" s="40"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
@@ -10193,7 +10197,7 @@
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="41"/>
+      <c r="E147" s="40"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
@@ -10212,7 +10216,7 @@
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="41"/>
+      <c r="E148" s="40"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
@@ -10231,7 +10235,7 @@
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="41"/>
+      <c r="E149" s="40"/>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
@@ -10250,7 +10254,7 @@
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="41"/>
+      <c r="E150" s="40"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
@@ -10269,7 +10273,7 @@
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="41"/>
+      <c r="E151" s="40"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
@@ -10288,7 +10292,7 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="41"/>
+      <c r="E152" s="40"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
@@ -10307,7 +10311,7 @@
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="41"/>
+      <c r="E153" s="40"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
@@ -10326,7 +10330,7 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="41"/>
+      <c r="E154" s="40"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
@@ -10345,7 +10349,7 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="41"/>
+      <c r="E155" s="40"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
@@ -10364,7 +10368,7 @@
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="41"/>
+      <c r="E156" s="40"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
@@ -10383,7 +10387,7 @@
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-      <c r="E157" s="41"/>
+      <c r="E157" s="40"/>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
@@ -10402,7 +10406,7 @@
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-      <c r="E158" s="41"/>
+      <c r="E158" s="40"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
@@ -10421,7 +10425,7 @@
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-      <c r="E159" s="41"/>
+      <c r="E159" s="40"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
@@ -10440,7 +10444,7 @@
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-      <c r="E160" s="41"/>
+      <c r="E160" s="40"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
@@ -10459,7 +10463,7 @@
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-      <c r="E161" s="41"/>
+      <c r="E161" s="40"/>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
@@ -10478,7 +10482,7 @@
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
-      <c r="E162" s="41"/>
+      <c r="E162" s="40"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
@@ -10497,7 +10501,7 @@
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-      <c r="E163" s="41"/>
+      <c r="E163" s="40"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
@@ -10516,7 +10520,7 @@
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-      <c r="E164" s="41"/>
+      <c r="E164" s="40"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
@@ -10535,7 +10539,7 @@
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-      <c r="E165" s="41"/>
+      <c r="E165" s="40"/>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
@@ -10554,7 +10558,7 @@
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-      <c r="E166" s="41"/>
+      <c r="E166" s="40"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
@@ -10573,7 +10577,7 @@
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="41"/>
+      <c r="E167" s="40"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
@@ -10592,7 +10596,7 @@
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="41"/>
+      <c r="E168" s="40"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
@@ -10611,7 +10615,7 @@
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="41"/>
+      <c r="E169" s="40"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
@@ -10630,7 +10634,7 @@
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="41"/>
+      <c r="E170" s="40"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
@@ -10649,7 +10653,7 @@
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="41"/>
+      <c r="E171" s="40"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
@@ -10668,7 +10672,7 @@
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="41"/>
+      <c r="E172" s="40"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
@@ -10687,7 +10691,7 @@
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="41"/>
+      <c r="E173" s="40"/>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
@@ -10706,7 +10710,7 @@
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="41"/>
+      <c r="E174" s="40"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
@@ -10725,7 +10729,7 @@
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-      <c r="E175" s="41"/>
+      <c r="E175" s="40"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
@@ -10744,7 +10748,7 @@
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-      <c r="E176" s="41"/>
+      <c r="E176" s="40"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
@@ -10763,7 +10767,7 @@
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-      <c r="E177" s="41"/>
+      <c r="E177" s="40"/>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
@@ -10782,7 +10786,7 @@
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-      <c r="E178" s="41"/>
+      <c r="E178" s="40"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
@@ -10801,7 +10805,7 @@
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
-      <c r="E179" s="41"/>
+      <c r="E179" s="40"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
@@ -10820,7 +10824,7 @@
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-      <c r="E180" s="41"/>
+      <c r="E180" s="40"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
@@ -10839,7 +10843,7 @@
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
-      <c r="E181" s="41"/>
+      <c r="E181" s="40"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
@@ -10858,7 +10862,7 @@
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
-      <c r="E182" s="41"/>
+      <c r="E182" s="40"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
@@ -10877,7 +10881,7 @@
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
-      <c r="E183" s="41"/>
+      <c r="E183" s="40"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
@@ -10896,7 +10900,7 @@
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
-      <c r="E184" s="41"/>
+      <c r="E184" s="40"/>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
@@ -10915,7 +10919,7 @@
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
-      <c r="E185" s="41"/>
+      <c r="E185" s="40"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
@@ -10934,7 +10938,7 @@
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-      <c r="E186" s="41"/>
+      <c r="E186" s="40"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
@@ -10953,7 +10957,7 @@
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-      <c r="E187" s="41"/>
+      <c r="E187" s="40"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
@@ -10972,7 +10976,7 @@
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-      <c r="E188" s="41"/>
+      <c r="E188" s="40"/>
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
@@ -10991,7 +10995,7 @@
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-      <c r="E189" s="41"/>
+      <c r="E189" s="40"/>
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
@@ -11010,7 +11014,7 @@
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-      <c r="E190" s="41"/>
+      <c r="E190" s="40"/>
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
@@ -11029,7 +11033,7 @@
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
-      <c r="E191" s="41"/>
+      <c r="E191" s="40"/>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
@@ -11048,7 +11052,7 @@
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-      <c r="E192" s="41"/>
+      <c r="E192" s="40"/>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
@@ -11067,7 +11071,7 @@
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
-      <c r="E193" s="41"/>
+      <c r="E193" s="40"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
@@ -11086,7 +11090,7 @@
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-      <c r="E194" s="41"/>
+      <c r="E194" s="40"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
@@ -11105,7 +11109,7 @@
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
-      <c r="E195" s="41"/>
+      <c r="E195" s="40"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
@@ -11124,7 +11128,7 @@
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-      <c r="E196" s="41"/>
+      <c r="E196" s="40"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
@@ -11143,7 +11147,7 @@
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
-      <c r="E197" s="41"/>
+      <c r="E197" s="40"/>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
@@ -11162,7 +11166,7 @@
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
-      <c r="E198" s="41"/>
+      <c r="E198" s="40"/>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
@@ -11181,7 +11185,7 @@
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
-      <c r="E199" s="41"/>
+      <c r="E199" s="40"/>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
@@ -11200,7 +11204,7 @@
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
-      <c r="E200" s="41"/>
+      <c r="E200" s="40"/>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
@@ -11270,10 +11274,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11305,19 +11309,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11328,7 +11332,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11349,7 +11353,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11371,13 +11375,13 @@
       <c r="A5" s="5">
         <v>102</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>353</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>356</v>
       </c>
       <c r="E5" s="14">
@@ -11407,13 +11411,13 @@
       <c r="B6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>358</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -11441,16 +11445,16 @@
       <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>360</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="47" t="s">
         <v>362</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -11515,7 +11519,7 @@
       <c r="A9" s="10">
         <v>69</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>355</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -11550,7 +11554,7 @@
       <c r="A10" s="10">
         <v>367</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>354</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -11620,7 +11624,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11641,7 +11645,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -14965,10 +14969,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15000,19 +15004,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -15023,7 +15027,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15044,7 +15048,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15597,11 +15601,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15806,7 +15810,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15827,7 +15831,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18582,10 +18586,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18618,19 +18622,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18642,7 +18646,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18664,7 +18668,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22419,10 +22423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22455,19 +22459,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22479,7 +22483,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22501,7 +22505,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22745,7 +22749,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22767,7 +22771,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26587,10 +26591,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26623,19 +26627,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26647,7 +26651,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26669,7 +26673,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27457,7 +27461,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27479,7 +27483,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="368">
   <si>
     <t>题号</t>
   </si>
@@ -1249,6 +1249,16 @@
   <si>
     <t xml:space="preserve">
 泛型递归,剪枝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1432,7 +1442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1608,6 +1618,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1641,7 +1654,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3494,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F14"/>
     </sheetView>
   </sheetViews>
@@ -7148,8 +7161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7306,8 +7319,8 @@
       <c r="E6" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
+      <c r="F6" s="35" t="s">
+        <v>366</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -7343,7 +7356,9 @@
       <c r="E7" s="40">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="35" t="s">
+        <v>367</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -7372,7 +7387,9 @@
       <c r="E8" s="40">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="59">
+        <v>4.3</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50837537-6D90-3545-A690-9B697E8744C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0975C57-A66E-3C4F-A150-2DDFDFF1B829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="373">
   <si>
     <t>题号</t>
   </si>
@@ -1271,6 +1271,10 @@
   </si>
   <si>
     <t>优先队列 ，HashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4..3</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,6 +1635,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3520,7 +3527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -7180,8 +7187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7338,8 +7345,8 @@
       <c r="E6" s="38">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
+      <c r="F6" s="34" t="s">
+        <v>372</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -7375,7 +7382,9 @@
       <c r="E7" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="60">
+        <v>4.3</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -7404,7 +7413,9 @@
       <c r="E8" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="60">
+        <v>4.3</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0975C57-A66E-3C4F-A150-2DDFDFF1B829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A349EC-55B8-FE49-9637-C73D1C6EA8DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7187,8 +7187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7345,7 +7345,7 @@
       <c r="E6" s="38">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="38" t="s">
         <v>372</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -7444,7 +7444,9 @@
       <c r="E9" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="60">
+        <v>4.3</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -7473,7 +7475,9 @@
       <c r="E10" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="60">
+        <v>4.3</v>
+      </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA60A391-B1F8-4F4B-A7E2-B9A40BA8476F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF8738-4016-874E-848A-14D228AF6182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7568,7 +7568,9 @@
       <c r="E13" s="39">
         <v>3.1</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="60">
+        <v>4.3</v>
+      </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF8738-4016-874E-848A-14D228AF6182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0F887-D3DC-3C48-9F56-03E2AA1241EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="375">
   <si>
     <t>题号</t>
   </si>
@@ -1275,6 +1275,13 @@
   <si>
     <t xml:space="preserve">
 4..3</t>
+  </si>
+  <si>
+    <t>摩尔投票法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3
+</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1452,12 +1459,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2B2B2B"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2B2B2B"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1637,6 +1655,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7188,7 +7209,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7593,11 +7614,14 @@
       <c r="C14" s="20" t="s">
         <v>100</v>
       </c>
+      <c r="D14" s="61" t="s">
+        <v>373</v>
+      </c>
       <c r="E14" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>13</v>
+      <c r="F14" s="34" t="s">
+        <v>374</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0F887-D3DC-3C48-9F56-03E2AA1241EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A945C-B1B4-A74E-A031-237838F858B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1633,6 +1633,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1654,11 +1657,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2057,10 +2060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2092,19 +2095,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2115,17 +2118,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2136,15 +2139,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2652,17 +2655,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2673,15 +2676,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -3568,10 +3571,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3603,19 +3606,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3626,17 +3629,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3647,15 +3650,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4036,7 +4039,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -4057,7 +4060,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7209,7 +7212,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7219,17 +7222,18 @@
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
-    <col min="6" max="7" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="9" width="5.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7239,7 +7243,7 @@
       <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -7261,19 +7265,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7284,14 +7288,14 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -7305,12 +7309,12 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -7335,7 +7339,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="37"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7403,7 +7407,7 @@
       <c r="E7" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="39">
         <v>4.3</v>
       </c>
       <c r="G7" s="19"/>
@@ -7434,7 +7438,7 @@
       <c r="E8" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="39">
         <v>4.3</v>
       </c>
       <c r="G8" s="19"/>
@@ -7465,7 +7469,7 @@
       <c r="E9" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="39">
         <v>4.3</v>
       </c>
       <c r="G9" s="19"/>
@@ -7496,7 +7500,7 @@
       <c r="E10" s="39">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="39">
         <v>4.3</v>
       </c>
       <c r="G10" s="19"/>
@@ -7527,7 +7531,7 @@
       <c r="E11" s="39">
         <v>3.1</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="39">
         <v>4.3</v>
       </c>
       <c r="G11" s="19"/>
@@ -7558,7 +7562,7 @@
       <c r="E12" s="39">
         <v>3.1</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="39">
         <v>4.3</v>
       </c>
       <c r="G12" s="19"/>
@@ -7589,7 +7593,7 @@
       <c r="E13" s="39">
         <v>3.1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="39">
         <v>4.3</v>
       </c>
       <c r="G13" s="19"/>
@@ -7620,7 +7624,7 @@
       <c r="E14" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="38" t="s">
         <v>374</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -7657,7 +7661,7 @@
       <c r="E15" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -7694,7 +7698,7 @@
       <c r="E16" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -7721,7 +7725,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -7740,7 +7744,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -7754,14 +7758,14 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -7775,12 +7779,12 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -7809,7 +7813,7 @@
       <c r="E21" s="39">
         <v>3.1</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="62"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -7838,7 +7842,7 @@
       <c r="E22" s="39">
         <v>3.1</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -7867,7 +7871,7 @@
       <c r="E23" s="39">
         <v>3.1</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -7896,7 +7900,7 @@
       <c r="E24" s="39">
         <v>3.1</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -7925,7 +7929,7 @@
       <c r="E25" s="39">
         <v>3.1</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -7944,7 +7948,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -7963,7 +7967,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -7982,7 +7986,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="4"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -8001,7 +8005,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -8020,7 +8024,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -8039,7 +8043,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -8058,7 +8062,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -8077,7 +8081,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -8096,7 +8100,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="4"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -8115,7 +8119,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="17"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -8134,7 +8138,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="17"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -8153,7 +8157,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -8172,7 +8176,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="17"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -8191,7 +8195,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -8210,7 +8214,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="17"/>
-      <c r="F40" s="4"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -8229,7 +8233,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="4"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -8248,7 +8252,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="17"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -8267,7 +8271,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="40"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
@@ -8286,7 +8290,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="40"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -8305,7 +8309,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="40"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="40"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -8324,7 +8328,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="40"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -8343,7 +8347,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="40"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="40"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -8362,7 +8366,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="40"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -8381,7 +8385,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="40"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
@@ -8400,7 +8404,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="40"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -8419,7 +8423,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="40"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="40"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -8438,7 +8442,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="40"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -8457,7 +8461,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="40"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -8476,7 +8480,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="40"/>
-      <c r="F54" s="9"/>
+      <c r="F54" s="40"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -8495,7 +8499,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="40"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="40"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -8514,7 +8518,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="40"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -8533,7 +8537,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="40"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="40"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -8552,7 +8556,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="40"/>
-      <c r="F58" s="9"/>
+      <c r="F58" s="40"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -8571,7 +8575,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="40"/>
-      <c r="F59" s="9"/>
+      <c r="F59" s="40"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -8590,7 +8594,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="40"/>
-      <c r="F60" s="9"/>
+      <c r="F60" s="40"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -8609,7 +8613,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="40"/>
-      <c r="F61" s="9"/>
+      <c r="F61" s="40"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8628,7 +8632,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="9"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -8647,7 +8651,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="40"/>
-      <c r="F63" s="9"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -8666,7 +8670,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="40"/>
-      <c r="F64" s="9"/>
+      <c r="F64" s="40"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -8685,7 +8689,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="9"/>
+      <c r="F65" s="40"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -8704,7 +8708,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="40"/>
-      <c r="F66" s="9"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -8723,7 +8727,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="40"/>
-      <c r="F67" s="9"/>
+      <c r="F67" s="40"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -8742,7 +8746,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="40"/>
-      <c r="F68" s="9"/>
+      <c r="F68" s="40"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -8761,7 +8765,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="9"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -8780,7 +8784,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="40"/>
-      <c r="F70" s="9"/>
+      <c r="F70" s="40"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -8799,7 +8803,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="40"/>
-      <c r="F71" s="9"/>
+      <c r="F71" s="40"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -8818,7 +8822,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="40"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -8837,7 +8841,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="40"/>
-      <c r="F73" s="9"/>
+      <c r="F73" s="40"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -8856,7 +8860,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="40"/>
-      <c r="F74" s="9"/>
+      <c r="F74" s="40"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -8875,7 +8879,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="40"/>
-      <c r="F75" s="9"/>
+      <c r="F75" s="40"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -8894,7 +8898,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="40"/>
-      <c r="F76" s="9"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -8913,7 +8917,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="9"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -8932,7 +8936,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="40"/>
-      <c r="F78" s="9"/>
+      <c r="F78" s="40"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -8951,7 +8955,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="40"/>
-      <c r="F79" s="9"/>
+      <c r="F79" s="40"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -8970,7 +8974,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="40"/>
-      <c r="F80" s="9"/>
+      <c r="F80" s="40"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -8989,7 +8993,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="9"/>
+      <c r="F81" s="40"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -9008,7 +9012,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="40"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="40"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -9027,7 +9031,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="40"/>
-      <c r="F83" s="9"/>
+      <c r="F83" s="40"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -9046,7 +9050,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="40"/>
-      <c r="F84" s="9"/>
+      <c r="F84" s="40"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -9065,7 +9069,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="40"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -9084,7 +9088,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="40"/>
-      <c r="F86" s="9"/>
+      <c r="F86" s="40"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -9103,7 +9107,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="40"/>
-      <c r="F87" s="9"/>
+      <c r="F87" s="40"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -9122,7 +9126,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="40"/>
-      <c r="F88" s="9"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -9141,7 +9145,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="40"/>
-      <c r="F89" s="9"/>
+      <c r="F89" s="40"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -9160,7 +9164,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="40"/>
-      <c r="F90" s="9"/>
+      <c r="F90" s="40"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -9179,7 +9183,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="40"/>
-      <c r="F91" s="9"/>
+      <c r="F91" s="40"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -9198,7 +9202,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="40"/>
-      <c r="F92" s="9"/>
+      <c r="F92" s="40"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -9217,7 +9221,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="40"/>
-      <c r="F93" s="9"/>
+      <c r="F93" s="40"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -9236,7 +9240,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="40"/>
-      <c r="F94" s="9"/>
+      <c r="F94" s="40"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
@@ -9255,7 +9259,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="40"/>
-      <c r="F95" s="9"/>
+      <c r="F95" s="40"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -9274,7 +9278,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="40"/>
-      <c r="F96" s="9"/>
+      <c r="F96" s="40"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -9293,7 +9297,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="40"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="40"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -9312,7 +9316,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="40"/>
-      <c r="F98" s="9"/>
+      <c r="F98" s="40"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -9331,7 +9335,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="40"/>
-      <c r="F99" s="9"/>
+      <c r="F99" s="40"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -9350,7 +9354,7 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="40"/>
-      <c r="F100" s="9"/>
+      <c r="F100" s="40"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -9369,7 +9373,7 @@
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="40"/>
-      <c r="F101" s="9"/>
+      <c r="F101" s="40"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -9388,7 +9392,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="40"/>
-      <c r="F102" s="9"/>
+      <c r="F102" s="40"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -9407,7 +9411,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="40"/>
-      <c r="F103" s="9"/>
+      <c r="F103" s="40"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -9426,7 +9430,7 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="40"/>
-      <c r="F104" s="9"/>
+      <c r="F104" s="40"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -9445,7 +9449,7 @@
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="40"/>
-      <c r="F105" s="9"/>
+      <c r="F105" s="40"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -9464,7 +9468,7 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="40"/>
-      <c r="F106" s="9"/>
+      <c r="F106" s="40"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -9483,7 +9487,7 @@
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="40"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="40"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -9502,7 +9506,7 @@
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="40"/>
-      <c r="F108" s="9"/>
+      <c r="F108" s="40"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -9521,7 +9525,7 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="40"/>
-      <c r="F109" s="9"/>
+      <c r="F109" s="40"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -9540,7 +9544,7 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="40"/>
-      <c r="F110" s="9"/>
+      <c r="F110" s="40"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -9559,7 +9563,7 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="40"/>
-      <c r="F111" s="9"/>
+      <c r="F111" s="40"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
@@ -9578,7 +9582,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="40"/>
-      <c r="F112" s="9"/>
+      <c r="F112" s="40"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
@@ -9597,7 +9601,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="40"/>
-      <c r="F113" s="9"/>
+      <c r="F113" s="40"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
@@ -9616,7 +9620,7 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="40"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="40"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -9635,7 +9639,7 @@
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="40"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="40"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -9654,7 +9658,7 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="40"/>
-      <c r="F116" s="9"/>
+      <c r="F116" s="40"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -9673,7 +9677,7 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="40"/>
-      <c r="F117" s="9"/>
+      <c r="F117" s="40"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -9692,7 +9696,7 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="40"/>
-      <c r="F118" s="9"/>
+      <c r="F118" s="40"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -9711,7 +9715,7 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="40"/>
-      <c r="F119" s="9"/>
+      <c r="F119" s="40"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
@@ -9730,7 +9734,7 @@
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="40"/>
-      <c r="F120" s="9"/>
+      <c r="F120" s="40"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
@@ -9749,7 +9753,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="40"/>
-      <c r="F121" s="9"/>
+      <c r="F121" s="40"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
@@ -9768,7 +9772,7 @@
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="40"/>
-      <c r="F122" s="9"/>
+      <c r="F122" s="40"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
@@ -9787,7 +9791,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="40"/>
-      <c r="F123" s="9"/>
+      <c r="F123" s="40"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
@@ -9806,7 +9810,7 @@
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="40"/>
-      <c r="F124" s="9"/>
+      <c r="F124" s="40"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -9825,7 +9829,7 @@
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="40"/>
-      <c r="F125" s="9"/>
+      <c r="F125" s="40"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -9844,7 +9848,7 @@
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="40"/>
-      <c r="F126" s="9"/>
+      <c r="F126" s="40"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -9863,7 +9867,7 @@
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="40"/>
-      <c r="F127" s="9"/>
+      <c r="F127" s="40"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -9882,7 +9886,7 @@
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="40"/>
-      <c r="F128" s="9"/>
+      <c r="F128" s="40"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -9901,7 +9905,7 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="40"/>
-      <c r="F129" s="9"/>
+      <c r="F129" s="40"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
@@ -9920,7 +9924,7 @@
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="40"/>
-      <c r="F130" s="9"/>
+      <c r="F130" s="40"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -9939,7 +9943,7 @@
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="40"/>
-      <c r="F131" s="9"/>
+      <c r="F131" s="40"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -9958,7 +9962,7 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="40"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="40"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -9977,7 +9981,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="40"/>
-      <c r="F133" s="9"/>
+      <c r="F133" s="40"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
@@ -9996,7 +10000,7 @@
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="40"/>
-      <c r="F134" s="9"/>
+      <c r="F134" s="40"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -10015,7 +10019,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="40"/>
-      <c r="F135" s="9"/>
+      <c r="F135" s="40"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -10034,7 +10038,7 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="40"/>
-      <c r="F136" s="9"/>
+      <c r="F136" s="40"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
@@ -10053,7 +10057,7 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="40"/>
-      <c r="F137" s="9"/>
+      <c r="F137" s="40"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -10072,7 +10076,7 @@
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="40"/>
-      <c r="F138" s="9"/>
+      <c r="F138" s="40"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -10091,7 +10095,7 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="40"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="40"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
@@ -10110,7 +10114,7 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="40"/>
-      <c r="F140" s="9"/>
+      <c r="F140" s="40"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -10129,7 +10133,7 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="40"/>
-      <c r="F141" s="9"/>
+      <c r="F141" s="40"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
@@ -10148,7 +10152,7 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="40"/>
-      <c r="F142" s="9"/>
+      <c r="F142" s="40"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -10167,7 +10171,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="40"/>
-      <c r="F143" s="9"/>
+      <c r="F143" s="40"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
@@ -10186,7 +10190,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="40"/>
-      <c r="F144" s="9"/>
+      <c r="F144" s="40"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -10205,7 +10209,7 @@
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="40"/>
-      <c r="F145" s="9"/>
+      <c r="F145" s="40"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -10224,7 +10228,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="40"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="40"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
@@ -10243,7 +10247,7 @@
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="40"/>
-      <c r="F147" s="9"/>
+      <c r="F147" s="40"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
@@ -10262,7 +10266,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="40"/>
-      <c r="F148" s="9"/>
+      <c r="F148" s="40"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
@@ -10281,7 +10285,7 @@
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="40"/>
-      <c r="F149" s="9"/>
+      <c r="F149" s="40"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
@@ -10300,7 +10304,7 @@
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="40"/>
-      <c r="F150" s="9"/>
+      <c r="F150" s="40"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -10319,7 +10323,7 @@
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="40"/>
-      <c r="F151" s="9"/>
+      <c r="F151" s="40"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
@@ -10338,7 +10342,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="40"/>
-      <c r="F152" s="9"/>
+      <c r="F152" s="40"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
@@ -10357,7 +10361,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="40"/>
-      <c r="F153" s="9"/>
+      <c r="F153" s="40"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
@@ -10376,7 +10380,7 @@
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="40"/>
-      <c r="F154" s="9"/>
+      <c r="F154" s="40"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
@@ -10395,7 +10399,7 @@
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="40"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="40"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -10414,7 +10418,7 @@
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="40"/>
-      <c r="F156" s="9"/>
+      <c r="F156" s="40"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
@@ -10433,7 +10437,7 @@
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="40"/>
-      <c r="F157" s="9"/>
+      <c r="F157" s="40"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
@@ -10452,7 +10456,7 @@
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="40"/>
-      <c r="F158" s="9"/>
+      <c r="F158" s="40"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9"/>
@@ -10471,7 +10475,7 @@
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="40"/>
-      <c r="F159" s="9"/>
+      <c r="F159" s="40"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
@@ -10490,7 +10494,7 @@
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="40"/>
-      <c r="F160" s="9"/>
+      <c r="F160" s="40"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
@@ -10509,7 +10513,7 @@
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="40"/>
-      <c r="F161" s="9"/>
+      <c r="F161" s="40"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9"/>
@@ -10528,7 +10532,7 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="40"/>
-      <c r="F162" s="9"/>
+      <c r="F162" s="40"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
@@ -10547,7 +10551,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="40"/>
-      <c r="F163" s="9"/>
+      <c r="F163" s="40"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9"/>
@@ -10566,7 +10570,7 @@
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="40"/>
-      <c r="F164" s="9"/>
+      <c r="F164" s="40"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9"/>
@@ -10585,7 +10589,7 @@
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="40"/>
-      <c r="F165" s="9"/>
+      <c r="F165" s="40"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
@@ -10604,7 +10608,7 @@
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="40"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="40"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9"/>
@@ -10623,7 +10627,7 @@
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="40"/>
-      <c r="F167" s="9"/>
+      <c r="F167" s="40"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9"/>
@@ -10642,7 +10646,7 @@
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="40"/>
-      <c r="F168" s="9"/>
+      <c r="F168" s="40"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
@@ -10661,7 +10665,7 @@
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="40"/>
-      <c r="F169" s="9"/>
+      <c r="F169" s="40"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
       <c r="I169" s="9"/>
@@ -10680,7 +10684,7 @@
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="40"/>
-      <c r="F170" s="9"/>
+      <c r="F170" s="40"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="9"/>
@@ -10699,7 +10703,7 @@
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="40"/>
-      <c r="F171" s="9"/>
+      <c r="F171" s="40"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="9"/>
@@ -10718,7 +10722,7 @@
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="40"/>
-      <c r="F172" s="9"/>
+      <c r="F172" s="40"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
@@ -10737,7 +10741,7 @@
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="40"/>
-      <c r="F173" s="9"/>
+      <c r="F173" s="40"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="9"/>
@@ -10756,7 +10760,7 @@
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="40"/>
-      <c r="F174" s="9"/>
+      <c r="F174" s="40"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
@@ -10775,7 +10779,7 @@
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="40"/>
-      <c r="F175" s="9"/>
+      <c r="F175" s="40"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
@@ -10794,7 +10798,7 @@
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="40"/>
-      <c r="F176" s="9"/>
+      <c r="F176" s="40"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
       <c r="I176" s="9"/>
@@ -10813,7 +10817,7 @@
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="40"/>
-      <c r="F177" s="9"/>
+      <c r="F177" s="40"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
@@ -10832,7 +10836,7 @@
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="40"/>
-      <c r="F178" s="9"/>
+      <c r="F178" s="40"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="9"/>
@@ -10851,7 +10855,7 @@
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="40"/>
-      <c r="F179" s="9"/>
+      <c r="F179" s="40"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
       <c r="I179" s="9"/>
@@ -10870,7 +10874,7 @@
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="40"/>
-      <c r="F180" s="9"/>
+      <c r="F180" s="40"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
@@ -10889,7 +10893,7 @@
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="40"/>
-      <c r="F181" s="9"/>
+      <c r="F181" s="40"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="9"/>
@@ -10908,7 +10912,7 @@
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="40"/>
-      <c r="F182" s="9"/>
+      <c r="F182" s="40"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
       <c r="I182" s="9"/>
@@ -10927,7 +10931,7 @@
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="40"/>
-      <c r="F183" s="9"/>
+      <c r="F183" s="40"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
@@ -10946,7 +10950,7 @@
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="40"/>
-      <c r="F184" s="9"/>
+      <c r="F184" s="40"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
       <c r="I184" s="9"/>
@@ -10965,7 +10969,7 @@
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="40"/>
-      <c r="F185" s="9"/>
+      <c r="F185" s="40"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
       <c r="I185" s="9"/>
@@ -10984,7 +10988,7 @@
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="40"/>
-      <c r="F186" s="9"/>
+      <c r="F186" s="40"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
@@ -11003,7 +11007,7 @@
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="40"/>
-      <c r="F187" s="9"/>
+      <c r="F187" s="40"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
       <c r="I187" s="9"/>
@@ -11022,7 +11026,7 @@
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="40"/>
-      <c r="F188" s="9"/>
+      <c r="F188" s="40"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
@@ -11041,7 +11045,7 @@
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="40"/>
-      <c r="F189" s="9"/>
+      <c r="F189" s="40"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
@@ -11060,7 +11064,7 @@
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="40"/>
-      <c r="F190" s="9"/>
+      <c r="F190" s="40"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
       <c r="I190" s="9"/>
@@ -11079,7 +11083,7 @@
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="40"/>
-      <c r="F191" s="9"/>
+      <c r="F191" s="40"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
@@ -11098,7 +11102,7 @@
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="40"/>
-      <c r="F192" s="9"/>
+      <c r="F192" s="40"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
@@ -11117,7 +11121,7 @@
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="40"/>
-      <c r="F193" s="9"/>
+      <c r="F193" s="40"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
@@ -11136,7 +11140,7 @@
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="40"/>
-      <c r="F194" s="9"/>
+      <c r="F194" s="40"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
       <c r="I194" s="9"/>
@@ -11155,7 +11159,7 @@
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="40"/>
-      <c r="F195" s="9"/>
+      <c r="F195" s="40"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
@@ -11174,7 +11178,7 @@
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="40"/>
-      <c r="F196" s="9"/>
+      <c r="F196" s="40"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="9"/>
@@ -11193,7 +11197,7 @@
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="40"/>
-      <c r="F197" s="9"/>
+      <c r="F197" s="40"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="I197" s="9"/>
@@ -11212,7 +11216,7 @@
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="40"/>
-      <c r="F198" s="9"/>
+      <c r="F198" s="40"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
@@ -11231,7 +11235,7 @@
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="40"/>
-      <c r="F199" s="9"/>
+      <c r="F199" s="40"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="9"/>
@@ -11250,7 +11254,7 @@
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="40"/>
-      <c r="F200" s="9"/>
+      <c r="F200" s="40"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
       <c r="I200" s="9"/>
@@ -11319,10 +11323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11354,19 +11358,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11377,7 +11381,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11398,7 +11402,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11669,7 +11673,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11690,7 +11694,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -15014,10 +15018,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15049,19 +15053,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -15072,7 +15076,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15093,7 +15097,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15646,11 +15650,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15855,7 +15859,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15876,7 +15880,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18631,10 +18635,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18667,19 +18671,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18691,7 +18695,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18713,7 +18717,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22468,10 +22472,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22504,19 +22508,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22528,7 +22532,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22550,7 +22554,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22794,7 +22798,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22816,7 +22820,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26636,10 +26640,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26672,19 +26676,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26696,7 +26700,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26718,7 +26722,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27506,7 +27510,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27528,7 +27532,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A945C-B1B4-A74E-A031-237838F858B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB47A7BF-2270-6F42-9BAA-863E907AB9F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="376">
   <si>
     <t>题号</t>
   </si>
@@ -1045,10 +1045,6 @@
   <si>
     <t xml:space="preserve">
 3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-回溯，board[][],hen,shu,pie</t>
   </si>
   <si>
     <t>递归，每次找到左右子树的长度</t>
@@ -1282,6 +1278,14 @@
   <si>
     <t xml:space="preserve">4.3
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+回溯，HashSet, board[][],hen,shu,pie</t>
   </si>
 </sst>
 </file>
@@ -1636,6 +1640,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1656,12 +1666,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2060,10 +2064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2095,19 +2099,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2118,17 +2122,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2139,15 +2143,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2172,7 +2176,7 @@
         <v>2.14</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
@@ -2209,7 +2213,7 @@
         <v>2.14</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2235,10 +2239,10 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
@@ -2269,16 +2273,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -2307,13 +2311,13 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -2342,10 +2346,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -2377,10 +2381,10 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -2412,10 +2416,10 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -2447,10 +2451,10 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -2481,13 +2485,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -2518,13 +2522,13 @@
         <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" s="43">
         <v>2.16</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -2555,13 +2559,13 @@
         <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2592,13 +2596,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>13</v>
@@ -2655,17 +2659,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2676,15 +2680,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2705,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E22" s="43">
         <v>3.2</v>
@@ -2736,13 +2740,13 @@
         <v>43</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
@@ -2773,13 +2777,13 @@
         <v>45</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -2810,13 +2814,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" s="43">
         <v>3.2</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -2847,13 +2851,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>345</v>
-      </c>
       <c r="F26" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -2884,13 +2888,13 @@
         <v>51</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
@@ -2921,10 +2925,10 @@
         <v>53</v>
       </c>
       <c r="D28" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" s="43" t="s">
         <v>348</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>349</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>13</v>
@@ -3571,10 +3575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3606,19 +3610,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3629,17 +3633,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3650,15 +3654,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4039,7 +4043,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -4060,7 +4064,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4089,7 +4093,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E19" s="34">
         <v>4.0999999999999996</v>
@@ -4120,7 +4124,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E20" s="34">
         <v>4.0999999999999996</v>
@@ -7212,7 +7216,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7230,10 +7234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7265,19 +7269,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7288,7 +7292,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7309,7 +7313,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7335,7 +7339,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="37"/>
@@ -7371,7 +7375,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -7618,14 +7622,14 @@
       <c r="C14" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="61" t="s">
-        <v>373</v>
+      <c r="D14" s="54" t="s">
+        <v>372</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>327</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -7661,8 +7665,8 @@
       <c r="E15" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>13</v>
+      <c r="F15" s="38" t="s">
+        <v>374</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -7693,13 +7697,13 @@
         <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="F16" s="52" t="s">
-        <v>13</v>
+      <c r="F16" s="38" t="s">
+        <v>374</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -7758,7 +7762,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7779,7 +7783,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7813,7 +7817,7 @@
       <c r="E21" s="39">
         <v>3.1</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -7837,12 +7841,12 @@
         <v>108</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E22" s="39">
         <v>3.1</v>
       </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -7871,7 +7875,7 @@
       <c r="E23" s="39">
         <v>3.1</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -7895,12 +7899,12 @@
         <v>112</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" s="39">
         <v>3.1</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -7924,12 +7928,12 @@
         <v>114</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" s="39">
         <v>3.1</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -11323,10 +11327,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11358,19 +11362,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11381,7 +11385,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11402,7 +11406,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11425,13 +11429,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="14">
         <v>3.14</v>
@@ -11461,13 +11465,13 @@
         <v>118</v>
       </c>
       <c r="C6" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>357</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>358</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>13</v>
@@ -11495,16 +11499,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="47" t="s">
         <v>361</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>362</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>13</v>
@@ -11569,7 +11573,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>121</v>
@@ -11604,7 +11608,7 @@
         <v>367</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>122</v>
@@ -11673,7 +11677,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11694,7 +11698,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -15018,10 +15022,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15053,19 +15057,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -15076,7 +15080,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15097,7 +15101,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15650,11 +15654,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15859,7 +15863,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15880,7 +15884,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18635,10 +18639,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18671,19 +18675,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18695,7 +18699,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18717,7 +18721,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22472,10 +22476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22508,19 +22512,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22532,7 +22536,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22554,7 +22558,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22798,7 +22802,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22820,7 +22824,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26640,10 +26644,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26676,19 +26680,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26700,7 +26704,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26722,7 +26726,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27510,7 +27514,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27532,7 +27536,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB47A7BF-2270-6F42-9BAA-863E907AB9F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D24E06-8B15-374C-A37F-8B528BE3186C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="378">
   <si>
     <t>题号</t>
   </si>
@@ -1286,6 +1286,14 @@
   <si>
     <t xml:space="preserve">
 回溯，HashSet, board[][],hen,shu,pie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack或双指针
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12
+</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1615,9 +1623,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2044,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2064,10 +2069,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2082,7 @@
       <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2099,19 +2104,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2122,17 +2127,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2143,15 +2148,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2278,7 +2283,7 @@
       <c r="E8" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>349</v>
       </c>
       <c r="G8" s="34" t="s">
@@ -2659,17 +2664,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2680,15 +2685,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2930,7 +2935,7 @@
       <c r="E28" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="51" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -2951,7 +2956,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>42</v>
       </c>
@@ -2962,12 +2967,12 @@
         <v>55</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="51" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -3555,7 +3560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3575,10 +3580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3610,19 +3615,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3633,17 +3638,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3654,15 +3659,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4043,7 +4048,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -4064,7 +4069,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7215,8 +7220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7234,10 +7239,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7247,7 +7252,7 @@
       <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -7269,19 +7274,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7292,7 +7297,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7313,7 +7318,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7338,12 +7343,12 @@
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>351</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="37"/>
-      <c r="F5" s="52"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -7622,7 +7627,7 @@
       <c r="C14" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>372</v>
       </c>
       <c r="E14" s="38" t="s">
@@ -7762,7 +7767,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7783,7 +7788,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7817,7 +7822,7 @@
       <c r="E21" s="39">
         <v>3.1</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -7846,7 +7851,7 @@
       <c r="E22" s="39">
         <v>3.1</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -7875,7 +7880,7 @@
       <c r="E23" s="39">
         <v>3.1</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -7904,7 +7909,7 @@
       <c r="E24" s="39">
         <v>3.1</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -7933,7 +7938,7 @@
       <c r="E25" s="39">
         <v>3.1</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -11327,10 +11332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11362,19 +11367,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11385,7 +11390,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11406,7 +11411,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11428,7 +11433,7 @@
       <c r="A5" s="5">
         <v>102</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>352</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -11464,13 +11469,13 @@
       <c r="B6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>356</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>357</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -11498,7 +11503,7 @@
       <c r="A7" s="5">
         <v>22</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>359</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -11507,7 +11512,7 @@
       <c r="D7" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>361</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -11572,7 +11577,7 @@
       <c r="A9" s="10">
         <v>69</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>354</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -11607,7 +11612,7 @@
       <c r="A10" s="10">
         <v>367</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>353</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -11677,7 +11682,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11698,7 +11703,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -15004,7 +15009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15022,10 +15029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15057,19 +15064,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -15080,7 +15087,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15101,7 +15108,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15654,11 +15661,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15863,7 +15870,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15884,7 +15891,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18623,7 +18630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18639,10 +18648,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18675,19 +18684,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18699,7 +18708,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18721,7 +18730,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22458,7 +22467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22476,10 +22487,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22512,19 +22523,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22536,7 +22547,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22558,7 +22569,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22802,7 +22813,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22824,7 +22835,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26644,10 +26655,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26680,19 +26691,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26704,7 +26715,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26726,7 +26737,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27514,7 +27525,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27536,7 +27547,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D24E06-8B15-374C-A37F-8B528BE3186C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D030129-BF7C-9C48-BE08-DD61362CC65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7221,7 +7221,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7822,7 +7822,9 @@
       <c r="E21" s="39">
         <v>3.1</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="54">
+        <v>4.13</v>
+      </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D030129-BF7C-9C48-BE08-DD61362CC65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6714FB-D49D-7B41-9808-2463B9F1FF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7822,7 +7822,7 @@
       <c r="E21" s="39">
         <v>3.1</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="39">
         <v>4.13</v>
       </c>
       <c r="G21" s="19"/>
@@ -7853,7 +7853,9 @@
       <c r="E22" s="39">
         <v>3.1</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="39">
+        <v>4.13</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6714FB-D49D-7B41-9808-2463B9F1FF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C1FB5-59BC-B643-A8A7-6B2E5320C189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7221,7 +7221,7 @@
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7884,7 +7884,9 @@
       <c r="E23" s="39">
         <v>3.1</v>
       </c>
-      <c r="F23" s="54"/>
+      <c r="F23" s="39">
+        <v>4.13</v>
+      </c>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -7913,7 +7915,9 @@
       <c r="E24" s="39">
         <v>3.1</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="39">
+        <v>4.13</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C1FB5-59BC-B643-A8A7-6B2E5320C189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD35E3A-037E-9145-9241-0C074B2300C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="379">
   <si>
     <t>题号</t>
   </si>
@@ -1294,6 +1294,10 @@
   <si>
     <t xml:space="preserve">4.12
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.14</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1647,9 +1651,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2069,10 +2070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2104,19 +2105,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2127,17 +2128,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2148,15 +2149,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2664,17 +2665,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2685,15 +2686,15 @@
       <c r="Q20" s="4"/>
     </row>
     <row r="21" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -3580,10 +3581,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3615,19 +3616,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3638,17 +3639,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3659,15 +3660,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -4048,7 +4049,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -4069,7 +4070,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7220,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="C9" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7239,10 +7240,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7274,19 +7275,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7297,7 +7298,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7318,7 +7319,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7767,7 +7768,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -7788,7 +7789,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7946,7 +7947,9 @@
       <c r="E25" s="39">
         <v>3.1</v>
       </c>
-      <c r="F25" s="54"/>
+      <c r="F25" s="39">
+        <v>4.13</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -11321,8 +11324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11340,10 +11343,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11375,19 +11378,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11398,7 +11401,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11419,7 +11422,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11453,7 +11456,9 @@
       <c r="E5" s="14">
         <v>3.14</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="34">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -11486,8 +11491,8 @@
       <c r="E6" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
+      <c r="F6" s="34" t="s">
+        <v>378</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -11690,7 +11695,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11711,7 +11716,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -15037,10 +15042,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15072,19 +15077,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -15095,7 +15100,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15116,7 +15121,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15669,11 +15674,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -15878,7 +15883,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="54" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -15899,7 +15904,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -18656,10 +18661,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18692,19 +18697,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -18716,7 +18721,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -18738,7 +18743,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22495,10 +22500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22531,19 +22536,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22555,7 +22560,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22577,7 +22582,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22821,7 +22826,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -22843,7 +22848,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -26663,10 +26668,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -26699,19 +26704,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -26723,7 +26728,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -26745,7 +26750,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27533,7 +27538,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="60" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27555,7 +27560,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD35E3A-037E-9145-9241-0C074B2300C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC714EE-A138-D846-A293-E3D3CC573065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="380">
   <si>
     <t>题号</t>
   </si>
@@ -1298,6 +1298,10 @@
   <si>
     <t xml:space="preserve">
 4.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.15</t>
   </si>
 </sst>
 </file>
@@ -11325,7 +11329,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11528,8 +11532,8 @@
       <c r="E7" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
+      <c r="F7" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC714EE-A138-D846-A293-E3D3CC573065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24A2F9-08C3-0F4F-AAC1-942275374F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="381">
   <si>
     <t>题号</t>
   </si>
@@ -1302,6 +1302,10 @@
   <si>
     <t xml:space="preserve">
 4.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15
+</t>
   </si>
 </sst>
 </file>
@@ -11329,7 +11333,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11566,8 +11570,8 @@
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
+      <c r="E8" s="34" t="s">
+        <v>380</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F24A2F9-08C3-0F4F-AAC1-942275374F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D27C7-C861-B442-9BBD-31690D647F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11333,7 +11333,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11605,8 +11605,8 @@
         <v>121</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
+      <c r="E9" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D27C7-C861-B442-9BBD-31690D647F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9F300-1611-9D48-BAEB-78DDC8DAFB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11333,7 +11333,7 @@
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11640,8 +11640,8 @@
         <v>122</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
+      <c r="E10" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9F300-1611-9D48-BAEB-78DDC8DAFB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC9750-8315-5E4A-83D0-D55ECA71C910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="389">
   <si>
     <t>题号</t>
   </si>
@@ -1305,6 +1305,37 @@
   </si>
   <si>
     <t xml:space="preserve">4.15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfs
+</t>
+  </si>
+  <si>
+    <t>二分查找，牛顿迭代</t>
+  </si>
+  <si>
+    <t>二分查的，年顿迭代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+贪心算法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心算法+排序
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+贪心算法,关键代码：1.遇到obstacle要break;
+      2.将obsbacle转换成set效率更高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双向BFS
 </t>
   </si>
 </sst>
@@ -11332,8 +11363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11341,7 +11372,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" customWidth="1"/>
     <col min="6" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" customWidth="1"/>
@@ -11568,7 +11599,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>380</v>
@@ -11604,7 +11635,9 @@
       <c r="C9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>382</v>
+      </c>
       <c r="E9" s="34" t="s">
         <v>379</v>
       </c>
@@ -11639,7 +11672,9 @@
       <c r="C10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="E10" s="34" t="s">
         <v>379</v>
       </c>
@@ -11753,10 +11788,10 @@
         <v>124</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>13</v>
+        <v>384</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>385</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>13</v>
@@ -11790,10 +11825,10 @@
         <v>126</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>13</v>
+        <v>384</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>385</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -11827,10 +11862,10 @@
         <v>128</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>13</v>
+        <v>386</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>385</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>13</v>
@@ -11853,7 +11888,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>874</v>
       </c>
@@ -11864,10 +11899,10 @@
         <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>13</v>
+        <v>387</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>385</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>13</v>
@@ -11901,10 +11936,10 @@
         <v>132</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>13</v>
+        <v>388</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>385</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC9750-8315-5E4A-83D0-D55ECA71C910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1082E-E73C-5E40-BB32-9A5936F2E02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="391">
   <si>
     <t>题号</t>
   </si>
@@ -1336,6 +1336,14 @@
   </si>
   <si>
     <t xml:space="preserve">双向BFS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+贪心+dfs(把1周围的岛屿改为0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16
 </t>
   </si>
 </sst>
@@ -11363,8 +11371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11973,10 +11981,10 @@
         <v>134</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>13</v>
+        <v>389</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>390</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="399">
   <si>
     <t>题号</t>
   </si>
@@ -1371,6 +1371,22 @@
   </si>
   <si>
     <t>二分查找，确保mid和target在同一侧</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找：关键代码
+         （ if (mid &gt;= 1 &amp;&amp; nums[mid] &lt;   nums[mid - 1]) {
+                return nums[mid];
+            }）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -11398,8 +11414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11407,7 +11423,7 @@
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="4" max="4" width="45.08984375" customWidth="1"/>
     <col min="5" max="5" width="6.1796875" customWidth="1"/>
     <col min="6" max="7" width="5.453125" customWidth="1"/>
     <col min="8" max="8" width="5.1796875" customWidth="1"/>
@@ -12155,9 +12171,11 @@
       <c r="C24" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>13</v>
+      <c r="D24" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>397</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
@@ -12180,7 +12198,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>153</v>
       </c>
@@ -12190,7 +12208,9 @@
       <c r="C25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>398</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
@@ -15089,9 +15109,9 @@
     <hyperlink ref="C22" r:id="rId14"/>
     <hyperlink ref="C23" r:id="rId15"/>
     <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C27" r:id="rId17"/>
     <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="403">
   <si>
     <t>题号</t>
   </si>
@@ -1389,12 +1389,60 @@
             }）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+4.17</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">bfs,关键代码 Deque&lt;Deque&lt;String&gt;&gt; queue
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>贪心算法，关键代码：
+for(int i=0;i&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.length-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;i++){
+            max = Math.max(max,i+nums[i]);
+            if(i==end){
+                end = max;
+                count++;
+            }
+        }</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="等线"/>
@@ -1471,6 +1519,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -11414,8 +11470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12211,8 +12267,8 @@
       <c r="D25" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>13</v>
+      <c r="E25" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>13</v>
@@ -12246,10 +12302,10 @@
         <v>144</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>13</v>
+        <v>400</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>401</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
@@ -12272,7 +12328,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>45</v>
       </c>
@@ -12283,10 +12339,10 @@
         <v>146</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>13</v>
+        <v>402</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>401</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF04BD-F4CE-AD45-9189-B3DEE297BEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C22A623-20DD-9E43-85C2-9F7547D69969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="406">
   <si>
     <t>题号</t>
   </si>
@@ -1446,6 +1446,13 @@
                     dp[i][j] = 0;
                 } else {
                     dp[i][j] = dp[i - 1][j] + dp[i][j - 1];
+                }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if(text1.charAt(i)==text2.charAt(j)){
+                    dp[i][j] = dp[i-1][j-1]+1;
+                }else{
+                    dp[i][j] = Math.max(dp[i-1][j],dp[i][j-1]);
                 }</t>
   </si>
 </sst>
@@ -15193,7 +15200,7 @@
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15369,7 +15376,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>1143</v>
       </c>
@@ -15379,8 +15386,12 @@
       <c r="C7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="34">
+        <v>4.21</v>
+      </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C22A623-20DD-9E43-85C2-9F7547D69969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F473DC5-97DD-2344-9DA7-7B8FD1D54073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="408">
   <si>
     <t>题号</t>
   </si>
@@ -1454,6 +1454,14 @@
                 }else{
                     dp[i][j] = Math.max(dp[i-1][j],dp[i][j-1]);
                 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp[i] = dp[i-1] + dp[i-2]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.21</t>
   </si>
 </sst>
 </file>
@@ -15200,7 +15208,7 @@
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15416,10 +15424,10 @@
         <v>155</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
+        <v>406</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>407</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F473DC5-97DD-2344-9DA7-7B8FD1D54073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79130AC3-D144-4545-963D-50040BD25003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="409">
   <si>
     <t>题号</t>
   </si>
@@ -1462,6 +1462,10 @@
   <si>
     <t xml:space="preserve">
 4.21</t>
+  </si>
+  <si>
+    <t>从下往上dp
+ dp[i][j] = Math.min(dp[i+1][j],dp[i+1][j+1]) + triangle.get(i).get(j)</t>
   </si>
 </sst>
 </file>
@@ -15207,8 +15211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15216,7 +15220,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
@@ -15450,7 +15454,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>120</v>
       </c>
@@ -15461,10 +15465,10 @@
         <v>157</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
+        <v>408</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>407</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79130AC3-D144-4545-963D-50040BD25003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F743FB6-8209-6949-945B-B7AECC872DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="410">
   <si>
     <t>题号</t>
   </si>
@@ -1466,6 +1466,11 @@
   <si>
     <t>从下往上dp
  dp[i][j] = Math.min(dp[i+1][j],dp[i+1][j+1]) + triangle.get(i).get(j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dp[i] = Math.max(dp[i-1],0)+nums[i-1];
+            max = Math.max(dp[i],max);
+</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1851,6 +1856,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15212,7 +15220,7 @@
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15221,7 +15229,7 @@
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
     <col min="4" max="4" width="55" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
     <col min="8" max="8" width="4.5" customWidth="1"/>
@@ -15491,7 +15499,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>53</v>
       </c>
@@ -15502,10 +15510,10 @@
         <v>159</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
+        <v>409</v>
+      </c>
+      <c r="E10" s="62">
+        <v>4.21</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F743FB6-8209-6949-945B-B7AECC872DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5FBD78-B76D-8641-A52E-B7C685359CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="414">
   <si>
     <t>题号</t>
   </si>
@@ -1470,6 +1470,29 @@
   <si>
     <t xml:space="preserve"> dp[i] = Math.max(dp[i-1],0)+nums[i-1];
             max = Math.max(dp[i],max);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dpMax[i] = Math.max(Math.max(dpMax[i - 1]*nums[i], nums[i]), dpMin[i - 1] * nums[i]);
+            dpMin[i] = Math.min(Math.min(dpMax[i - 1]*nums[i], nums[i]), dpMin[i - 1] * nums[i]);
+            max = Math.max(dpMax[i],max);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dp[i] = Math.min(dp[i-coins[j]]+1,dp[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        int[][] dp = new int[nums.length][2];
+        dp[0][0] = 0;
+        dp[0][1] = nums[0];
+        for(int i=1;i&lt;nums.length;i++){
+            dp[i][1] = dp[i-1][0]+nums[i];
+            dp[i][0] = Math.max(dp[i-1][0],dp[i-1][1]);
+        }
+        return Math.max(dp[nums.length-1][1],dp[nums.length-1][0]);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21
 </t>
   </si>
 </sst>
@@ -15219,8 +15242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15536,7 +15559,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>152</v>
       </c>
@@ -15546,8 +15569,12 @@
       <c r="C11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" s="34">
+        <v>4.21</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -15571,8 +15598,12 @@
       <c r="C12" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" s="61">
+        <v>4.21</v>
+      </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -15586,7 +15617,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>198</v>
       </c>
@@ -15597,10 +15628,10 @@
         <v>165</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>13</v>
+        <v>412</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5FBD78-B76D-8641-A52E-B7C685359CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87BD2D0-8C82-514E-AE1E-F0B05EDD932B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="415">
   <si>
     <t>题号</t>
   </si>
@@ -1493,6 +1493,10 @@
   </si>
   <si>
     <t xml:space="preserve">4.21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">思路同上，折分成0到n-2   和   1到n-1两种情况
 </t>
   </si>
 </sst>
@@ -15242,8 +15246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15665,10 +15669,10 @@
         <v>167</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>13</v>
+        <v>414</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89688D-B7C3-D74B-B498-B9C9D6D0257C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316EE342-9121-A540-8202-79CBD52BF1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="421">
   <si>
     <t>题号</t>
   </si>
@@ -1512,7 +1512,7 @@
   <si>
     <r>
       <t xml:space="preserve">
-	                 dp[i][0] = max(dp[i-1][0], dp[i-1][1]+prices[i])
+	              dp[i][0] = max(dp[i-1][0], dp[i-1][1]+prices[i])
 		</t>
     </r>
     <r>
@@ -1523,6 +1523,27 @@
       </rPr>
       <t>dp[i][1] = max(dp[i-1][1], dp[i-1][0]-prices[i])  //注意这里和上一题的区别</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iii/solution/tong-su-yi-dong-de-dong-tai-gui-hua-jie-fa-by-marc/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dp[i][0],第i天持有股票时的最大收益
+dp[i][1],第i天不持有股票，在冰冻期的最大收益
+dp[i][2],第i天不持有股票，不在冰冻期的最大收益
+  dp[i][0] = Math.max(dp[i-1][0],dp[i-1][2]-prices[i]);
+  dp[i][1] = dp[i-1][0]+prices[i];
+  dp[i][2] = Math.max(dp[i-1][2],dp[i-1][1]);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23
+</t>
   </si>
 </sst>
 </file>
@@ -15276,8 +15297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -15285,7 +15306,7 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
@@ -15775,8 +15796,8 @@
       <c r="D16" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>13</v>
+      <c r="E16" s="34" t="s">
+        <v>407</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -15799,7 +15820,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="26" customHeight="1">
+    <row r="17" spans="1:17" ht="63" customHeight="1">
       <c r="A17" s="11">
         <v>123</v>
       </c>
@@ -15809,11 +15830,11 @@
       <c r="C17" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>13</v>
+      <c r="D17" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>13</v>
@@ -15836,7 +15857,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="26" customHeight="1">
+    <row r="18" spans="1:17" ht="142" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15847,10 +15868,10 @@
         <v>174</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>13</v>
+        <v>419</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>420</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>13</v>
@@ -18908,6 +18929,7 @@
     <hyperlink ref="C41" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
     <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
     <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="D17" r:id="rId35" xr:uid="{9E22CDD6-25E3-8345-A41E-B2A0E18E0CB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316EE342-9121-A540-8202-79CBD52BF1EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FEAA1D-F96C-AD46-A144-97FE989CBD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="423">
   <si>
     <t>题号</t>
   </si>
@@ -1543,6 +1543,17 @@
   </si>
   <si>
     <t xml:space="preserve">4.23
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-iv/solution/javayi-ge-si-lu-da-bao-suo-you-gu-piao-t-pd1p/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     dp[i][0]，第i天不持有股票
+     dp[i][1], 第i天持有股票
+     dp[i][0] = max(dp[i-1][0],dp[i-1][1]+price[i]-fee)
+     dp[i][1] = max(dp[i-1][1],dp[i-1][0]-price[i])
 </t>
   </si>
 </sst>
@@ -15298,7 +15309,7 @@
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -15857,7 +15868,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="142" customHeight="1">
+    <row r="18" spans="1:17" ht="106" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15894,7 +15905,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="101" customHeight="1">
       <c r="A19" s="11">
         <v>188</v>
       </c>
@@ -15904,11 +15915,11 @@
       <c r="C19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>13</v>
+      <c r="D19" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>420</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>13</v>
@@ -15931,7 +15942,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="96" customHeight="1">
       <c r="A20" s="5">
         <v>714</v>
       </c>
@@ -15942,10 +15953,10 @@
         <v>178</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>13</v>
+        <v>422</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>13</v>
@@ -18930,6 +18941,7 @@
     <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
     <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
     <hyperlink ref="D17" r:id="rId35" xr:uid="{9E22CDD6-25E3-8345-A41E-B2A0E18E0CB7}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{F496410A-B4E9-FC4F-AF29-40D0D55E2C73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间-算法训练营\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FEAA1D-F96C-AD46-A144-97FE989CBD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="424">
   <si>
     <t>题号</t>
   </si>
@@ -1102,7 +1101,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1128,7 +1127,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1155,7 +1154,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1191,7 +1190,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1414,7 +1413,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1424,7 +1423,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1556,22 +1555,26 @@
      dp[i][1] = max(dp[i-1][1],dp[i-1][0]-price[i])
 </t>
   </si>
+  <si>
+    <t>trie树模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1579,26 +1582,26 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1606,13 +1609,13 @@
       <u/>
       <sz val="9"/>
       <color indexed="30"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1621,14 +1624,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1636,14 +1639,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1922,6 +1925,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1943,16 +1952,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1982,7 +1985,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,33 +2326,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2380,20 +2383,20 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="32" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:17" ht="31.95" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2404,17 +2407,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -2424,16 +2427,16 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="22" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+    <row r="4" spans="1:17" ht="22.05" customHeight="1">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2544,7 +2547,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="46" customHeight="1">
+    <row r="8" spans="1:17" ht="46.05" customHeight="1">
       <c r="A8" s="5">
         <v>15</v>
       </c>
@@ -2581,7 +2584,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="61" customHeight="1">
+    <row r="9" spans="1:17" ht="61.05" customHeight="1">
       <c r="A9" s="10">
         <v>206</v>
       </c>
@@ -2616,7 +2619,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="44" customHeight="1">
+    <row r="10" spans="1:17" ht="43.95" customHeight="1">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -2651,7 +2654,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="43" customHeight="1">
+    <row r="11" spans="1:17" ht="43.05" customHeight="1">
       <c r="A11" s="10">
         <v>141</v>
       </c>
@@ -2721,7 +2724,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="43" customHeight="1">
+    <row r="13" spans="1:17" ht="43.05" customHeight="1">
       <c r="A13" s="11">
         <v>25</v>
       </c>
@@ -2756,7 +2759,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="40" customHeight="1">
+    <row r="14" spans="1:17" ht="40.049999999999997" customHeight="1">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="46" customHeight="1">
+    <row r="15" spans="1:17" ht="46.05" customHeight="1">
       <c r="A15" s="10">
         <v>155</v>
       </c>
@@ -2941,17 +2944,17 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2961,16 +2964,16 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="22" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
+    <row r="21" spans="1:17" ht="22.05" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2980,7 +2983,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="26" customHeight="1">
+    <row r="22" spans="1:17" ht="25.95" customHeight="1">
       <c r="A22" s="10">
         <v>26</v>
       </c>
@@ -3048,7 +3051,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="26" customHeight="1">
+    <row r="24" spans="1:17" ht="25.95" customHeight="1">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3159,7 +3162,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="61.25" customHeight="1">
+    <row r="27" spans="1:17" ht="61.2" customHeight="1">
       <c r="A27" s="10">
         <v>66</v>
       </c>
@@ -3196,7 +3199,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="61.25" customHeight="1">
+    <row r="28" spans="1:17" ht="61.2" customHeight="1">
       <c r="A28" s="5">
         <v>641</v>
       </c>
@@ -3233,7 +3236,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="50" customHeight="1">
+    <row r="29" spans="1:17" ht="49.95" customHeight="1">
       <c r="A29" s="11">
         <v>42</v>
       </c>
@@ -3804,28 +3807,28 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C29" r:id="rId21"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -3834,33 +3837,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3892,19 +3895,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -3915,17 +3918,17 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -3936,15 +3939,15 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -3954,7 +3957,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="10">
         <v>242</v>
       </c>
@@ -4053,7 +4056,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="5">
         <v>94</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="26" customHeight="1">
+    <row r="9" spans="1:17" ht="25.95" customHeight="1">
       <c r="A9" s="5">
         <v>144</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1">
+    <row r="10" spans="1:17" ht="25.95" customHeight="1">
       <c r="A10" s="10">
         <v>590</v>
       </c>
@@ -4152,7 +4155,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="26" customHeight="1">
+    <row r="11" spans="1:17" ht="25.95" customHeight="1">
       <c r="A11" s="10">
         <v>589</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="26" customHeight="1">
+    <row r="12" spans="1:17" ht="25.95" customHeight="1">
       <c r="A12" s="5">
         <v>429</v>
       </c>
@@ -4249,7 +4252,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    <row r="14" spans="1:17" ht="25.95" customHeight="1">
       <c r="A14" s="11">
         <v>239</v>
       </c>
@@ -4325,7 +4328,7 @@
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="24" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="4"/>
@@ -4346,7 +4349,7 @@
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -4364,7 +4367,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="25.95" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -4395,7 +4398,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="25.95" customHeight="1">
       <c r="A20" s="5">
         <v>347</v>
       </c>
@@ -7475,18 +7478,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -7494,32 +7497,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView topLeftCell="C9" zoomScale="125" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="58.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="9" width="5.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7550,20 +7553,20 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="37" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:17" ht="37.049999999999997" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -7574,7 +7577,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -7595,7 +7598,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -7613,7 +7616,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="10">
         <v>70</v>
       </c>
@@ -7640,7 +7643,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="26" customHeight="1">
+    <row r="6" spans="1:17" ht="25.95" customHeight="1">
       <c r="A6" s="5">
         <v>22</v>
       </c>
@@ -7931,7 +7934,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="71" customHeight="1">
+    <row r="15" spans="1:17" ht="70.95" customHeight="1">
       <c r="A15" s="5">
         <v>17</v>
       </c>
@@ -8044,7 +8047,7 @@
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="4"/>
@@ -8065,7 +8068,7 @@
       <c r="Q19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -11573,23 +11576,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -11597,32 +11600,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11654,19 +11657,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="48" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -11677,7 +11680,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -11698,7 +11701,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11716,7 +11719,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="5">
         <v>102</v>
       </c>
@@ -11751,7 +11754,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="56.5" customHeight="1">
+    <row r="6" spans="1:17" ht="56.55" customHeight="1">
       <c r="A6" s="5">
         <v>433</v>
       </c>
@@ -11788,7 +11791,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.25" customHeight="1">
+    <row r="7" spans="1:17" ht="73.2" customHeight="1">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -11825,7 +11828,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="5">
         <v>515</v>
       </c>
@@ -11899,7 +11902,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1">
+    <row r="10" spans="1:17" ht="25.95" customHeight="1">
       <c r="A10" s="10">
         <v>367</v>
       </c>
@@ -11975,7 +11978,7 @@
       <c r="Q12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="24" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="4"/>
@@ -11996,7 +11999,7 @@
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="24" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -12014,7 +12017,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="26" customHeight="1">
+    <row r="15" spans="1:17" ht="25.95" customHeight="1">
       <c r="A15" s="10">
         <v>860</v>
       </c>
@@ -12051,7 +12054,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="26" customHeight="1">
+    <row r="16" spans="1:17" ht="25.95" customHeight="1">
       <c r="A16" s="10">
         <v>122</v>
       </c>
@@ -12088,7 +12091,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="26" customHeight="1">
+    <row r="17" spans="1:17" ht="25.95" customHeight="1">
       <c r="A17" s="10">
         <v>455</v>
       </c>
@@ -12125,7 +12128,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="61" customHeight="1">
+    <row r="18" spans="1:17" ht="61.05" customHeight="1">
       <c r="A18" s="10">
         <v>874</v>
       </c>
@@ -12162,7 +12165,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="25.95" customHeight="1">
       <c r="A19" s="5">
         <v>127</v>
       </c>
@@ -12199,7 +12202,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="25.95" customHeight="1">
       <c r="A20" s="5">
         <v>200</v>
       </c>
@@ -12236,7 +12239,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="26" customHeight="1">
+    <row r="21" spans="1:17" ht="25.95" customHeight="1">
       <c r="A21" s="5">
         <v>529</v>
       </c>
@@ -12310,7 +12313,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="26" customHeight="1">
+    <row r="23" spans="1:17" ht="25.95" customHeight="1">
       <c r="A23" s="5">
         <v>33</v>
       </c>
@@ -12347,7 +12350,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="26" customHeight="1">
+    <row r="24" spans="1:17" ht="25.95" customHeight="1">
       <c r="A24" s="5">
         <v>74</v>
       </c>
@@ -12421,7 +12424,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="26" customHeight="1">
+    <row r="26" spans="1:17" ht="25.95" customHeight="1">
       <c r="A26" s="11">
         <v>126</v>
       </c>
@@ -12458,7 +12461,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="112.25" customHeight="1">
+    <row r="27" spans="1:17" ht="112.2" customHeight="1">
       <c r="A27" s="11">
         <v>45</v>
       </c>
@@ -15279,25 +15282,25 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="/description" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" location="/description" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" location="/description" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId1" location="/description"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description"/>
+    <hyperlink ref="C7" r:id="rId3" location="/description"/>
+    <hyperlink ref="C8" r:id="rId4" location="/description"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C27" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15305,33 +15308,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="62.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15363,19 +15366,19 @@
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -15386,7 +15389,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -15407,7 +15410,7 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15469,7 +15472,7 @@
       <c r="D6" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="54">
         <v>4.1900000000000004</v>
       </c>
       <c r="F6" s="19"/>
@@ -15485,7 +15488,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73" customHeight="1">
+    <row r="7" spans="1:17" ht="73.05" customHeight="1">
       <c r="A7" s="5">
         <v>1143</v>
       </c>
@@ -15514,7 +15517,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="10">
         <v>70</v>
       </c>
@@ -15588,7 +15591,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="85" customHeight="1">
+    <row r="10" spans="1:17" ht="85.05" customHeight="1">
       <c r="A10" s="10">
         <v>53</v>
       </c>
@@ -15601,7 +15604,7 @@
       <c r="D10" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="55">
         <v>4.21</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -15654,7 +15657,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="26" customHeight="1">
+    <row r="12" spans="1:17" ht="25.95" customHeight="1">
       <c r="A12" s="22">
         <v>322</v>
       </c>
@@ -15667,7 +15670,7 @@
       <c r="D12" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="54">
         <v>4.21</v>
       </c>
       <c r="F12" s="19"/>
@@ -15683,7 +15686,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="128" customHeight="1">
+    <row r="13" spans="1:17" ht="127.95" customHeight="1">
       <c r="A13" s="10">
         <v>198</v>
       </c>
@@ -15720,7 +15723,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    <row r="14" spans="1:17" ht="25.95" customHeight="1">
       <c r="A14" s="5">
         <v>213</v>
       </c>
@@ -15757,7 +15760,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="146" customHeight="1">
+    <row r="15" spans="1:17" ht="145.94999999999999" customHeight="1">
       <c r="A15" s="10">
         <v>121</v>
       </c>
@@ -15868,7 +15871,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="106" customHeight="1">
+    <row r="18" spans="1:17" ht="106.05" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15905,7 +15908,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="101" customHeight="1">
+    <row r="19" spans="1:17" ht="100.95" customHeight="1">
       <c r="A19" s="11">
         <v>188</v>
       </c>
@@ -15980,11 +15983,11 @@
       <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -16000,7 +16003,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="26" customHeight="1">
+    <row r="22" spans="1:17" ht="25.95" customHeight="1">
       <c r="A22" s="22">
         <v>279</v>
       </c>
@@ -16025,7 +16028,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="26" customHeight="1">
+    <row r="23" spans="1:17" ht="25.95" customHeight="1">
       <c r="A23" s="21">
         <v>72</v>
       </c>
@@ -16075,7 +16078,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="26" customHeight="1">
+    <row r="25" spans="1:17" ht="25.95" customHeight="1">
       <c r="A25" s="21">
         <v>45</v>
       </c>
@@ -16100,7 +16103,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="26" customHeight="1">
+    <row r="26" spans="1:17" ht="25.95" customHeight="1">
       <c r="A26" s="21">
         <v>980</v>
       </c>
@@ -16125,7 +16128,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="26" customHeight="1">
+    <row r="27" spans="1:17" ht="25.95" customHeight="1">
       <c r="A27" s="22">
         <v>518</v>
       </c>
@@ -16189,7 +16192,7 @@
       <c r="Q29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="56" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="4"/>
@@ -16210,7 +16213,7 @@
       <c r="Q30" s="4"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -16228,7 +16231,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="26" customHeight="1">
+    <row r="32" spans="1:17" ht="25.95" customHeight="1">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -16302,7 +16305,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" ht="26" customHeight="1">
+    <row r="34" spans="1:17" ht="25.95" customHeight="1">
       <c r="A34" s="5">
         <v>221</v>
       </c>
@@ -16339,7 +16342,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="26" customHeight="1">
+    <row r="35" spans="1:17" ht="25.95" customHeight="1">
       <c r="A35" s="5">
         <v>621</v>
       </c>
@@ -16376,7 +16379,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="26" customHeight="1">
+    <row r="36" spans="1:17" ht="25.95" customHeight="1">
       <c r="A36" s="5">
         <v>647</v>
       </c>
@@ -16413,7 +16416,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" ht="26" customHeight="1">
+    <row r="37" spans="1:17" ht="25.95" customHeight="1">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -16450,7 +16453,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="26" customHeight="1">
+    <row r="38" spans="1:17" ht="25.95" customHeight="1">
       <c r="A38" s="11">
         <v>363</v>
       </c>
@@ -16524,7 +16527,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="26" customHeight="1">
+    <row r="40" spans="1:17" ht="25.95" customHeight="1">
       <c r="A40" s="11">
         <v>410</v>
       </c>
@@ -16561,7 +16564,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="26" customHeight="1">
+    <row r="41" spans="1:17" ht="25.95" customHeight="1">
       <c r="A41" s="11">
         <v>552</v>
       </c>
@@ -16598,7 +16601,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="26" customHeight="1">
+    <row r="42" spans="1:17" ht="25.95" customHeight="1">
       <c r="A42" s="11">
         <v>76</v>
       </c>
@@ -16635,7 +16638,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="26" customHeight="1">
+    <row r="43" spans="1:17" ht="25.95" customHeight="1">
       <c r="A43" s="11">
         <v>312</v>
       </c>
@@ -18906,73 +18909,73 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" location="/description" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="C34" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="C36" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="C37" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="C38" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="C39" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="C40" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="C41" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
-    <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="D17" r:id="rId35" xr:uid="{9E22CDD6-25E3-8345-A41E-B2A0E18E0CB7}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{F496410A-B4E9-FC4F-AF29-40D0D55E2C73}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11" location="/description"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C23" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId20"/>
+    <hyperlink ref="C26" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C32" r:id="rId23"/>
+    <hyperlink ref="C33" r:id="rId24"/>
+    <hyperlink ref="C34" r:id="rId25"/>
+    <hyperlink ref="C35" r:id="rId26"/>
+    <hyperlink ref="C36" r:id="rId27"/>
+    <hyperlink ref="C37" r:id="rId28"/>
+    <hyperlink ref="C38" r:id="rId29"/>
+    <hyperlink ref="C39" r:id="rId30"/>
+    <hyperlink ref="C40" r:id="rId31"/>
+    <hyperlink ref="C41" r:id="rId32"/>
+    <hyperlink ref="C42" r:id="rId33"/>
+    <hyperlink ref="C43" r:id="rId34"/>
+    <hyperlink ref="D17" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
-    <col min="6" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" customWidth="1"/>
+    <col min="6" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -19005,19 +19008,19 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -19029,7 +19032,7 @@
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -19051,7 +19054,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -19070,7 +19073,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="22">
         <v>208</v>
       </c>
@@ -19080,8 +19083,12 @@
       <c r="C5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="23">
+        <v>4.25</v>
+      </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -19150,7 +19157,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="22">
         <v>200</v>
       </c>
@@ -19176,7 +19183,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="22">
         <v>130</v>
       </c>
@@ -19228,7 +19235,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="26" customHeight="1">
+    <row r="11" spans="1:18" ht="25.95" customHeight="1">
       <c r="A11" s="22">
         <v>22</v>
       </c>
@@ -19358,7 +19365,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26" customHeight="1">
+    <row r="16" spans="1:18" ht="25.95" customHeight="1">
       <c r="A16" s="22">
         <v>433</v>
       </c>
@@ -19384,7 +19391,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="22">
         <v>1091</v>
       </c>
@@ -22765,53 +22772,54 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6328125" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -22844,19 +22852,19 @@
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -22868,7 +22876,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -22890,7 +22898,7 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -22909,7 +22917,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="24">
         <v>191</v>
       </c>
@@ -22937,7 +22945,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="26" customHeight="1">
+    <row r="6" spans="1:18" ht="25.95" customHeight="1">
       <c r="A6" s="24">
         <v>231</v>
       </c>
@@ -22963,7 +22971,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="26" customHeight="1">
+    <row r="7" spans="1:18" ht="25.95" customHeight="1">
       <c r="A7" s="24">
         <v>190</v>
       </c>
@@ -22989,7 +22997,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -23015,7 +23023,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="21">
         <v>52</v>
       </c>
@@ -23041,7 +23049,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="26" customHeight="1">
+    <row r="10" spans="1:18" ht="25.95" customHeight="1">
       <c r="A10" s="22">
         <v>338</v>
       </c>
@@ -23134,7 +23142,7 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="24" customHeight="1">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="4"/>
@@ -23156,7 +23164,7 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="24" customHeight="1">
-      <c r="A15" s="60"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -23175,7 +23183,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="26" customHeight="1">
+    <row r="16" spans="1:18" ht="25.95" customHeight="1">
       <c r="A16" s="24">
         <v>1122</v>
       </c>
@@ -23201,7 +23209,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="24">
         <v>242</v>
       </c>
@@ -23227,7 +23235,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="26" customHeight="1">
+    <row r="18" spans="1:18" ht="25.95" customHeight="1">
       <c r="A18" s="22">
         <v>1244</v>
       </c>
@@ -23253,7 +23261,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="26" customHeight="1">
+    <row r="19" spans="1:18" ht="25.95" customHeight="1">
       <c r="A19" s="22">
         <v>56</v>
       </c>
@@ -23279,7 +23287,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="26" customHeight="1">
+    <row r="20" spans="1:18" ht="25.95" customHeight="1">
       <c r="A20" s="21">
         <v>493</v>
       </c>
@@ -26935,51 +26943,51 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -27011,20 +27019,20 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="41" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1">
+      <c r="A2" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -27036,7 +27044,7 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="62" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4"/>
@@ -27058,7 +27066,7 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -27077,7 +27085,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="24">
         <v>70</v>
       </c>
@@ -27103,7 +27111,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="26" customHeight="1">
+    <row r="6" spans="1:18" ht="25.95" customHeight="1">
       <c r="A6" s="22">
         <v>62</v>
       </c>
@@ -27129,7 +27137,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="26" customHeight="1">
+    <row r="7" spans="1:18" ht="25.95" customHeight="1">
       <c r="A7" s="24">
         <v>198</v>
       </c>
@@ -27155,7 +27163,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="22">
         <v>64</v>
       </c>
@@ -27181,7 +27189,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="24">
         <v>121</v>
       </c>
@@ -27207,7 +27215,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="26" customHeight="1">
+    <row r="10" spans="1:18" ht="25.95" customHeight="1">
       <c r="A10" s="24">
         <v>746</v>
       </c>
@@ -27233,7 +27241,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="26" customHeight="1">
+    <row r="11" spans="1:18" ht="25.95" customHeight="1">
       <c r="A11" s="21">
         <v>72</v>
       </c>
@@ -27259,7 +27267,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="26" customHeight="1">
+    <row r="12" spans="1:18" ht="25.95" customHeight="1">
       <c r="A12" s="24">
         <v>709</v>
       </c>
@@ -27285,7 +27293,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26" customHeight="1">
+    <row r="13" spans="1:18" ht="25.95" customHeight="1">
       <c r="A13" s="24">
         <v>58</v>
       </c>
@@ -27311,7 +27319,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="26" customHeight="1">
+    <row r="14" spans="1:18" ht="25.95" customHeight="1">
       <c r="A14" s="24">
         <v>771</v>
       </c>
@@ -27337,7 +27345,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="26" customHeight="1">
+    <row r="15" spans="1:18" ht="25.95" customHeight="1">
       <c r="A15" s="24">
         <v>387</v>
       </c>
@@ -27389,7 +27397,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="24">
         <v>14</v>
       </c>
@@ -27415,7 +27423,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="26" customHeight="1">
+    <row r="18" spans="1:18" ht="25.95" customHeight="1">
       <c r="A18" s="24">
         <v>344</v>
       </c>
@@ -27441,7 +27449,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26" customHeight="1">
+    <row r="19" spans="1:18" ht="25.95" customHeight="1">
       <c r="A19" s="24">
         <v>541</v>
       </c>
@@ -27467,7 +27475,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="26" customHeight="1">
+    <row r="20" spans="1:18" ht="25.95" customHeight="1">
       <c r="A20" s="22">
         <v>151</v>
       </c>
@@ -27493,7 +27501,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26" customHeight="1">
+    <row r="21" spans="1:18" ht="25.95" customHeight="1">
       <c r="A21" s="24">
         <v>557</v>
       </c>
@@ -27519,7 +27527,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26" customHeight="1">
+    <row r="22" spans="1:18" ht="25.95" customHeight="1">
       <c r="A22" s="24">
         <v>917</v>
       </c>
@@ -27545,7 +27553,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="26" customHeight="1">
+    <row r="23" spans="1:18" ht="25.95" customHeight="1">
       <c r="A23" s="24">
         <v>242</v>
       </c>
@@ -27571,7 +27579,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26" customHeight="1">
+    <row r="24" spans="1:18" ht="25.95" customHeight="1">
       <c r="A24" s="22">
         <v>49</v>
       </c>
@@ -27597,7 +27605,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26" customHeight="1">
+    <row r="25" spans="1:18" ht="25.95" customHeight="1">
       <c r="A25" s="22">
         <v>438</v>
       </c>
@@ -27623,7 +27631,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="26" customHeight="1">
+    <row r="26" spans="1:18" ht="25.95" customHeight="1">
       <c r="A26" s="24">
         <v>125</v>
       </c>
@@ -27649,7 +27657,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26" customHeight="1">
+    <row r="27" spans="1:18" ht="25.95" customHeight="1">
       <c r="A27" s="24">
         <v>680</v>
       </c>
@@ -27675,7 +27683,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="26" customHeight="1">
+    <row r="28" spans="1:18" ht="25.95" customHeight="1">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -27753,7 +27761,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26" customHeight="1">
+    <row r="31" spans="1:18" ht="25.95" customHeight="1">
       <c r="A31" s="21">
         <v>44</v>
       </c>
@@ -27779,7 +27787,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26" customHeight="1">
+    <row r="32" spans="1:18" ht="25.95" customHeight="1">
       <c r="A32" s="21">
         <v>115</v>
       </c>
@@ -27805,7 +27813,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="19" customHeight="1">
+    <row r="33" spans="1:18" ht="19.05" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -27825,7 +27833,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="19" customHeight="1">
+    <row r="34" spans="1:18" ht="19.05" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -27846,7 +27854,7 @@
       <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="4"/>
@@ -27868,7 +27876,7 @@
       <c r="R35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1">
-      <c r="A36" s="60"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -27887,7 +27895,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="26" customHeight="1">
+    <row r="37" spans="1:18" ht="25.95" customHeight="1">
       <c r="A37" s="24">
         <v>205</v>
       </c>
@@ -27913,7 +27921,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="26" customHeight="1">
+    <row r="38" spans="1:18" ht="25.95" customHeight="1">
       <c r="A38" s="22">
         <v>300</v>
       </c>
@@ -27939,7 +27947,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26" customHeight="1">
+    <row r="39" spans="1:18" ht="25.95" customHeight="1">
       <c r="A39" s="22">
         <v>91</v>
       </c>
@@ -27965,7 +27973,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="26" customHeight="1">
+    <row r="40" spans="1:18" ht="25.95" customHeight="1">
       <c r="A40" s="21">
         <v>32</v>
       </c>
@@ -30827,37 +30835,38 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
-    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
-    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
-    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
-    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
-    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
-    <hyperlink ref="C38" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
-    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
-    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
-    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C22" r:id="rId16"/>
+    <hyperlink ref="C23" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
+    <hyperlink ref="C26" r:id="rId20"/>
+    <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="C28" r:id="rId22"/>
+    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId24"/>
+    <hyperlink ref="C31" r:id="rId25"/>
+    <hyperlink ref="C32" r:id="rId26"/>
+    <hyperlink ref="C38" r:id="rId27"/>
+    <hyperlink ref="C39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="C41" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间-算法训练营\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54197537-D07C-1A45-9F4F-37999457C723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="425">
   <si>
     <t>题号</t>
   </si>
@@ -1101,7 +1102,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1127,7 +1128,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1154,7 +1155,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1190,7 +1191,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1413,7 +1414,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1423,7 +1424,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1559,22 +1560,25 @@
     <t>trie树模板</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>trie树: https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1582,26 +1586,26 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1609,13 +1613,13 @@
       <u/>
       <sz val="9"/>
       <color indexed="30"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1624,14 +1628,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1639,14 +1643,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1954,8 +1958,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1985,7 +1989,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,26 +2330,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -2383,7 +2387,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="31.95" customHeight="1">
+    <row r="2" spans="1:17" ht="32" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2431,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="22.05" customHeight="1">
+    <row r="4" spans="1:17" ht="22" customHeight="1">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -2547,7 +2551,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="46.05" customHeight="1">
+    <row r="8" spans="1:17" ht="46" customHeight="1">
       <c r="A8" s="5">
         <v>15</v>
       </c>
@@ -2584,7 +2588,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="61.05" customHeight="1">
+    <row r="9" spans="1:17" ht="61" customHeight="1">
       <c r="A9" s="10">
         <v>206</v>
       </c>
@@ -2619,7 +2623,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="43.95" customHeight="1">
+    <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -2654,7 +2658,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="43.05" customHeight="1">
+    <row r="11" spans="1:17" ht="43" customHeight="1">
       <c r="A11" s="10">
         <v>141</v>
       </c>
@@ -2724,7 +2728,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="43.05" customHeight="1">
+    <row r="13" spans="1:17" ht="43" customHeight="1">
       <c r="A13" s="11">
         <v>25</v>
       </c>
@@ -2759,7 +2763,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:17" ht="40" customHeight="1">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -2796,7 +2800,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="46.05" customHeight="1">
+    <row r="15" spans="1:17" ht="46" customHeight="1">
       <c r="A15" s="10">
         <v>155</v>
       </c>
@@ -2964,7 +2968,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="22.05" customHeight="1">
+    <row r="21" spans="1:17" ht="22" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -2983,7 +2987,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="25.95" customHeight="1">
+    <row r="22" spans="1:17" ht="26" customHeight="1">
       <c r="A22" s="10">
         <v>26</v>
       </c>
@@ -3051,7 +3055,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="25.95" customHeight="1">
+    <row r="24" spans="1:17" ht="26" customHeight="1">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3162,7 +3166,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="61.2" customHeight="1">
+    <row r="27" spans="1:17" ht="61.25" customHeight="1">
       <c r="A27" s="10">
         <v>66</v>
       </c>
@@ -3199,7 +3203,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="61.2" customHeight="1">
+    <row r="28" spans="1:17" ht="61.25" customHeight="1">
       <c r="A28" s="5">
         <v>641</v>
       </c>
@@ -3236,7 +3240,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="49.95" customHeight="1">
+    <row r="29" spans="1:17" ht="50" customHeight="1">
       <c r="A29" s="11">
         <v>42</v>
       </c>
@@ -3807,28 +3811,28 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C27" r:id="rId19"/>
-    <hyperlink ref="C28" r:id="rId20"/>
-    <hyperlink ref="C29" r:id="rId21"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -3837,26 +3841,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="45.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="34.6328125" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" customWidth="1"/>
-    <col min="8" max="8" width="29.81640625" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -3957,7 +3961,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="25.95" customHeight="1">
+    <row r="5" spans="1:17" ht="26" customHeight="1">
       <c r="A5" s="10">
         <v>242</v>
       </c>
@@ -4056,7 +4060,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="25.95" customHeight="1">
+    <row r="8" spans="1:17" ht="26" customHeight="1">
       <c r="A8" s="5">
         <v>94</v>
       </c>
@@ -4089,7 +4093,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="25.95" customHeight="1">
+    <row r="9" spans="1:17" ht="26" customHeight="1">
       <c r="A9" s="5">
         <v>144</v>
       </c>
@@ -4122,7 +4126,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="25.95" customHeight="1">
+    <row r="10" spans="1:17" ht="26" customHeight="1">
       <c r="A10" s="10">
         <v>590</v>
       </c>
@@ -4155,7 +4159,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="25.95" customHeight="1">
+    <row r="11" spans="1:17" ht="26" customHeight="1">
       <c r="A11" s="10">
         <v>589</v>
       </c>
@@ -4188,7 +4192,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="25.95" customHeight="1">
+    <row r="12" spans="1:17" ht="26" customHeight="1">
       <c r="A12" s="5">
         <v>429</v>
       </c>
@@ -4252,7 +4256,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="25.95" customHeight="1">
+    <row r="14" spans="1:17" ht="26" customHeight="1">
       <c r="A14" s="11">
         <v>239</v>
       </c>
@@ -4367,7 +4371,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="25.95" customHeight="1">
+    <row r="19" spans="1:17" ht="26" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -4398,7 +4402,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="25.95" customHeight="1">
+    <row r="20" spans="1:17" ht="26" customHeight="1">
       <c r="A20" s="5">
         <v>347</v>
       </c>
@@ -7478,18 +7482,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -7497,25 +7501,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView topLeftCell="C9" zoomScale="125" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="58.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="9" width="5.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -7553,7 +7557,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="37.049999999999997" customHeight="1">
+    <row r="2" spans="1:17" ht="37" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
@@ -7616,7 +7620,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="25.95" customHeight="1">
+    <row r="5" spans="1:17" ht="26" customHeight="1">
       <c r="A5" s="10">
         <v>70</v>
       </c>
@@ -7643,7 +7647,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="25.95" customHeight="1">
+    <row r="6" spans="1:17" ht="26" customHeight="1">
       <c r="A6" s="5">
         <v>22</v>
       </c>
@@ -7934,7 +7938,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="70.95" customHeight="1">
+    <row r="15" spans="1:17" ht="71" customHeight="1">
       <c r="A15" s="5">
         <v>17</v>
       </c>
@@ -11576,23 +11580,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -11600,25 +11604,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -11719,7 +11723,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="25.95" customHeight="1">
+    <row r="5" spans="1:17" ht="26" customHeight="1">
       <c r="A5" s="5">
         <v>102</v>
       </c>
@@ -11754,7 +11758,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="56.55" customHeight="1">
+    <row r="6" spans="1:17" ht="56.5" customHeight="1">
       <c r="A6" s="5">
         <v>433</v>
       </c>
@@ -11791,7 +11795,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.2" customHeight="1">
+    <row r="7" spans="1:17" ht="73.25" customHeight="1">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -11828,7 +11832,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="25.95" customHeight="1">
+    <row r="8" spans="1:17" ht="26" customHeight="1">
       <c r="A8" s="5">
         <v>515</v>
       </c>
@@ -11902,7 +11906,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="25.95" customHeight="1">
+    <row r="10" spans="1:17" ht="26" customHeight="1">
       <c r="A10" s="10">
         <v>367</v>
       </c>
@@ -12017,7 +12021,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="25.95" customHeight="1">
+    <row r="15" spans="1:17" ht="26" customHeight="1">
       <c r="A15" s="10">
         <v>860</v>
       </c>
@@ -12054,7 +12058,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="25.95" customHeight="1">
+    <row r="16" spans="1:17" ht="26" customHeight="1">
       <c r="A16" s="10">
         <v>122</v>
       </c>
@@ -12091,7 +12095,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="25.95" customHeight="1">
+    <row r="17" spans="1:17" ht="26" customHeight="1">
       <c r="A17" s="10">
         <v>455</v>
       </c>
@@ -12128,7 +12132,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="61.05" customHeight="1">
+    <row r="18" spans="1:17" ht="61" customHeight="1">
       <c r="A18" s="10">
         <v>874</v>
       </c>
@@ -12165,7 +12169,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="25.95" customHeight="1">
+    <row r="19" spans="1:17" ht="26" customHeight="1">
       <c r="A19" s="5">
         <v>127</v>
       </c>
@@ -12202,7 +12206,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="25.95" customHeight="1">
+    <row r="20" spans="1:17" ht="26" customHeight="1">
       <c r="A20" s="5">
         <v>200</v>
       </c>
@@ -12239,7 +12243,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="25.95" customHeight="1">
+    <row r="21" spans="1:17" ht="26" customHeight="1">
       <c r="A21" s="5">
         <v>529</v>
       </c>
@@ -12313,7 +12317,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="25.95" customHeight="1">
+    <row r="23" spans="1:17" ht="26" customHeight="1">
       <c r="A23" s="5">
         <v>33</v>
       </c>
@@ -12350,7 +12354,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="25.95" customHeight="1">
+    <row r="24" spans="1:17" ht="26" customHeight="1">
       <c r="A24" s="5">
         <v>74</v>
       </c>
@@ -12424,7 +12428,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="25.95" customHeight="1">
+    <row r="26" spans="1:17" ht="26" customHeight="1">
       <c r="A26" s="11">
         <v>126</v>
       </c>
@@ -12461,7 +12465,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="112.2" customHeight="1">
+    <row r="27" spans="1:17" ht="112.25" customHeight="1">
       <c r="A27" s="11">
         <v>45</v>
       </c>
@@ -15282,25 +15286,25 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="/description"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description"/>
-    <hyperlink ref="C7" r:id="rId3" location="/description"/>
-    <hyperlink ref="C8" r:id="rId4" location="/description"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C27" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId1" location="/description" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" location="/description" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" location="/description" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15308,26 +15312,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
-    <col min="4" max="4" width="62.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -15488,7 +15492,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.05" customHeight="1">
+    <row r="7" spans="1:17" ht="73" customHeight="1">
       <c r="A7" s="5">
         <v>1143</v>
       </c>
@@ -15517,7 +15521,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="25.95" customHeight="1">
+    <row r="8" spans="1:17" ht="26" customHeight="1">
       <c r="A8" s="10">
         <v>70</v>
       </c>
@@ -15591,7 +15595,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="85.05" customHeight="1">
+    <row r="10" spans="1:17" ht="85" customHeight="1">
       <c r="A10" s="10">
         <v>53</v>
       </c>
@@ -15657,7 +15661,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="25.95" customHeight="1">
+    <row r="12" spans="1:17" ht="26" customHeight="1">
       <c r="A12" s="22">
         <v>322</v>
       </c>
@@ -15686,7 +15690,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="127.95" customHeight="1">
+    <row r="13" spans="1:17" ht="128" customHeight="1">
       <c r="A13" s="10">
         <v>198</v>
       </c>
@@ -15723,7 +15727,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="25.95" customHeight="1">
+    <row r="14" spans="1:17" ht="26" customHeight="1">
       <c r="A14" s="5">
         <v>213</v>
       </c>
@@ -15760,7 +15764,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="145.94999999999999" customHeight="1">
+    <row r="15" spans="1:17" ht="146" customHeight="1">
       <c r="A15" s="10">
         <v>121</v>
       </c>
@@ -15871,7 +15875,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="106.05" customHeight="1">
+    <row r="18" spans="1:17" ht="106" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15908,7 +15912,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="100.95" customHeight="1">
+    <row r="19" spans="1:17" ht="101" customHeight="1">
       <c r="A19" s="11">
         <v>188</v>
       </c>
@@ -16003,7 +16007,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="25.95" customHeight="1">
+    <row r="22" spans="1:17" ht="26" customHeight="1">
       <c r="A22" s="22">
         <v>279</v>
       </c>
@@ -16028,7 +16032,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="25.95" customHeight="1">
+    <row r="23" spans="1:17" ht="26" customHeight="1">
       <c r="A23" s="21">
         <v>72</v>
       </c>
@@ -16078,7 +16082,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="25.95" customHeight="1">
+    <row r="25" spans="1:17" ht="26" customHeight="1">
       <c r="A25" s="21">
         <v>45</v>
       </c>
@@ -16103,7 +16107,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="25.95" customHeight="1">
+    <row r="26" spans="1:17" ht="26" customHeight="1">
       <c r="A26" s="21">
         <v>980</v>
       </c>
@@ -16128,7 +16132,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="25.95" customHeight="1">
+    <row r="27" spans="1:17" ht="26" customHeight="1">
       <c r="A27" s="22">
         <v>518</v>
       </c>
@@ -16231,7 +16235,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="25.95" customHeight="1">
+    <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -16305,7 +16309,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" ht="25.95" customHeight="1">
+    <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="5">
         <v>221</v>
       </c>
@@ -16342,7 +16346,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="25.95" customHeight="1">
+    <row r="35" spans="1:17" ht="26" customHeight="1">
       <c r="A35" s="5">
         <v>621</v>
       </c>
@@ -16379,7 +16383,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="25.95" customHeight="1">
+    <row r="36" spans="1:17" ht="26" customHeight="1">
       <c r="A36" s="5">
         <v>647</v>
       </c>
@@ -16416,7 +16420,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" ht="25.95" customHeight="1">
+    <row r="37" spans="1:17" ht="26" customHeight="1">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -16453,7 +16457,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="25.95" customHeight="1">
+    <row r="38" spans="1:17" ht="26" customHeight="1">
       <c r="A38" s="11">
         <v>363</v>
       </c>
@@ -16527,7 +16531,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="25.95" customHeight="1">
+    <row r="40" spans="1:17" ht="26" customHeight="1">
       <c r="A40" s="11">
         <v>410</v>
       </c>
@@ -16564,7 +16568,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="25.95" customHeight="1">
+    <row r="41" spans="1:17" ht="26" customHeight="1">
       <c r="A41" s="11">
         <v>552</v>
       </c>
@@ -16601,7 +16605,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="25.95" customHeight="1">
+    <row r="42" spans="1:17" ht="26" customHeight="1">
       <c r="A42" s="11">
         <v>76</v>
       </c>
@@ -16638,7 +16642,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="25.95" customHeight="1">
+    <row r="43" spans="1:17" ht="26" customHeight="1">
       <c r="A43" s="11">
         <v>312</v>
       </c>
@@ -18909,66 +18913,66 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11" location="/description"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C23" r:id="rId18"/>
-    <hyperlink ref="C24" r:id="rId19"/>
-    <hyperlink ref="C25" r:id="rId20"/>
-    <hyperlink ref="C26" r:id="rId21"/>
-    <hyperlink ref="C27" r:id="rId22"/>
-    <hyperlink ref="C32" r:id="rId23"/>
-    <hyperlink ref="C33" r:id="rId24"/>
-    <hyperlink ref="C34" r:id="rId25"/>
-    <hyperlink ref="C35" r:id="rId26"/>
-    <hyperlink ref="C36" r:id="rId27"/>
-    <hyperlink ref="C37" r:id="rId28"/>
-    <hyperlink ref="C38" r:id="rId29"/>
-    <hyperlink ref="C39" r:id="rId30"/>
-    <hyperlink ref="C40" r:id="rId31"/>
-    <hyperlink ref="C41" r:id="rId32"/>
-    <hyperlink ref="C42" r:id="rId33"/>
-    <hyperlink ref="C43" r:id="rId34"/>
-    <hyperlink ref="D17" r:id="rId35"/>
-    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" location="/description" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="C34" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="C36" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="C37" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="C38" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="C39" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="C40" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="C41" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="7" width="4.36328125" customWidth="1"/>
-    <col min="8" max="9" width="4.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="115.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="6" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -19073,7 +19077,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="25.95" customHeight="1">
+    <row r="5" spans="1:18" ht="26" customHeight="1">
       <c r="A5" s="22">
         <v>208</v>
       </c>
@@ -19115,7 +19119,9 @@
       <c r="C6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="36" t="s">
+        <v>424</v>
+      </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -19157,7 +19163,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="25.95" customHeight="1">
+    <row r="8" spans="1:18" ht="26" customHeight="1">
       <c r="A8" s="22">
         <v>200</v>
       </c>
@@ -19183,7 +19189,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="25.95" customHeight="1">
+    <row r="9" spans="1:18" ht="26" customHeight="1">
       <c r="A9" s="22">
         <v>130</v>
       </c>
@@ -19235,7 +19241,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="25.95" customHeight="1">
+    <row r="11" spans="1:18" ht="26" customHeight="1">
       <c r="A11" s="22">
         <v>22</v>
       </c>
@@ -19365,7 +19371,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="25.95" customHeight="1">
+    <row r="16" spans="1:18" ht="26" customHeight="1">
       <c r="A16" s="22">
         <v>433</v>
       </c>
@@ -19391,7 +19397,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="25.95" customHeight="1">
+    <row r="17" spans="1:18" ht="26" customHeight="1">
       <c r="A17" s="22">
         <v>1091</v>
       </c>
@@ -22772,47 +22778,48 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/" xr:uid="{EB6658A5-EBE8-534F-AA42-4DE0D983199F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" customWidth="1"/>
-    <col min="9" max="9" width="4.6328125" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -22917,7 +22924,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="25.95" customHeight="1">
+    <row r="5" spans="1:18" ht="26" customHeight="1">
       <c r="A5" s="24">
         <v>191</v>
       </c>
@@ -22945,7 +22952,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="25.95" customHeight="1">
+    <row r="6" spans="1:18" ht="26" customHeight="1">
       <c r="A6" s="24">
         <v>231</v>
       </c>
@@ -22971,7 +22978,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="25.95" customHeight="1">
+    <row r="7" spans="1:18" ht="26" customHeight="1">
       <c r="A7" s="24">
         <v>190</v>
       </c>
@@ -22997,7 +23004,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="25.95" customHeight="1">
+    <row r="8" spans="1:18" ht="26" customHeight="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -23023,7 +23030,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="25.95" customHeight="1">
+    <row r="9" spans="1:18" ht="26" customHeight="1">
       <c r="A9" s="21">
         <v>52</v>
       </c>
@@ -23049,7 +23056,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="25.95" customHeight="1">
+    <row r="10" spans="1:18" ht="26" customHeight="1">
       <c r="A10" s="22">
         <v>338</v>
       </c>
@@ -23183,7 +23190,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="25.95" customHeight="1">
+    <row r="16" spans="1:18" ht="26" customHeight="1">
       <c r="A16" s="24">
         <v>1122</v>
       </c>
@@ -23209,7 +23216,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="25.95" customHeight="1">
+    <row r="17" spans="1:18" ht="26" customHeight="1">
       <c r="A17" s="24">
         <v>242</v>
       </c>
@@ -23235,7 +23242,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="25.95" customHeight="1">
+    <row r="18" spans="1:18" ht="26" customHeight="1">
       <c r="A18" s="22">
         <v>1244</v>
       </c>
@@ -23261,7 +23268,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="25.95" customHeight="1">
+    <row r="19" spans="1:18" ht="26" customHeight="1">
       <c r="A19" s="22">
         <v>56</v>
       </c>
@@ -23287,7 +23294,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="25.95" customHeight="1">
+    <row r="20" spans="1:18" ht="26" customHeight="1">
       <c r="A20" s="21">
         <v>493</v>
       </c>
@@ -26943,44 +26950,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="4.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -27019,7 +27026,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1">
+    <row r="2" spans="1:18" ht="41" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>258</v>
       </c>
@@ -27085,7 +27092,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="25.95" customHeight="1">
+    <row r="5" spans="1:18" ht="26" customHeight="1">
       <c r="A5" s="24">
         <v>70</v>
       </c>
@@ -27111,7 +27118,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="25.95" customHeight="1">
+    <row r="6" spans="1:18" ht="26" customHeight="1">
       <c r="A6" s="22">
         <v>62</v>
       </c>
@@ -27137,7 +27144,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="25.95" customHeight="1">
+    <row r="7" spans="1:18" ht="26" customHeight="1">
       <c r="A7" s="24">
         <v>198</v>
       </c>
@@ -27163,7 +27170,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="25.95" customHeight="1">
+    <row r="8" spans="1:18" ht="26" customHeight="1">
       <c r="A8" s="22">
         <v>64</v>
       </c>
@@ -27189,7 +27196,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="25.95" customHeight="1">
+    <row r="9" spans="1:18" ht="26" customHeight="1">
       <c r="A9" s="24">
         <v>121</v>
       </c>
@@ -27215,7 +27222,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="25.95" customHeight="1">
+    <row r="10" spans="1:18" ht="26" customHeight="1">
       <c r="A10" s="24">
         <v>746</v>
       </c>
@@ -27241,7 +27248,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="25.95" customHeight="1">
+    <row r="11" spans="1:18" ht="26" customHeight="1">
       <c r="A11" s="21">
         <v>72</v>
       </c>
@@ -27267,7 +27274,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="25.95" customHeight="1">
+    <row r="12" spans="1:18" ht="26" customHeight="1">
       <c r="A12" s="24">
         <v>709</v>
       </c>
@@ -27293,7 +27300,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="25.95" customHeight="1">
+    <row r="13" spans="1:18" ht="26" customHeight="1">
       <c r="A13" s="24">
         <v>58</v>
       </c>
@@ -27319,7 +27326,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="25.95" customHeight="1">
+    <row r="14" spans="1:18" ht="26" customHeight="1">
       <c r="A14" s="24">
         <v>771</v>
       </c>
@@ -27345,7 +27352,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="25.95" customHeight="1">
+    <row r="15" spans="1:18" ht="26" customHeight="1">
       <c r="A15" s="24">
         <v>387</v>
       </c>
@@ -27397,7 +27404,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="25.95" customHeight="1">
+    <row r="17" spans="1:18" ht="26" customHeight="1">
       <c r="A17" s="24">
         <v>14</v>
       </c>
@@ -27423,7 +27430,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="25.95" customHeight="1">
+    <row r="18" spans="1:18" ht="26" customHeight="1">
       <c r="A18" s="24">
         <v>344</v>
       </c>
@@ -27449,7 +27456,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="25.95" customHeight="1">
+    <row r="19" spans="1:18" ht="26" customHeight="1">
       <c r="A19" s="24">
         <v>541</v>
       </c>
@@ -27475,7 +27482,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="25.95" customHeight="1">
+    <row r="20" spans="1:18" ht="26" customHeight="1">
       <c r="A20" s="22">
         <v>151</v>
       </c>
@@ -27501,7 +27508,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="25.95" customHeight="1">
+    <row r="21" spans="1:18" ht="26" customHeight="1">
       <c r="A21" s="24">
         <v>557</v>
       </c>
@@ -27527,7 +27534,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="25.95" customHeight="1">
+    <row r="22" spans="1:18" ht="26" customHeight="1">
       <c r="A22" s="24">
         <v>917</v>
       </c>
@@ -27553,7 +27560,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="25.95" customHeight="1">
+    <row r="23" spans="1:18" ht="26" customHeight="1">
       <c r="A23" s="24">
         <v>242</v>
       </c>
@@ -27579,7 +27586,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="25.95" customHeight="1">
+    <row r="24" spans="1:18" ht="26" customHeight="1">
       <c r="A24" s="22">
         <v>49</v>
       </c>
@@ -27605,7 +27612,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="25.95" customHeight="1">
+    <row r="25" spans="1:18" ht="26" customHeight="1">
       <c r="A25" s="22">
         <v>438</v>
       </c>
@@ -27631,7 +27638,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="25.95" customHeight="1">
+    <row r="26" spans="1:18" ht="26" customHeight="1">
       <c r="A26" s="24">
         <v>125</v>
       </c>
@@ -27657,7 +27664,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="25.95" customHeight="1">
+    <row r="27" spans="1:18" ht="26" customHeight="1">
       <c r="A27" s="24">
         <v>680</v>
       </c>
@@ -27683,7 +27690,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="25.95" customHeight="1">
+    <row r="28" spans="1:18" ht="26" customHeight="1">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -27761,7 +27768,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="25.95" customHeight="1">
+    <row r="31" spans="1:18" ht="26" customHeight="1">
       <c r="A31" s="21">
         <v>44</v>
       </c>
@@ -27787,7 +27794,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="25.95" customHeight="1">
+    <row r="32" spans="1:18" ht="26" customHeight="1">
       <c r="A32" s="21">
         <v>115</v>
       </c>
@@ -27813,7 +27820,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="19.05" customHeight="1">
+    <row r="33" spans="1:18" ht="19" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -27833,7 +27840,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="19.05" customHeight="1">
+    <row r="34" spans="1:18" ht="19" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -27895,7 +27902,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="25.95" customHeight="1">
+    <row r="37" spans="1:18" ht="26" customHeight="1">
       <c r="A37" s="24">
         <v>205</v>
       </c>
@@ -27921,7 +27928,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="25.95" customHeight="1">
+    <row r="38" spans="1:18" ht="26" customHeight="1">
       <c r="A38" s="22">
         <v>300</v>
       </c>
@@ -27947,7 +27954,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="25.95" customHeight="1">
+    <row r="39" spans="1:18" ht="26" customHeight="1">
       <c r="A39" s="22">
         <v>91</v>
       </c>
@@ -27973,7 +27980,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="25.95" customHeight="1">
+    <row r="40" spans="1:18" ht="26" customHeight="1">
       <c r="A40" s="21">
         <v>32</v>
       </c>
@@ -30835,36 +30842,36 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C22" r:id="rId16"/>
-    <hyperlink ref="C23" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
-    <hyperlink ref="C26" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C29" r:id="rId23"/>
-    <hyperlink ref="C30" r:id="rId24"/>
-    <hyperlink ref="C31" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C38" r:id="rId27"/>
-    <hyperlink ref="C39" r:id="rId28"/>
-    <hyperlink ref="C40" r:id="rId29"/>
-    <hyperlink ref="C41" r:id="rId30"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
+    <hyperlink ref="C38" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
+    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
+    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
+    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54197537-D07C-1A45-9F4F-37999457C723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266EB541-E1F4-CA44-A776-6B3135B458FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="426">
   <si>
     <t>题号</t>
   </si>
@@ -1562,6 +1562,9 @@
   </si>
   <si>
     <t>trie树: https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/</t>
+  </si>
+  <si>
+    <t>https://shimo.im/docs/VtcxL0kyp04OBHak/read   并查集</t>
   </si>
 </sst>
 </file>
@@ -18959,7 +18962,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -18968,7 +18971,7 @@
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" customWidth="1"/>
     <col min="4" max="4" width="115.1640625" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="9" width="4.5" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" customWidth="1"/>
@@ -19077,7 +19080,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="38" customHeight="1">
       <c r="A5" s="22">
         <v>208</v>
       </c>
@@ -19109,7 +19112,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="21" customHeight="1">
+    <row r="6" spans="1:18" ht="32" customHeight="1">
       <c r="A6" s="21">
         <v>212</v>
       </c>
@@ -19122,7 +19125,9 @@
       <c r="D6" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="54">
+        <v>4.28</v>
+      </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -19137,7 +19142,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
+    <row r="7" spans="1:18" ht="59" customHeight="1">
       <c r="A7" s="22">
         <v>547</v>
       </c>
@@ -19147,8 +19152,12 @@
       <c r="C7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="54">
+        <v>4.28</v>
+      </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -22793,9 +22802,10 @@
     <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
     <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
     <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/" xr:uid="{EB6658A5-EBE8-534F-AA42-4DE0D983199F}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{6AB76983-B129-7C4B-AA0A-121D1D88B43F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266EB541-E1F4-CA44-A776-6B3135B458FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB559C49-D5A9-C64C-B5CD-22646FD8828F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="427">
   <si>
     <t>题号</t>
   </si>
@@ -1565,6 +1565,9 @@
   </si>
   <si>
     <t>https://shimo.im/docs/VtcxL0kyp04OBHak/read   并查集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">并查集，构造函数参数是char[][] count为 ‘1’的数量 </t>
   </si>
 </sst>
 </file>
@@ -18962,7 +18965,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -19179,10 +19182,12 @@
       <c r="B8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="19"/>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>426</v>
+      </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -22790,7 +22795,7 @@
     <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
     <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
     <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB559C49-D5A9-C64C-B5CD-22646FD8828F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881880E5-511F-DB44-BEF9-34A029E7D72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="428">
   <si>
     <t>题号</t>
   </si>
@@ -1568,6 +1568,10 @@
   </si>
   <si>
     <t xml:space="preserve">并查集，构造函数参数是char[][] count为 ‘1’的数量 </t>
+  </si>
+  <si>
+    <t>dfs思路：先将与边界相邻的置为‘#’，最后将‘#’置为‘O',其他为'X'
+并查集：</t>
   </si>
 </sst>
 </file>
@@ -18965,7 +18969,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -19188,7 +19192,9 @@
       <c r="D8" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="54">
+        <v>4.29</v>
+      </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -19203,7 +19209,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="73" customHeight="1">
       <c r="A9" s="22">
         <v>130</v>
       </c>
@@ -19213,8 +19219,12 @@
       <c r="C9" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="54">
+        <v>4.29</v>
+      </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881880E5-511F-DB44-BEF9-34A029E7D72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65862B37-D020-7A43-BD2F-8EDD308425B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="430">
   <si>
     <t>题号</t>
   </si>
@@ -1572,6 +1572,12 @@
   <si>
     <t>dfs思路：先将与边界相邻的置为‘#’，最后将‘#’置为‘O',其他为'X'
 并查集：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">动态规划 </t>
+  </si>
+  <si>
+    <t>dfs</t>
   </si>
 </sst>
 </file>
@@ -18969,7 +18975,7 @@
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -19249,8 +19255,12 @@
       <c r="C10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="54">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -19275,8 +19285,12 @@
       <c r="C11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" s="54">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间-算法训练营\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65862B37-D020-7A43-BD2F-8EDD308425B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="432">
   <si>
     <t>题号</t>
   </si>
@@ -1102,7 +1101,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1128,7 +1127,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1155,7 +1154,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1191,7 +1190,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1414,7 +1413,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1424,7 +1423,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1579,22 +1578,30 @@
   <si>
     <t>dfs</t>
   </si>
+  <si>
+    <t>dfs,前枝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键代码：记录（行，列，块（(i/3）*3 +j/3）)已经出现过的元素, int[][] row = new int[9][10], int[][] col = new int[9][10], int[][] block = new int[9][10]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1602,26 +1609,26 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1629,13 +1636,13 @@
       <u/>
       <sz val="9"/>
       <color indexed="30"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1644,14 +1651,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1659,14 +1666,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1974,8 +1981,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2005,7 +2012,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,26 +2353,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -2403,7 +2410,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="32" customHeight="1">
+    <row r="2" spans="1:17" ht="31.95" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
@@ -2447,7 +2454,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="22" customHeight="1">
+    <row r="4" spans="1:17" ht="22.05" customHeight="1">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -2567,7 +2574,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="46" customHeight="1">
+    <row r="8" spans="1:17" ht="46.05" customHeight="1">
       <c r="A8" s="5">
         <v>15</v>
       </c>
@@ -2604,7 +2611,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="61" customHeight="1">
+    <row r="9" spans="1:17" ht="61.05" customHeight="1">
       <c r="A9" s="10">
         <v>206</v>
       </c>
@@ -2639,7 +2646,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="44" customHeight="1">
+    <row r="10" spans="1:17" ht="43.95" customHeight="1">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -2674,7 +2681,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="43" customHeight="1">
+    <row r="11" spans="1:17" ht="43.05" customHeight="1">
       <c r="A11" s="10">
         <v>141</v>
       </c>
@@ -2744,7 +2751,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="43" customHeight="1">
+    <row r="13" spans="1:17" ht="43.05" customHeight="1">
       <c r="A13" s="11">
         <v>25</v>
       </c>
@@ -2779,7 +2786,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="40" customHeight="1">
+    <row r="14" spans="1:17" ht="40.049999999999997" customHeight="1">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -2816,7 +2823,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="46" customHeight="1">
+    <row r="15" spans="1:17" ht="46.05" customHeight="1">
       <c r="A15" s="10">
         <v>155</v>
       </c>
@@ -2984,7 +2991,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="22" customHeight="1">
+    <row r="21" spans="1:17" ht="22.05" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -3003,7 +3010,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="26" customHeight="1">
+    <row r="22" spans="1:17" ht="25.95" customHeight="1">
       <c r="A22" s="10">
         <v>26</v>
       </c>
@@ -3071,7 +3078,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="26" customHeight="1">
+    <row r="24" spans="1:17" ht="25.95" customHeight="1">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3182,7 +3189,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="61.25" customHeight="1">
+    <row r="27" spans="1:17" ht="61.2" customHeight="1">
       <c r="A27" s="10">
         <v>66</v>
       </c>
@@ -3219,7 +3226,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="61.25" customHeight="1">
+    <row r="28" spans="1:17" ht="61.2" customHeight="1">
       <c r="A28" s="5">
         <v>641</v>
       </c>
@@ -3256,7 +3263,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="50" customHeight="1">
+    <row r="29" spans="1:17" ht="49.95" customHeight="1">
       <c r="A29" s="11">
         <v>42</v>
       </c>
@@ -3827,28 +3834,28 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C29" r:id="rId21"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -3857,26 +3864,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -3977,7 +3984,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="10">
         <v>242</v>
       </c>
@@ -4076,7 +4083,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="5">
         <v>94</v>
       </c>
@@ -4109,7 +4116,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="26" customHeight="1">
+    <row r="9" spans="1:17" ht="25.95" customHeight="1">
       <c r="A9" s="5">
         <v>144</v>
       </c>
@@ -4142,7 +4149,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1">
+    <row r="10" spans="1:17" ht="25.95" customHeight="1">
       <c r="A10" s="10">
         <v>590</v>
       </c>
@@ -4175,7 +4182,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="26" customHeight="1">
+    <row r="11" spans="1:17" ht="25.95" customHeight="1">
       <c r="A11" s="10">
         <v>589</v>
       </c>
@@ -4208,7 +4215,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="26" customHeight="1">
+    <row r="12" spans="1:17" ht="25.95" customHeight="1">
       <c r="A12" s="5">
         <v>429</v>
       </c>
@@ -4272,7 +4279,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    <row r="14" spans="1:17" ht="25.95" customHeight="1">
       <c r="A14" s="11">
         <v>239</v>
       </c>
@@ -4387,7 +4394,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="25.95" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -4418,7 +4425,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="25.95" customHeight="1">
       <c r="A20" s="5">
         <v>347</v>
       </c>
@@ -7498,18 +7505,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -7517,25 +7524,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView topLeftCell="C9" zoomScale="125" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="58.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="9" width="5.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -7573,7 +7580,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="37" customHeight="1">
+    <row r="2" spans="1:17" ht="37.049999999999997" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
@@ -7636,7 +7643,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="10">
         <v>70</v>
       </c>
@@ -7663,7 +7670,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="26" customHeight="1">
+    <row r="6" spans="1:17" ht="25.95" customHeight="1">
       <c r="A6" s="5">
         <v>22</v>
       </c>
@@ -7954,7 +7961,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="71" customHeight="1">
+    <row r="15" spans="1:17" ht="70.95" customHeight="1">
       <c r="A15" s="5">
         <v>17</v>
       </c>
@@ -11596,23 +11603,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -11620,25 +11627,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -11739,7 +11746,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="5">
         <v>102</v>
       </c>
@@ -11774,7 +11781,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="56.5" customHeight="1">
+    <row r="6" spans="1:17" ht="56.55" customHeight="1">
       <c r="A6" s="5">
         <v>433</v>
       </c>
@@ -11811,7 +11818,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.25" customHeight="1">
+    <row r="7" spans="1:17" ht="73.2" customHeight="1">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -11848,7 +11855,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="5">
         <v>515</v>
       </c>
@@ -11922,7 +11929,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1">
+    <row r="10" spans="1:17" ht="25.95" customHeight="1">
       <c r="A10" s="10">
         <v>367</v>
       </c>
@@ -12037,7 +12044,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="26" customHeight="1">
+    <row r="15" spans="1:17" ht="25.95" customHeight="1">
       <c r="A15" s="10">
         <v>860</v>
       </c>
@@ -12074,7 +12081,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="26" customHeight="1">
+    <row r="16" spans="1:17" ht="25.95" customHeight="1">
       <c r="A16" s="10">
         <v>122</v>
       </c>
@@ -12111,7 +12118,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="26" customHeight="1">
+    <row r="17" spans="1:17" ht="25.95" customHeight="1">
       <c r="A17" s="10">
         <v>455</v>
       </c>
@@ -12148,7 +12155,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="61" customHeight="1">
+    <row r="18" spans="1:17" ht="61.05" customHeight="1">
       <c r="A18" s="10">
         <v>874</v>
       </c>
@@ -12185,7 +12192,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="25.95" customHeight="1">
       <c r="A19" s="5">
         <v>127</v>
       </c>
@@ -12222,7 +12229,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="25.95" customHeight="1">
       <c r="A20" s="5">
         <v>200</v>
       </c>
@@ -12259,7 +12266,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="26" customHeight="1">
+    <row r="21" spans="1:17" ht="25.95" customHeight="1">
       <c r="A21" s="5">
         <v>529</v>
       </c>
@@ -12333,7 +12340,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="26" customHeight="1">
+    <row r="23" spans="1:17" ht="25.95" customHeight="1">
       <c r="A23" s="5">
         <v>33</v>
       </c>
@@ -12370,7 +12377,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="26" customHeight="1">
+    <row r="24" spans="1:17" ht="25.95" customHeight="1">
       <c r="A24" s="5">
         <v>74</v>
       </c>
@@ -12444,7 +12451,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="26" customHeight="1">
+    <row r="26" spans="1:17" ht="25.95" customHeight="1">
       <c r="A26" s="11">
         <v>126</v>
       </c>
@@ -12481,7 +12488,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="112.25" customHeight="1">
+    <row r="27" spans="1:17" ht="112.2" customHeight="1">
       <c r="A27" s="11">
         <v>45</v>
       </c>
@@ -15302,25 +15309,25 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="/description" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" location="/description" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" location="/description" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId1" location="/description"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description"/>
+    <hyperlink ref="C7" r:id="rId3" location="/description"/>
+    <hyperlink ref="C8" r:id="rId4" location="/description"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C27" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15328,26 +15335,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="62.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -15508,7 +15515,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73" customHeight="1">
+    <row r="7" spans="1:17" ht="73.05" customHeight="1">
       <c r="A7" s="5">
         <v>1143</v>
       </c>
@@ -15537,7 +15544,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="10">
         <v>70</v>
       </c>
@@ -15611,7 +15618,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="85" customHeight="1">
+    <row r="10" spans="1:17" ht="85.05" customHeight="1">
       <c r="A10" s="10">
         <v>53</v>
       </c>
@@ -15677,7 +15684,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="26" customHeight="1">
+    <row r="12" spans="1:17" ht="25.95" customHeight="1">
       <c r="A12" s="22">
         <v>322</v>
       </c>
@@ -15706,7 +15713,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="128" customHeight="1">
+    <row r="13" spans="1:17" ht="127.95" customHeight="1">
       <c r="A13" s="10">
         <v>198</v>
       </c>
@@ -15743,7 +15750,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    <row r="14" spans="1:17" ht="25.95" customHeight="1">
       <c r="A14" s="5">
         <v>213</v>
       </c>
@@ -15780,7 +15787,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="146" customHeight="1">
+    <row r="15" spans="1:17" ht="145.94999999999999" customHeight="1">
       <c r="A15" s="10">
         <v>121</v>
       </c>
@@ -15891,7 +15898,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="106" customHeight="1">
+    <row r="18" spans="1:17" ht="106.05" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15928,7 +15935,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="101" customHeight="1">
+    <row r="19" spans="1:17" ht="100.95" customHeight="1">
       <c r="A19" s="11">
         <v>188</v>
       </c>
@@ -16023,7 +16030,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="26" customHeight="1">
+    <row r="22" spans="1:17" ht="25.95" customHeight="1">
       <c r="A22" s="22">
         <v>279</v>
       </c>
@@ -16048,7 +16055,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="26" customHeight="1">
+    <row r="23" spans="1:17" ht="25.95" customHeight="1">
       <c r="A23" s="21">
         <v>72</v>
       </c>
@@ -16098,7 +16105,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="26" customHeight="1">
+    <row r="25" spans="1:17" ht="25.95" customHeight="1">
       <c r="A25" s="21">
         <v>45</v>
       </c>
@@ -16123,7 +16130,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="26" customHeight="1">
+    <row r="26" spans="1:17" ht="25.95" customHeight="1">
       <c r="A26" s="21">
         <v>980</v>
       </c>
@@ -16148,7 +16155,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="26" customHeight="1">
+    <row r="27" spans="1:17" ht="25.95" customHeight="1">
       <c r="A27" s="22">
         <v>518</v>
       </c>
@@ -16251,7 +16258,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="26" customHeight="1">
+    <row r="32" spans="1:17" ht="25.95" customHeight="1">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -16325,7 +16332,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" ht="26" customHeight="1">
+    <row r="34" spans="1:17" ht="25.95" customHeight="1">
       <c r="A34" s="5">
         <v>221</v>
       </c>
@@ -16362,7 +16369,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="26" customHeight="1">
+    <row r="35" spans="1:17" ht="25.95" customHeight="1">
       <c r="A35" s="5">
         <v>621</v>
       </c>
@@ -16399,7 +16406,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="26" customHeight="1">
+    <row r="36" spans="1:17" ht="25.95" customHeight="1">
       <c r="A36" s="5">
         <v>647</v>
       </c>
@@ -16436,7 +16443,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" ht="26" customHeight="1">
+    <row r="37" spans="1:17" ht="25.95" customHeight="1">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -16473,7 +16480,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="26" customHeight="1">
+    <row r="38" spans="1:17" ht="25.95" customHeight="1">
       <c r="A38" s="11">
         <v>363</v>
       </c>
@@ -16547,7 +16554,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="26" customHeight="1">
+    <row r="40" spans="1:17" ht="25.95" customHeight="1">
       <c r="A40" s="11">
         <v>410</v>
       </c>
@@ -16584,7 +16591,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="26" customHeight="1">
+    <row r="41" spans="1:17" ht="25.95" customHeight="1">
       <c r="A41" s="11">
         <v>552</v>
       </c>
@@ -16621,7 +16628,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="26" customHeight="1">
+    <row r="42" spans="1:17" ht="25.95" customHeight="1">
       <c r="A42" s="11">
         <v>76</v>
       </c>
@@ -16658,7 +16665,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="26" customHeight="1">
+    <row r="43" spans="1:17" ht="25.95" customHeight="1">
       <c r="A43" s="11">
         <v>312</v>
       </c>
@@ -18929,66 +18936,66 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" location="/description" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="C34" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="C36" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="C37" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="C38" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="C39" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="C40" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="C41" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
-    <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11" location="/description"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C23" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId20"/>
+    <hyperlink ref="C26" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C32" r:id="rId23"/>
+    <hyperlink ref="C33" r:id="rId24"/>
+    <hyperlink ref="C34" r:id="rId25"/>
+    <hyperlink ref="C35" r:id="rId26"/>
+    <hyperlink ref="C36" r:id="rId27"/>
+    <hyperlink ref="C37" r:id="rId28"/>
+    <hyperlink ref="C38" r:id="rId29"/>
+    <hyperlink ref="C39" r:id="rId30"/>
+    <hyperlink ref="C40" r:id="rId31"/>
+    <hyperlink ref="C41" r:id="rId32"/>
+    <hyperlink ref="C42" r:id="rId33"/>
+    <hyperlink ref="C43" r:id="rId34"/>
+    <hyperlink ref="D17" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="115.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="115.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -19093,7 +19100,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="38" customHeight="1">
+    <row r="5" spans="1:18" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="22">
         <v>208</v>
       </c>
@@ -19125,7 +19132,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="32" customHeight="1">
+    <row r="6" spans="1:18" ht="31.95" customHeight="1">
       <c r="A6" s="21">
         <v>212</v>
       </c>
@@ -19155,7 +19162,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="59" customHeight="1">
+    <row r="7" spans="1:18" ht="58.95" customHeight="1">
       <c r="A7" s="22">
         <v>547</v>
       </c>
@@ -19185,7 +19192,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="22">
         <v>200</v>
       </c>
@@ -19215,7 +19222,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="73" customHeight="1">
+    <row r="9" spans="1:18" ht="73.05" customHeight="1">
       <c r="A9" s="22">
         <v>130</v>
       </c>
@@ -19275,7 +19282,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="26" customHeight="1">
+    <row r="11" spans="1:18" ht="25.95" customHeight="1">
       <c r="A11" s="22">
         <v>22</v>
       </c>
@@ -19315,7 +19322,9 @@
       <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="19" t="s">
+        <v>430</v>
+      </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -19341,7 +19350,9 @@
       <c r="C13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>431</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -19409,7 +19420,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26" customHeight="1">
+    <row r="16" spans="1:18" ht="25.95" customHeight="1">
       <c r="A16" s="22">
         <v>433</v>
       </c>
@@ -19435,7 +19446,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="22">
         <v>1091</v>
       </c>
@@ -22816,22 +22827,22 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/" xr:uid="{EB6658A5-EBE8-534F-AA42-4DE0D983199F}"/>
-    <hyperlink ref="D7" r:id="rId16" xr:uid="{6AB76983-B129-7C4B-AA0A-121D1D88B43F}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/"/>
+    <hyperlink ref="D7" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -22839,26 +22850,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6328125" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -22963,7 +22974,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="24">
         <v>191</v>
       </c>
@@ -22991,7 +23002,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="26" customHeight="1">
+    <row r="6" spans="1:18" ht="25.95" customHeight="1">
       <c r="A6" s="24">
         <v>231</v>
       </c>
@@ -23017,7 +23028,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="26" customHeight="1">
+    <row r="7" spans="1:18" ht="25.95" customHeight="1">
       <c r="A7" s="24">
         <v>190</v>
       </c>
@@ -23043,7 +23054,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -23069,7 +23080,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="21">
         <v>52</v>
       </c>
@@ -23095,7 +23106,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="26" customHeight="1">
+    <row r="10" spans="1:18" ht="25.95" customHeight="1">
       <c r="A10" s="22">
         <v>338</v>
       </c>
@@ -23229,7 +23240,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="26" customHeight="1">
+    <row r="16" spans="1:18" ht="25.95" customHeight="1">
       <c r="A16" s="24">
         <v>1122</v>
       </c>
@@ -23255,7 +23266,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="24">
         <v>242</v>
       </c>
@@ -23281,7 +23292,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="26" customHeight="1">
+    <row r="18" spans="1:18" ht="25.95" customHeight="1">
       <c r="A18" s="22">
         <v>1244</v>
       </c>
@@ -23307,7 +23318,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="26" customHeight="1">
+    <row r="19" spans="1:18" ht="25.95" customHeight="1">
       <c r="A19" s="22">
         <v>56</v>
       </c>
@@ -23333,7 +23344,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="26" customHeight="1">
+    <row r="20" spans="1:18" ht="25.95" customHeight="1">
       <c r="A20" s="21">
         <v>493</v>
       </c>
@@ -26989,44 +27000,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -27065,7 +27076,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="41" customHeight="1">
+    <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>258</v>
       </c>
@@ -27131,7 +27142,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="24">
         <v>70</v>
       </c>
@@ -27157,7 +27168,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="26" customHeight="1">
+    <row r="6" spans="1:18" ht="25.95" customHeight="1">
       <c r="A6" s="22">
         <v>62</v>
       </c>
@@ -27183,7 +27194,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="26" customHeight="1">
+    <row r="7" spans="1:18" ht="25.95" customHeight="1">
       <c r="A7" s="24">
         <v>198</v>
       </c>
@@ -27209,7 +27220,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="22">
         <v>64</v>
       </c>
@@ -27235,7 +27246,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="24">
         <v>121</v>
       </c>
@@ -27261,7 +27272,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="26" customHeight="1">
+    <row r="10" spans="1:18" ht="25.95" customHeight="1">
       <c r="A10" s="24">
         <v>746</v>
       </c>
@@ -27287,7 +27298,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="26" customHeight="1">
+    <row r="11" spans="1:18" ht="25.95" customHeight="1">
       <c r="A11" s="21">
         <v>72</v>
       </c>
@@ -27313,7 +27324,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="26" customHeight="1">
+    <row r="12" spans="1:18" ht="25.95" customHeight="1">
       <c r="A12" s="24">
         <v>709</v>
       </c>
@@ -27339,7 +27350,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26" customHeight="1">
+    <row r="13" spans="1:18" ht="25.95" customHeight="1">
       <c r="A13" s="24">
         <v>58</v>
       </c>
@@ -27365,7 +27376,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="26" customHeight="1">
+    <row r="14" spans="1:18" ht="25.95" customHeight="1">
       <c r="A14" s="24">
         <v>771</v>
       </c>
@@ -27391,7 +27402,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="26" customHeight="1">
+    <row r="15" spans="1:18" ht="25.95" customHeight="1">
       <c r="A15" s="24">
         <v>387</v>
       </c>
@@ -27443,7 +27454,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="24">
         <v>14</v>
       </c>
@@ -27469,7 +27480,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="26" customHeight="1">
+    <row r="18" spans="1:18" ht="25.95" customHeight="1">
       <c r="A18" s="24">
         <v>344</v>
       </c>
@@ -27495,7 +27506,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26" customHeight="1">
+    <row r="19" spans="1:18" ht="25.95" customHeight="1">
       <c r="A19" s="24">
         <v>541</v>
       </c>
@@ -27521,7 +27532,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="26" customHeight="1">
+    <row r="20" spans="1:18" ht="25.95" customHeight="1">
       <c r="A20" s="22">
         <v>151</v>
       </c>
@@ -27547,7 +27558,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26" customHeight="1">
+    <row r="21" spans="1:18" ht="25.95" customHeight="1">
       <c r="A21" s="24">
         <v>557</v>
       </c>
@@ -27573,7 +27584,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26" customHeight="1">
+    <row r="22" spans="1:18" ht="25.95" customHeight="1">
       <c r="A22" s="24">
         <v>917</v>
       </c>
@@ -27599,7 +27610,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="26" customHeight="1">
+    <row r="23" spans="1:18" ht="25.95" customHeight="1">
       <c r="A23" s="24">
         <v>242</v>
       </c>
@@ -27625,7 +27636,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26" customHeight="1">
+    <row r="24" spans="1:18" ht="25.95" customHeight="1">
       <c r="A24" s="22">
         <v>49</v>
       </c>
@@ -27651,7 +27662,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26" customHeight="1">
+    <row r="25" spans="1:18" ht="25.95" customHeight="1">
       <c r="A25" s="22">
         <v>438</v>
       </c>
@@ -27677,7 +27688,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="26" customHeight="1">
+    <row r="26" spans="1:18" ht="25.95" customHeight="1">
       <c r="A26" s="24">
         <v>125</v>
       </c>
@@ -27703,7 +27714,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26" customHeight="1">
+    <row r="27" spans="1:18" ht="25.95" customHeight="1">
       <c r="A27" s="24">
         <v>680</v>
       </c>
@@ -27729,7 +27740,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="26" customHeight="1">
+    <row r="28" spans="1:18" ht="25.95" customHeight="1">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -27807,7 +27818,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26" customHeight="1">
+    <row r="31" spans="1:18" ht="25.95" customHeight="1">
       <c r="A31" s="21">
         <v>44</v>
       </c>
@@ -27833,7 +27844,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26" customHeight="1">
+    <row r="32" spans="1:18" ht="25.95" customHeight="1">
       <c r="A32" s="21">
         <v>115</v>
       </c>
@@ -27859,7 +27870,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="19" customHeight="1">
+    <row r="33" spans="1:18" ht="19.05" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -27879,7 +27890,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="19" customHeight="1">
+    <row r="34" spans="1:18" ht="19.05" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -27941,7 +27952,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="26" customHeight="1">
+    <row r="37" spans="1:18" ht="25.95" customHeight="1">
       <c r="A37" s="24">
         <v>205</v>
       </c>
@@ -27967,7 +27978,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="26" customHeight="1">
+    <row r="38" spans="1:18" ht="25.95" customHeight="1">
       <c r="A38" s="22">
         <v>300</v>
       </c>
@@ -27993,7 +28004,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26" customHeight="1">
+    <row r="39" spans="1:18" ht="25.95" customHeight="1">
       <c r="A39" s="22">
         <v>91</v>
       </c>
@@ -28019,7 +28030,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="26" customHeight="1">
+    <row r="40" spans="1:18" ht="25.95" customHeight="1">
       <c r="A40" s="21">
         <v>32</v>
       </c>
@@ -30881,36 +30892,36 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
-    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
-    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
-    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
-    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
-    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
-    <hyperlink ref="C38" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
-    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
-    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
-    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C22" r:id="rId16"/>
+    <hyperlink ref="C23" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
+    <hyperlink ref="C26" r:id="rId20"/>
+    <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="C28" r:id="rId22"/>
+    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId24"/>
+    <hyperlink ref="C31" r:id="rId25"/>
+    <hyperlink ref="C32" r:id="rId26"/>
+    <hyperlink ref="C38" r:id="rId27"/>
+    <hyperlink ref="C39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="C41" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="433">
   <si>
     <t>题号</t>
   </si>
@@ -720,9 +720,6 @@
   </si>
   <si>
     <t>解数独</t>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/sudoku-solver/</t>
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/word-ladder/</t>
@@ -1583,7 +1580,37 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>关键代码：记录（行，列，块（(i/3）*3 +j/3）)已经出现过的元素, int[][] row = new int[9][10], int[][] col = new int[9][10], int[][] block = new int[9][10]</t>
+    <r>
+      <t>关键代码：记录（行，列，块（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(i/3）*3 +j/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）)已经出现过的元素, int[][] row = new int[9][10], int[][] col = new int[9][10], int[][] block = new int[9][10]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sudoku-solver/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2488,7 +2515,7 @@
         <v>2.14</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>13</v>
@@ -2525,7 +2552,7 @@
         <v>2.14</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -2551,10 +2578,10 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
@@ -2585,16 +2612,16 @@
         <v>20</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -2623,13 +2650,13 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -2658,10 +2685,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>13</v>
@@ -2693,10 +2720,10 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -2728,10 +2755,10 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -2763,10 +2790,10 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>13</v>
@@ -2797,13 +2824,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F14" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -2834,13 +2861,13 @@
         <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E15" s="43">
         <v>2.16</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -2871,13 +2898,13 @@
         <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2908,13 +2935,13 @@
         <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>13</v>
@@ -3021,7 +3048,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" s="43">
         <v>3.2</v>
@@ -3052,13 +3079,13 @@
         <v>43</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>13</v>
@@ -3089,13 +3116,13 @@
         <v>45</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>13</v>
@@ -3126,13 +3153,13 @@
         <v>47</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E25" s="43">
         <v>3.2</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>13</v>
@@ -3163,13 +3190,13 @@
         <v>49</v>
       </c>
       <c r="D26" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>342</v>
-      </c>
       <c r="F26" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -3200,13 +3227,13 @@
         <v>51</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>13</v>
@@ -3237,10 +3264,10 @@
         <v>53</v>
       </c>
       <c r="D28" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E28" s="43" t="s">
         <v>345</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>346</v>
       </c>
       <c r="F28" s="51" t="s">
         <v>13</v>
@@ -3274,10 +3301,10 @@
         <v>55</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>374</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>375</v>
       </c>
       <c r="F29" s="51" t="s">
         <v>13</v>
@@ -3995,7 +4022,7 @@
         <v>59</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E5" s="28">
         <v>2.2200000000000002</v>
@@ -4030,7 +4057,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="26">
         <v>2.2200000000000002</v>
@@ -4094,7 +4121,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" s="26">
         <v>2.23</v>
@@ -4127,7 +4154,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E9" s="26">
         <v>2.23</v>
@@ -4160,7 +4187,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E10" s="26">
         <v>2.23</v>
@@ -4193,7 +4220,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="26">
         <v>2.23</v>
@@ -4226,7 +4253,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12" s="26">
         <v>2.23</v>
@@ -4259,7 +4286,7 @@
         <v>75</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E13" s="26">
         <v>2.23</v>
@@ -4290,10 +4317,10 @@
         <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>314</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>315</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -4405,7 +4432,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" s="34">
         <v>4.0999999999999996</v>
@@ -4436,7 +4463,7 @@
         <v>81</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="34">
         <v>4.0999999999999996</v>
@@ -7651,7 +7678,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="37"/>
@@ -7681,13 +7708,13 @@
         <v>85</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E6" s="38">
         <v>2.2799999999999998</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -7718,7 +7745,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E7" s="39">
         <v>2.2799999999999998</v>
@@ -7749,7 +7776,7 @@
         <v>89</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E8" s="39">
         <v>2.2799999999999998</v>
@@ -7774,13 +7801,13 @@
         <v>104</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="39">
         <v>2.2799999999999998</v>
@@ -7811,7 +7838,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E10" s="39">
         <v>2.2799999999999998</v>
@@ -7842,7 +7869,7 @@
         <v>94</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" s="39">
         <v>3.1</v>
@@ -7873,7 +7900,7 @@
         <v>96</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E12" s="39">
         <v>3.1</v>
@@ -7904,7 +7931,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="39">
         <v>3.1</v>
@@ -7935,13 +7962,13 @@
         <v>100</v>
       </c>
       <c r="D14" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="38" t="s">
         <v>370</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>371</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -7972,13 +7999,13 @@
         <v>102</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>327</v>
-      </c>
       <c r="F15" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -8009,13 +8036,13 @@
         <v>104</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -8124,7 +8151,7 @@
         <v>106</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E21" s="39">
         <v>3.1</v>
@@ -8155,7 +8182,7 @@
         <v>108</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E22" s="39">
         <v>3.1</v>
@@ -8186,7 +8213,7 @@
         <v>110</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E23" s="39">
         <v>3.1</v>
@@ -8217,7 +8244,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24" s="39">
         <v>3.1</v>
@@ -8248,7 +8275,7 @@
         <v>114</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25" s="39">
         <v>3.1</v>
@@ -11751,13 +11778,13 @@
         <v>102</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="14">
         <v>3.14</v>
@@ -11789,16 +11816,16 @@
         <v>118</v>
       </c>
       <c r="C6" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>355</v>
-      </c>
       <c r="F6" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -11823,19 +11850,19 @@
         <v>22</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>359</v>
-      </c>
       <c r="F7" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>13</v>
@@ -11866,10 +11893,10 @@
         <v>120</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
@@ -11897,16 +11924,16 @@
         <v>69</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>121</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>
@@ -11934,16 +11961,16 @@
         <v>367</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>122</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>13</v>
@@ -12055,10 +12082,10 @@
         <v>124</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>382</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>383</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>13</v>
@@ -12092,10 +12119,10 @@
         <v>126</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>382</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>383</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -12129,10 +12156,10 @@
         <v>128</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>13</v>
@@ -12166,10 +12193,10 @@
         <v>130</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>13</v>
@@ -12203,10 +12230,10 @@
         <v>132</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>13</v>
@@ -12240,10 +12267,10 @@
         <v>134</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" s="34" t="s">
         <v>387</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>388</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>13</v>
@@ -12277,10 +12304,10 @@
         <v>136</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>389</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>390</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>13</v>
@@ -12314,10 +12341,10 @@
         <v>138</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>393</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>394</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>13</v>
@@ -12345,16 +12372,16 @@
         <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>392</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>13</v>
@@ -12388,10 +12415,10 @@
         <v>140</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="34" t="s">
         <v>396</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>397</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>13</v>
@@ -12425,10 +12452,10 @@
         <v>142</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>398</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>399</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>13</v>
@@ -12462,10 +12489,10 @@
         <v>144</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>400</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>401</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>13</v>
@@ -12499,10 +12526,10 @@
         <v>146</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>13</v>
@@ -15338,8 +15365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -15466,7 +15493,7 @@
         <v>150</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5" s="14">
         <v>4.1900000000000004</v>
@@ -15497,7 +15524,7 @@
         <v>152</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E6" s="54">
         <v>4.1900000000000004</v>
@@ -15526,7 +15553,7 @@
         <v>154</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E7" s="34">
         <v>4.21</v>
@@ -15555,10 +15582,10 @@
         <v>155</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>406</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>407</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>13</v>
@@ -15592,10 +15619,10 @@
         <v>157</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>
@@ -15629,7 +15656,7 @@
         <v>159</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" s="55">
         <v>4.21</v>
@@ -15666,7 +15693,7 @@
         <v>161</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" s="34">
         <v>4.21</v>
@@ -15695,7 +15722,7 @@
         <v>163</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12" s="54">
         <v>4.21</v>
@@ -15724,10 +15751,10 @@
         <v>165</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>413</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>13</v>
@@ -15761,10 +15788,10 @@
         <v>167</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>13</v>
@@ -15798,10 +15825,10 @@
         <v>169</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>13</v>
@@ -15835,10 +15862,10 @@
         <v>170</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>13</v>
@@ -15872,10 +15899,10 @@
         <v>172</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>417</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>418</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>13</v>
@@ -15909,10 +15936,10 @@
         <v>174</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>419</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>420</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>13</v>
@@ -15946,10 +15973,10 @@
         <v>176</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>13</v>
@@ -15983,10 +16010,10 @@
         <v>178</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>13</v>
@@ -18981,8 +19008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -19111,7 +19138,7 @@
         <v>215</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E5" s="23">
         <v>4.25</v>
@@ -19143,7 +19170,7 @@
         <v>217</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6" s="54">
         <v>4.28</v>
@@ -19173,7 +19200,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" s="54">
         <v>4.28</v>
@@ -19203,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="54">
         <v>4.29</v>
@@ -19233,7 +19260,7 @@
         <v>221</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="54">
         <v>4.29</v>
@@ -19263,7 +19290,7 @@
         <v>222</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E10" s="54">
         <v>5.0999999999999996</v>
@@ -19293,7 +19320,7 @@
         <v>223</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E11" s="54">
         <v>5.0999999999999996</v>
@@ -19323,9 +19350,11 @@
         <v>104</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="E12" s="19"/>
+        <v>429</v>
+      </c>
+      <c r="E12" s="54">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -19351,9 +19380,11 @@
         <v>226</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="19"/>
+        <v>430</v>
+      </c>
+      <c r="E13" s="54">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -19375,11 +19406,15 @@
       <c r="B14" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="C14" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="E14" s="54">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -19402,7 +19437,7 @@
         <v>131</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -19428,7 +19463,7 @@
         <v>118</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -19451,10 +19486,10 @@
         <v>1091</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -19477,10 +19512,10 @@
         <v>773</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -22910,11 +22945,11 @@
     </row>
     <row r="2" spans="1:18" ht="48" customHeight="1">
       <c r="A2" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -22979,10 +23014,10 @@
         <v>191</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="23"/>
@@ -23007,10 +23042,10 @@
         <v>231</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -23033,10 +23068,10 @@
         <v>190</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -23062,7 +23097,7 @@
         <v>103</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -23085,10 +23120,10 @@
         <v>52</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -23111,10 +23146,10 @@
         <v>338</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -23137,10 +23172,10 @@
         <v>146</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -23245,10 +23280,10 @@
         <v>1122</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -23297,10 +23332,10 @@
         <v>1244</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -23323,10 +23358,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -23349,10 +23384,10 @@
         <v>493</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -27078,11 +27113,11 @@
     </row>
     <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1">
       <c r="A2" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -27254,7 +27289,7 @@
         <v>168</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -27277,10 +27312,10 @@
         <v>746</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -27303,10 +27338,10 @@
         <v>72</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -27329,10 +27364,10 @@
         <v>709</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -27355,10 +27390,10 @@
         <v>58</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -27381,10 +27416,10 @@
         <v>771</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -27407,10 +27442,10 @@
         <v>387</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -27433,10 +27468,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>274</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -27459,10 +27494,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -27485,10 +27520,10 @@
         <v>344</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -27511,10 +27546,10 @@
         <v>541</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -27537,10 +27572,10 @@
         <v>151</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -27563,10 +27598,10 @@
         <v>557</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -27589,10 +27624,10 @@
         <v>917</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -27667,10 +27702,10 @@
         <v>438</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -27693,10 +27728,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -27719,10 +27754,10 @@
         <v>680</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -27745,10 +27780,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -27797,10 +27832,10 @@
         <v>10</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -27823,10 +27858,10 @@
         <v>44</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -27849,10 +27884,10 @@
         <v>115</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -27957,10 +27992,10 @@
         <v>205</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -27983,10 +28018,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -28012,7 +28047,7 @@
         <v>190</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -28061,10 +28096,10 @@
         <v>818</v>
       </c>
       <c r="B41" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="434">
   <si>
     <t>题号</t>
   </si>
@@ -1611,6 +1611,10 @@
   </si>
   <si>
     <t>dfs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向BFS模板</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -19008,8 +19012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -19439,7 +19443,9 @@
       <c r="C15" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="19" t="s">
+        <v>433</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="435">
   <si>
     <t>题号</t>
   </si>
@@ -1611,6 +1611,10 @@
   </si>
   <si>
     <t>dfs</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向BFS模板</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2043,7 +2047,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19012,8 +19016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -19446,7 +19450,9 @@
       <c r="D15" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="E15" s="19"/>
+      <c r="E15" s="54">
+        <v>5.3</v>
+      </c>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -19471,8 +19477,12 @@
       <c r="C16" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="E16" s="54">
+        <v>5.3</v>
+      </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="436">
   <si>
     <t>题号</t>
   </si>
@@ -1619,6 +1619,10 @@
   </si>
   <si>
     <t>双向BFS模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs(8联通)或者启发式搜索</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -19016,8 +19020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -19507,8 +19511,12 @@
       <c r="C17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="54">
+        <v>5.3</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间-算法训练营\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4039C7A8-2DAE-804B-9BE2-4745346F28BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="439">
   <si>
     <t>题号</t>
   </si>
@@ -1098,7 +1099,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1124,7 +1125,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1151,7 +1152,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1187,7 +1188,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1410,7 +1411,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1420,7 +1421,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1587,7 +1588,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1597,7 +1598,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1625,22 +1626,33 @@
     <t>bfs(8联通)或者启发式搜索</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>x&amp;(x-1) 清除末位1</t>
+  </si>
+  <si>
+    <t>2的幂二进制只有一个1，需要先把int转成long,防止溢出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">循环将1移动到对称的位置上，(n&gt;&gt;i)&amp;1 看末位是否为1，
+ret|= 1&lt;&lt;31-I,将1放在对称位置
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1648,26 +1660,26 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1675,13 +1687,13 @@
       <u/>
       <sz val="9"/>
       <color indexed="30"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1690,14 +1702,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1705,14 +1717,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2020,8 +2032,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2051,7 +2063,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,26 +2404,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -2449,7 +2461,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="31.95" customHeight="1">
+    <row r="2" spans="1:17" ht="32" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
@@ -2493,7 +2505,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="22.05" customHeight="1">
+    <row r="4" spans="1:17" ht="22" customHeight="1">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -2613,7 +2625,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="46.05" customHeight="1">
+    <row r="8" spans="1:17" ht="46" customHeight="1">
       <c r="A8" s="5">
         <v>15</v>
       </c>
@@ -2650,7 +2662,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="61.05" customHeight="1">
+    <row r="9" spans="1:17" ht="61" customHeight="1">
       <c r="A9" s="10">
         <v>206</v>
       </c>
@@ -2685,7 +2697,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="43.95" customHeight="1">
+    <row r="10" spans="1:17" ht="44" customHeight="1">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -2720,7 +2732,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="43.05" customHeight="1">
+    <row r="11" spans="1:17" ht="43" customHeight="1">
       <c r="A11" s="10">
         <v>141</v>
       </c>
@@ -2790,7 +2802,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="43.05" customHeight="1">
+    <row r="13" spans="1:17" ht="43" customHeight="1">
       <c r="A13" s="11">
         <v>25</v>
       </c>
@@ -2825,7 +2837,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="40.049999999999997" customHeight="1">
+    <row r="14" spans="1:17" ht="40" customHeight="1">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -2862,7 +2874,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="46.05" customHeight="1">
+    <row r="15" spans="1:17" ht="46" customHeight="1">
       <c r="A15" s="10">
         <v>155</v>
       </c>
@@ -3030,7 +3042,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="22.05" customHeight="1">
+    <row r="21" spans="1:17" ht="22" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -3049,7 +3061,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="25.95" customHeight="1">
+    <row r="22" spans="1:17" ht="26" customHeight="1">
       <c r="A22" s="10">
         <v>26</v>
       </c>
@@ -3117,7 +3129,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="25.95" customHeight="1">
+    <row r="24" spans="1:17" ht="26" customHeight="1">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3228,7 +3240,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="61.2" customHeight="1">
+    <row r="27" spans="1:17" ht="61.25" customHeight="1">
       <c r="A27" s="10">
         <v>66</v>
       </c>
@@ -3265,7 +3277,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="61.2" customHeight="1">
+    <row r="28" spans="1:17" ht="61.25" customHeight="1">
       <c r="A28" s="5">
         <v>641</v>
       </c>
@@ -3302,7 +3314,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="49.95" customHeight="1">
+    <row r="29" spans="1:17" ht="50" customHeight="1">
       <c r="A29" s="11">
         <v>42</v>
       </c>
@@ -3873,28 +3885,28 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C27" r:id="rId19"/>
-    <hyperlink ref="C28" r:id="rId20"/>
-    <hyperlink ref="C29" r:id="rId21"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -3903,26 +3915,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="45.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="27.453125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="34.6328125" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" customWidth="1"/>
-    <col min="8" max="8" width="29.81640625" customWidth="1"/>
-    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -4023,7 +4035,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="25.95" customHeight="1">
+    <row r="5" spans="1:17" ht="26" customHeight="1">
       <c r="A5" s="10">
         <v>242</v>
       </c>
@@ -4122,7 +4134,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="25.95" customHeight="1">
+    <row r="8" spans="1:17" ht="26" customHeight="1">
       <c r="A8" s="5">
         <v>94</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="25.95" customHeight="1">
+    <row r="9" spans="1:17" ht="26" customHeight="1">
       <c r="A9" s="5">
         <v>144</v>
       </c>
@@ -4188,7 +4200,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="25.95" customHeight="1">
+    <row r="10" spans="1:17" ht="26" customHeight="1">
       <c r="A10" s="10">
         <v>590</v>
       </c>
@@ -4221,7 +4233,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="25.95" customHeight="1">
+    <row r="11" spans="1:17" ht="26" customHeight="1">
       <c r="A11" s="10">
         <v>589</v>
       </c>
@@ -4254,7 +4266,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="25.95" customHeight="1">
+    <row r="12" spans="1:17" ht="26" customHeight="1">
       <c r="A12" s="5">
         <v>429</v>
       </c>
@@ -4318,7 +4330,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="25.95" customHeight="1">
+    <row r="14" spans="1:17" ht="26" customHeight="1">
       <c r="A14" s="11">
         <v>239</v>
       </c>
@@ -4433,7 +4445,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="25.95" customHeight="1">
+    <row r="19" spans="1:17" ht="26" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -4464,7 +4476,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="25.95" customHeight="1">
+    <row r="20" spans="1:17" ht="26" customHeight="1">
       <c r="A20" s="5">
         <v>347</v>
       </c>
@@ -7544,18 +7556,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -7563,25 +7575,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView topLeftCell="C9" zoomScale="125" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="58.6328125" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="4.6328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="9" width="5.1796875" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -7619,7 +7631,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="37.049999999999997" customHeight="1">
+    <row r="2" spans="1:17" ht="37" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
@@ -7682,7 +7694,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="25.95" customHeight="1">
+    <row r="5" spans="1:17" ht="26" customHeight="1">
       <c r="A5" s="10">
         <v>70</v>
       </c>
@@ -7709,7 +7721,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="25.95" customHeight="1">
+    <row r="6" spans="1:17" ht="26" customHeight="1">
       <c r="A6" s="5">
         <v>22</v>
       </c>
@@ -8000,7 +8012,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="70.95" customHeight="1">
+    <row r="15" spans="1:17" ht="71" customHeight="1">
       <c r="A15" s="5">
         <v>17</v>
       </c>
@@ -11642,23 +11654,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -11666,25 +11678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="7" width="5.453125" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" customWidth="1"/>
-    <col min="9" max="9" width="5.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -11785,7 +11797,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="25.95" customHeight="1">
+    <row r="5" spans="1:17" ht="26" customHeight="1">
       <c r="A5" s="5">
         <v>102</v>
       </c>
@@ -11820,7 +11832,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="56.55" customHeight="1">
+    <row r="6" spans="1:17" ht="56.5" customHeight="1">
       <c r="A6" s="5">
         <v>433</v>
       </c>
@@ -11857,7 +11869,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.2" customHeight="1">
+    <row r="7" spans="1:17" ht="73.25" customHeight="1">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -11894,7 +11906,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="25.95" customHeight="1">
+    <row r="8" spans="1:17" ht="26" customHeight="1">
       <c r="A8" s="5">
         <v>515</v>
       </c>
@@ -11968,7 +11980,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="25.95" customHeight="1">
+    <row r="10" spans="1:17" ht="26" customHeight="1">
       <c r="A10" s="10">
         <v>367</v>
       </c>
@@ -12083,7 +12095,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="25.95" customHeight="1">
+    <row r="15" spans="1:17" ht="26" customHeight="1">
       <c r="A15" s="10">
         <v>860</v>
       </c>
@@ -12120,7 +12132,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="25.95" customHeight="1">
+    <row r="16" spans="1:17" ht="26" customHeight="1">
       <c r="A16" s="10">
         <v>122</v>
       </c>
@@ -12157,7 +12169,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="25.95" customHeight="1">
+    <row r="17" spans="1:17" ht="26" customHeight="1">
       <c r="A17" s="10">
         <v>455</v>
       </c>
@@ -12194,7 +12206,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="61.05" customHeight="1">
+    <row r="18" spans="1:17" ht="61" customHeight="1">
       <c r="A18" s="10">
         <v>874</v>
       </c>
@@ -12231,7 +12243,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="25.95" customHeight="1">
+    <row r="19" spans="1:17" ht="26" customHeight="1">
       <c r="A19" s="5">
         <v>127</v>
       </c>
@@ -12268,7 +12280,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="25.95" customHeight="1">
+    <row r="20" spans="1:17" ht="26" customHeight="1">
       <c r="A20" s="5">
         <v>200</v>
       </c>
@@ -12305,7 +12317,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="25.95" customHeight="1">
+    <row r="21" spans="1:17" ht="26" customHeight="1">
       <c r="A21" s="5">
         <v>529</v>
       </c>
@@ -12379,7 +12391,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="25.95" customHeight="1">
+    <row r="23" spans="1:17" ht="26" customHeight="1">
       <c r="A23" s="5">
         <v>33</v>
       </c>
@@ -12416,7 +12428,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="25.95" customHeight="1">
+    <row r="24" spans="1:17" ht="26" customHeight="1">
       <c r="A24" s="5">
         <v>74</v>
       </c>
@@ -12490,7 +12502,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="25.95" customHeight="1">
+    <row r="26" spans="1:17" ht="26" customHeight="1">
       <c r="A26" s="11">
         <v>126</v>
       </c>
@@ -12527,7 +12539,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="112.2" customHeight="1">
+    <row r="27" spans="1:17" ht="112.25" customHeight="1">
       <c r="A27" s="11">
         <v>45</v>
       </c>
@@ -15348,25 +15360,25 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="/description"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description"/>
-    <hyperlink ref="C7" r:id="rId3" location="/description"/>
-    <hyperlink ref="C8" r:id="rId4" location="/description"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C15" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C21" r:id="rId13"/>
-    <hyperlink ref="C22" r:id="rId14"/>
-    <hyperlink ref="C23" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
-    <hyperlink ref="C27" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId1" location="/description" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" location="/description" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" location="/description" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15374,26 +15386,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" customWidth="1"/>
-    <col min="4" max="4" width="62.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" customWidth="1"/>
-    <col min="8" max="8" width="4.453125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -15554,7 +15566,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.05" customHeight="1">
+    <row r="7" spans="1:17" ht="73" customHeight="1">
       <c r="A7" s="5">
         <v>1143</v>
       </c>
@@ -15583,7 +15595,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="25.95" customHeight="1">
+    <row r="8" spans="1:17" ht="26" customHeight="1">
       <c r="A8" s="10">
         <v>70</v>
       </c>
@@ -15657,7 +15669,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="85.05" customHeight="1">
+    <row r="10" spans="1:17" ht="85" customHeight="1">
       <c r="A10" s="10">
         <v>53</v>
       </c>
@@ -15723,7 +15735,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="25.95" customHeight="1">
+    <row r="12" spans="1:17" ht="26" customHeight="1">
       <c r="A12" s="22">
         <v>322</v>
       </c>
@@ -15752,7 +15764,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="127.95" customHeight="1">
+    <row r="13" spans="1:17" ht="128" customHeight="1">
       <c r="A13" s="10">
         <v>198</v>
       </c>
@@ -15789,7 +15801,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="25.95" customHeight="1">
+    <row r="14" spans="1:17" ht="26" customHeight="1">
       <c r="A14" s="5">
         <v>213</v>
       </c>
@@ -15826,7 +15838,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="145.94999999999999" customHeight="1">
+    <row r="15" spans="1:17" ht="146" customHeight="1">
       <c r="A15" s="10">
         <v>121</v>
       </c>
@@ -15937,7 +15949,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="106.05" customHeight="1">
+    <row r="18" spans="1:17" ht="106" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15974,7 +15986,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="100.95" customHeight="1">
+    <row r="19" spans="1:17" ht="101" customHeight="1">
       <c r="A19" s="11">
         <v>188</v>
       </c>
@@ -16069,7 +16081,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="25.95" customHeight="1">
+    <row r="22" spans="1:17" ht="26" customHeight="1">
       <c r="A22" s="22">
         <v>279</v>
       </c>
@@ -16094,7 +16106,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="25.95" customHeight="1">
+    <row r="23" spans="1:17" ht="26" customHeight="1">
       <c r="A23" s="21">
         <v>72</v>
       </c>
@@ -16144,7 +16156,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="25.95" customHeight="1">
+    <row r="25" spans="1:17" ht="26" customHeight="1">
       <c r="A25" s="21">
         <v>45</v>
       </c>
@@ -16169,7 +16181,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="25.95" customHeight="1">
+    <row r="26" spans="1:17" ht="26" customHeight="1">
       <c r="A26" s="21">
         <v>980</v>
       </c>
@@ -16194,7 +16206,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="25.95" customHeight="1">
+    <row r="27" spans="1:17" ht="26" customHeight="1">
       <c r="A27" s="22">
         <v>518</v>
       </c>
@@ -16297,7 +16309,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="25.95" customHeight="1">
+    <row r="32" spans="1:17" ht="26" customHeight="1">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -16371,7 +16383,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" ht="25.95" customHeight="1">
+    <row r="34" spans="1:17" ht="26" customHeight="1">
       <c r="A34" s="5">
         <v>221</v>
       </c>
@@ -16408,7 +16420,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="25.95" customHeight="1">
+    <row r="35" spans="1:17" ht="26" customHeight="1">
       <c r="A35" s="5">
         <v>621</v>
       </c>
@@ -16445,7 +16457,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="25.95" customHeight="1">
+    <row r="36" spans="1:17" ht="26" customHeight="1">
       <c r="A36" s="5">
         <v>647</v>
       </c>
@@ -16482,7 +16494,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" ht="25.95" customHeight="1">
+    <row r="37" spans="1:17" ht="26" customHeight="1">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -16519,7 +16531,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="25.95" customHeight="1">
+    <row r="38" spans="1:17" ht="26" customHeight="1">
       <c r="A38" s="11">
         <v>363</v>
       </c>
@@ -16593,7 +16605,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="25.95" customHeight="1">
+    <row r="40" spans="1:17" ht="26" customHeight="1">
       <c r="A40" s="11">
         <v>410</v>
       </c>
@@ -16630,7 +16642,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="25.95" customHeight="1">
+    <row r="41" spans="1:17" ht="26" customHeight="1">
       <c r="A41" s="11">
         <v>552</v>
       </c>
@@ -16667,7 +16679,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="25.95" customHeight="1">
+    <row r="42" spans="1:17" ht="26" customHeight="1">
       <c r="A42" s="11">
         <v>76</v>
       </c>
@@ -16704,7 +16716,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="25.95" customHeight="1">
+    <row r="43" spans="1:17" ht="26" customHeight="1">
       <c r="A43" s="11">
         <v>312</v>
       </c>
@@ -18975,66 +18987,66 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11" location="/description"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C19" r:id="rId15"/>
-    <hyperlink ref="C20" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C23" r:id="rId18"/>
-    <hyperlink ref="C24" r:id="rId19"/>
-    <hyperlink ref="C25" r:id="rId20"/>
-    <hyperlink ref="C26" r:id="rId21"/>
-    <hyperlink ref="C27" r:id="rId22"/>
-    <hyperlink ref="C32" r:id="rId23"/>
-    <hyperlink ref="C33" r:id="rId24"/>
-    <hyperlink ref="C34" r:id="rId25"/>
-    <hyperlink ref="C35" r:id="rId26"/>
-    <hyperlink ref="C36" r:id="rId27"/>
-    <hyperlink ref="C37" r:id="rId28"/>
-    <hyperlink ref="C38" r:id="rId29"/>
-    <hyperlink ref="C39" r:id="rId30"/>
-    <hyperlink ref="C40" r:id="rId31"/>
-    <hyperlink ref="C41" r:id="rId32"/>
-    <hyperlink ref="C42" r:id="rId33"/>
-    <hyperlink ref="C43" r:id="rId34"/>
-    <hyperlink ref="D17" r:id="rId35"/>
-    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" location="/description" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="C34" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="C36" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="C37" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="C38" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="C39" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="C40" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="C41" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="42.36328125" customWidth="1"/>
-    <col min="4" max="4" width="115.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="7" width="4.36328125" customWidth="1"/>
-    <col min="8" max="9" width="4.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="115.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -19139,7 +19151,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="37.950000000000003" customHeight="1">
+    <row r="5" spans="1:18" ht="38" customHeight="1">
       <c r="A5" s="22">
         <v>208</v>
       </c>
@@ -19171,7 +19183,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="31.95" customHeight="1">
+    <row r="6" spans="1:18" ht="32" customHeight="1">
       <c r="A6" s="21">
         <v>212</v>
       </c>
@@ -19201,7 +19213,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="58.95" customHeight="1">
+    <row r="7" spans="1:18" ht="59" customHeight="1">
       <c r="A7" s="22">
         <v>547</v>
       </c>
@@ -19231,7 +19243,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="25.95" customHeight="1">
+    <row r="8" spans="1:18" ht="26" customHeight="1">
       <c r="A8" s="22">
         <v>200</v>
       </c>
@@ -19261,7 +19273,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="73.05" customHeight="1">
+    <row r="9" spans="1:18" ht="73" customHeight="1">
       <c r="A9" s="22">
         <v>130</v>
       </c>
@@ -19321,7 +19333,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="25.95" customHeight="1">
+    <row r="11" spans="1:18" ht="26" customHeight="1">
       <c r="A11" s="22">
         <v>22</v>
       </c>
@@ -19471,7 +19483,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="25.95" customHeight="1">
+    <row r="16" spans="1:18" ht="26" customHeight="1">
       <c r="A16" s="22">
         <v>433</v>
       </c>
@@ -19501,7 +19513,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="25.95" customHeight="1">
+    <row r="17" spans="1:18" ht="26" customHeight="1">
       <c r="A17" s="22">
         <v>1091</v>
       </c>
@@ -22886,22 +22898,22 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/"/>
-    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -22909,26 +22921,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" customWidth="1"/>
-    <col min="9" max="9" width="4.6328125" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -23033,7 +23045,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="25.95" customHeight="1">
+    <row r="5" spans="1:18" ht="26" customHeight="1">
       <c r="A5" s="24">
         <v>191</v>
       </c>
@@ -23043,8 +23055,12 @@
       <c r="C5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="23"/>
+      <c r="D5" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="23">
+        <v>5.6</v>
+      </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
@@ -23061,7 +23077,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="25.95" customHeight="1">
+    <row r="6" spans="1:18" ht="26" customHeight="1">
       <c r="A6" s="24">
         <v>231</v>
       </c>
@@ -23071,8 +23087,12 @@
       <c r="C6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="E6" s="23">
+        <v>5.6</v>
+      </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -23087,7 +23107,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="25.95" customHeight="1">
+    <row r="7" spans="1:18" ht="85" customHeight="1">
       <c r="A7" s="24">
         <v>190</v>
       </c>
@@ -23097,8 +23117,12 @@
       <c r="C7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="23">
+        <v>5.6</v>
+      </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -23113,7 +23137,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="25.95" customHeight="1">
+    <row r="8" spans="1:18" ht="85" customHeight="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -23139,7 +23163,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="25.95" customHeight="1">
+    <row r="9" spans="1:18" ht="26" customHeight="1">
       <c r="A9" s="21">
         <v>52</v>
       </c>
@@ -23165,7 +23189,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="25.95" customHeight="1">
+    <row r="10" spans="1:18" ht="26" customHeight="1">
       <c r="A10" s="22">
         <v>338</v>
       </c>
@@ -23299,7 +23323,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="25.95" customHeight="1">
+    <row r="16" spans="1:18" ht="26" customHeight="1">
       <c r="A16" s="24">
         <v>1122</v>
       </c>
@@ -23325,7 +23349,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="25.95" customHeight="1">
+    <row r="17" spans="1:18" ht="26" customHeight="1">
       <c r="A17" s="24">
         <v>242</v>
       </c>
@@ -23351,7 +23375,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="25.95" customHeight="1">
+    <row r="18" spans="1:18" ht="26" customHeight="1">
       <c r="A18" s="22">
         <v>1244</v>
       </c>
@@ -23377,7 +23401,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="25.95" customHeight="1">
+    <row r="19" spans="1:18" ht="26" customHeight="1">
       <c r="A19" s="22">
         <v>56</v>
       </c>
@@ -23403,7 +23427,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="25.95" customHeight="1">
+    <row r="20" spans="1:18" ht="26" customHeight="1">
       <c r="A20" s="21">
         <v>493</v>
       </c>
@@ -27059,44 +27083,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C16" r:id="rId8"/>
-    <hyperlink ref="C17" r:id="rId9"/>
-    <hyperlink ref="C18" r:id="rId10"/>
-    <hyperlink ref="C19" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.5" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="4.453125" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="18" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="18" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -27135,7 +27159,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1">
+    <row r="2" spans="1:18" ht="41" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>257</v>
       </c>
@@ -27201,7 +27225,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="25.95" customHeight="1">
+    <row r="5" spans="1:18" ht="26" customHeight="1">
       <c r="A5" s="24">
         <v>70</v>
       </c>
@@ -27227,7 +27251,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="25.95" customHeight="1">
+    <row r="6" spans="1:18" ht="26" customHeight="1">
       <c r="A6" s="22">
         <v>62</v>
       </c>
@@ -27253,7 +27277,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="25.95" customHeight="1">
+    <row r="7" spans="1:18" ht="26" customHeight="1">
       <c r="A7" s="24">
         <v>198</v>
       </c>
@@ -27279,7 +27303,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="25.95" customHeight="1">
+    <row r="8" spans="1:18" ht="26" customHeight="1">
       <c r="A8" s="22">
         <v>64</v>
       </c>
@@ -27305,7 +27329,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="25.95" customHeight="1">
+    <row r="9" spans="1:18" ht="26" customHeight="1">
       <c r="A9" s="24">
         <v>121</v>
       </c>
@@ -27331,7 +27355,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="25.95" customHeight="1">
+    <row r="10" spans="1:18" ht="26" customHeight="1">
       <c r="A10" s="24">
         <v>746</v>
       </c>
@@ -27357,7 +27381,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="25.95" customHeight="1">
+    <row r="11" spans="1:18" ht="26" customHeight="1">
       <c r="A11" s="21">
         <v>72</v>
       </c>
@@ -27383,7 +27407,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="25.95" customHeight="1">
+    <row r="12" spans="1:18" ht="26" customHeight="1">
       <c r="A12" s="24">
         <v>709</v>
       </c>
@@ -27409,7 +27433,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="25.95" customHeight="1">
+    <row r="13" spans="1:18" ht="26" customHeight="1">
       <c r="A13" s="24">
         <v>58</v>
       </c>
@@ -27435,7 +27459,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="25.95" customHeight="1">
+    <row r="14" spans="1:18" ht="26" customHeight="1">
       <c r="A14" s="24">
         <v>771</v>
       </c>
@@ -27461,7 +27485,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="25.95" customHeight="1">
+    <row r="15" spans="1:18" ht="26" customHeight="1">
       <c r="A15" s="24">
         <v>387</v>
       </c>
@@ -27513,7 +27537,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="25.95" customHeight="1">
+    <row r="17" spans="1:18" ht="26" customHeight="1">
       <c r="A17" s="24">
         <v>14</v>
       </c>
@@ -27539,7 +27563,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="25.95" customHeight="1">
+    <row r="18" spans="1:18" ht="26" customHeight="1">
       <c r="A18" s="24">
         <v>344</v>
       </c>
@@ -27565,7 +27589,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="25.95" customHeight="1">
+    <row r="19" spans="1:18" ht="26" customHeight="1">
       <c r="A19" s="24">
         <v>541</v>
       </c>
@@ -27591,7 +27615,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="25.95" customHeight="1">
+    <row r="20" spans="1:18" ht="26" customHeight="1">
       <c r="A20" s="22">
         <v>151</v>
       </c>
@@ -27617,7 +27641,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="25.95" customHeight="1">
+    <row r="21" spans="1:18" ht="26" customHeight="1">
       <c r="A21" s="24">
         <v>557</v>
       </c>
@@ -27643,7 +27667,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="25.95" customHeight="1">
+    <row r="22" spans="1:18" ht="26" customHeight="1">
       <c r="A22" s="24">
         <v>917</v>
       </c>
@@ -27669,7 +27693,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="25.95" customHeight="1">
+    <row r="23" spans="1:18" ht="26" customHeight="1">
       <c r="A23" s="24">
         <v>242</v>
       </c>
@@ -27695,7 +27719,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="25.95" customHeight="1">
+    <row r="24" spans="1:18" ht="26" customHeight="1">
       <c r="A24" s="22">
         <v>49</v>
       </c>
@@ -27721,7 +27745,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="25.95" customHeight="1">
+    <row r="25" spans="1:18" ht="26" customHeight="1">
       <c r="A25" s="22">
         <v>438</v>
       </c>
@@ -27747,7 +27771,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="25.95" customHeight="1">
+    <row r="26" spans="1:18" ht="26" customHeight="1">
       <c r="A26" s="24">
         <v>125</v>
       </c>
@@ -27773,7 +27797,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="25.95" customHeight="1">
+    <row r="27" spans="1:18" ht="26" customHeight="1">
       <c r="A27" s="24">
         <v>680</v>
       </c>
@@ -27799,7 +27823,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="25.95" customHeight="1">
+    <row r="28" spans="1:18" ht="26" customHeight="1">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -27877,7 +27901,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="25.95" customHeight="1">
+    <row r="31" spans="1:18" ht="26" customHeight="1">
       <c r="A31" s="21">
         <v>44</v>
       </c>
@@ -27903,7 +27927,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="25.95" customHeight="1">
+    <row r="32" spans="1:18" ht="26" customHeight="1">
       <c r="A32" s="21">
         <v>115</v>
       </c>
@@ -27929,7 +27953,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="19.05" customHeight="1">
+    <row r="33" spans="1:18" ht="19" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -27949,7 +27973,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="19.05" customHeight="1">
+    <row r="34" spans="1:18" ht="19" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -28011,7 +28035,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="25.95" customHeight="1">
+    <row r="37" spans="1:18" ht="26" customHeight="1">
       <c r="A37" s="24">
         <v>205</v>
       </c>
@@ -28037,7 +28061,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="25.95" customHeight="1">
+    <row r="38" spans="1:18" ht="26" customHeight="1">
       <c r="A38" s="22">
         <v>300</v>
       </c>
@@ -28063,7 +28087,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="25.95" customHeight="1">
+    <row r="39" spans="1:18" ht="26" customHeight="1">
       <c r="A39" s="22">
         <v>91</v>
       </c>
@@ -28089,7 +28113,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="25.95" customHeight="1">
+    <row r="40" spans="1:18" ht="26" customHeight="1">
       <c r="A40" s="21">
         <v>32</v>
       </c>
@@ -30951,36 +30975,36 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C7" r:id="rId3"/>
-    <hyperlink ref="C8" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="C11" r:id="rId7"/>
-    <hyperlink ref="C12" r:id="rId8"/>
-    <hyperlink ref="C13" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="C21" r:id="rId15"/>
-    <hyperlink ref="C22" r:id="rId16"/>
-    <hyperlink ref="C23" r:id="rId17"/>
-    <hyperlink ref="C24" r:id="rId18"/>
-    <hyperlink ref="C25" r:id="rId19"/>
-    <hyperlink ref="C26" r:id="rId20"/>
-    <hyperlink ref="C27" r:id="rId21"/>
-    <hyperlink ref="C28" r:id="rId22"/>
-    <hyperlink ref="C29" r:id="rId23"/>
-    <hyperlink ref="C30" r:id="rId24"/>
-    <hyperlink ref="C31" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C38" r:id="rId27"/>
-    <hyperlink ref="C39" r:id="rId28"/>
-    <hyperlink ref="C40" r:id="rId29"/>
-    <hyperlink ref="C41" r:id="rId30"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
+    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
+    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
+    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
+    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
+    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
+    <hyperlink ref="C38" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
+    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
+    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
+    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4039C7A8-2DAE-804B-9BE2-4745346F28BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671DE4F-0425-D74D-B83E-063786FCC7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22925,7 +22925,7 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>

--- a/算法24期-五毒神掌练习.xlsx
+++ b/算法24期-五毒神掌练习.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanheng/Desktop/study/极客时间/Leetcode/LeetCodeTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01极客时间-算法训练营\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671DE4F-0425-D74D-B83E-063786FCC7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="19416" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="week01" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="440">
   <si>
     <t>题号</t>
   </si>
@@ -1099,7 +1098,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1125,7 +1124,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1152,7 +1151,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1188,7 +1187,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1411,7 +1410,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1421,7 +1420,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1588,7 +1587,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1598,7 +1597,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1637,22 +1636,26 @@
 ret|= 1&lt;&lt;31-I,将1放在对称位置
 </t>
   </si>
+  <si>
+    <t>hashmap + 手动实现双链表</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1660,26 +1663,26 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1687,13 +1690,13 @@
       <u/>
       <sz val="9"/>
       <color indexed="30"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1702,14 +1705,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1717,14 +1720,14 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2032,8 +2035,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2063,7 +2066,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C569AC-D71F-9546-AF13-0BA8F7D08294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,26 +2407,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -2461,7 +2464,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="32" customHeight="1">
+    <row r="2" spans="1:17" ht="31.95" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
@@ -2505,7 +2508,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="22" customHeight="1">
+    <row r="4" spans="1:17" ht="22.05" customHeight="1">
       <c r="A4" s="56"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -2625,7 +2628,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="46" customHeight="1">
+    <row r="8" spans="1:17" ht="46.05" customHeight="1">
       <c r="A8" s="5">
         <v>15</v>
       </c>
@@ -2662,7 +2665,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="61" customHeight="1">
+    <row r="9" spans="1:17" ht="61.05" customHeight="1">
       <c r="A9" s="10">
         <v>206</v>
       </c>
@@ -2697,7 +2700,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="44" customHeight="1">
+    <row r="10" spans="1:17" ht="43.95" customHeight="1">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -2732,7 +2735,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="43" customHeight="1">
+    <row r="11" spans="1:17" ht="43.05" customHeight="1">
       <c r="A11" s="10">
         <v>141</v>
       </c>
@@ -2802,7 +2805,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="43" customHeight="1">
+    <row r="13" spans="1:17" ht="43.05" customHeight="1">
       <c r="A13" s="11">
         <v>25</v>
       </c>
@@ -2837,7 +2840,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="40" customHeight="1">
+    <row r="14" spans="1:17" ht="40.049999999999997" customHeight="1">
       <c r="A14" s="10">
         <v>20</v>
       </c>
@@ -2874,7 +2877,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="46" customHeight="1">
+    <row r="15" spans="1:17" ht="46.05" customHeight="1">
       <c r="A15" s="10">
         <v>155</v>
       </c>
@@ -3042,7 +3045,7 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:17" ht="22" customHeight="1">
+    <row r="21" spans="1:17" ht="22.05" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -3061,7 +3064,7 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:17" ht="26" customHeight="1">
+    <row r="22" spans="1:17" ht="25.95" customHeight="1">
       <c r="A22" s="10">
         <v>26</v>
       </c>
@@ -3129,7 +3132,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="26" customHeight="1">
+    <row r="24" spans="1:17" ht="25.95" customHeight="1">
       <c r="A24" s="10">
         <v>21</v>
       </c>
@@ -3240,7 +3243,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="61.25" customHeight="1">
+    <row r="27" spans="1:17" ht="61.2" customHeight="1">
       <c r="A27" s="10">
         <v>66</v>
       </c>
@@ -3277,7 +3280,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="1:17" ht="61.25" customHeight="1">
+    <row r="28" spans="1:17" ht="61.2" customHeight="1">
       <c r="A28" s="5">
         <v>641</v>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="50" customHeight="1">
+    <row r="29" spans="1:17" ht="49.95" customHeight="1">
       <c r="A29" s="11">
         <v>42</v>
       </c>
@@ -3885,28 +3888,28 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="C28" r:id="rId20"/>
+    <hyperlink ref="C29" r:id="rId21"/>
+    <hyperlink ref="E16" r:id="rId22" display="https://github.com/Quan-heng/LeetCodeTraining/commit/3b284101bab5d58d00a65b94764c9876766e86eb"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
@@ -3915,26 +3918,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="45.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="27.453125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="34.6328125" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -4035,7 +4038,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="10">
         <v>242</v>
       </c>
@@ -4134,7 +4137,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="5">
         <v>94</v>
       </c>
@@ -4167,7 +4170,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:17" ht="26" customHeight="1">
+    <row r="9" spans="1:17" ht="25.95" customHeight="1">
       <c r="A9" s="5">
         <v>144</v>
       </c>
@@ -4200,7 +4203,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1">
+    <row r="10" spans="1:17" ht="25.95" customHeight="1">
       <c r="A10" s="10">
         <v>590</v>
       </c>
@@ -4233,7 +4236,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" spans="1:17" ht="26" customHeight="1">
+    <row r="11" spans="1:17" ht="25.95" customHeight="1">
       <c r="A11" s="10">
         <v>589</v>
       </c>
@@ -4266,7 +4269,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:17" ht="26" customHeight="1">
+    <row r="12" spans="1:17" ht="25.95" customHeight="1">
       <c r="A12" s="5">
         <v>429</v>
       </c>
@@ -4330,7 +4333,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    <row r="14" spans="1:17" ht="25.95" customHeight="1">
       <c r="A14" s="11">
         <v>239</v>
       </c>
@@ -4445,7 +4448,7 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="25.95" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>77</v>
       </c>
@@ -4476,7 +4479,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="25.95" customHeight="1">
       <c r="A20" s="5">
         <v>347</v>
       </c>
@@ -7556,18 +7559,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -7575,25 +7578,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView topLeftCell="C9" zoomScale="125" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="58.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="9" width="5.1796875" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -7631,7 +7634,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="37" customHeight="1">
+    <row r="2" spans="1:17" ht="37.049999999999997" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>82</v>
       </c>
@@ -7694,7 +7697,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="10">
         <v>70</v>
       </c>
@@ -7721,7 +7724,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="26" customHeight="1">
+    <row r="6" spans="1:17" ht="25.95" customHeight="1">
       <c r="A6" s="5">
         <v>22</v>
       </c>
@@ -8012,7 +8015,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="71" customHeight="1">
+    <row r="15" spans="1:17" ht="70.95" customHeight="1">
       <c r="A15" s="5">
         <v>17</v>
       </c>
@@ -11654,23 +11657,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C25" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
@@ -11678,25 +11681,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -11797,7 +11800,7 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="26" customHeight="1">
+    <row r="5" spans="1:17" ht="25.95" customHeight="1">
       <c r="A5" s="5">
         <v>102</v>
       </c>
@@ -11832,7 +11835,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="56.5" customHeight="1">
+    <row r="6" spans="1:17" ht="56.55" customHeight="1">
       <c r="A6" s="5">
         <v>433</v>
       </c>
@@ -11869,7 +11872,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73.25" customHeight="1">
+    <row r="7" spans="1:17" ht="73.2" customHeight="1">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -11906,7 +11909,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="5">
         <v>515</v>
       </c>
@@ -11980,7 +11983,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="26" customHeight="1">
+    <row r="10" spans="1:17" ht="25.95" customHeight="1">
       <c r="A10" s="10">
         <v>367</v>
       </c>
@@ -12095,7 +12098,7 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:17" ht="26" customHeight="1">
+    <row r="15" spans="1:17" ht="25.95" customHeight="1">
       <c r="A15" s="10">
         <v>860</v>
       </c>
@@ -12132,7 +12135,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="26" customHeight="1">
+    <row r="16" spans="1:17" ht="25.95" customHeight="1">
       <c r="A16" s="10">
         <v>122</v>
       </c>
@@ -12169,7 +12172,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:17" ht="26" customHeight="1">
+    <row r="17" spans="1:17" ht="25.95" customHeight="1">
       <c r="A17" s="10">
         <v>455</v>
       </c>
@@ -12206,7 +12209,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="61" customHeight="1">
+    <row r="18" spans="1:17" ht="61.05" customHeight="1">
       <c r="A18" s="10">
         <v>874</v>
       </c>
@@ -12243,7 +12246,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="26" customHeight="1">
+    <row r="19" spans="1:17" ht="25.95" customHeight="1">
       <c r="A19" s="5">
         <v>127</v>
       </c>
@@ -12280,7 +12283,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="26" customHeight="1">
+    <row r="20" spans="1:17" ht="25.95" customHeight="1">
       <c r="A20" s="5">
         <v>200</v>
       </c>
@@ -12317,7 +12320,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" ht="26" customHeight="1">
+    <row r="21" spans="1:17" ht="25.95" customHeight="1">
       <c r="A21" s="5">
         <v>529</v>
       </c>
@@ -12391,7 +12394,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="26" customHeight="1">
+    <row r="23" spans="1:17" ht="25.95" customHeight="1">
       <c r="A23" s="5">
         <v>33</v>
       </c>
@@ -12428,7 +12431,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" spans="1:17" ht="26" customHeight="1">
+    <row r="24" spans="1:17" ht="25.95" customHeight="1">
       <c r="A24" s="5">
         <v>74</v>
       </c>
@@ -12502,7 +12505,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="26" customHeight="1">
+    <row r="26" spans="1:17" ht="25.95" customHeight="1">
       <c r="A26" s="11">
         <v>126</v>
       </c>
@@ -12539,7 +12542,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="112.25" customHeight="1">
+    <row r="27" spans="1:17" ht="112.2" customHeight="1">
       <c r="A27" s="11">
         <v>45</v>
       </c>
@@ -15360,25 +15363,25 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" location="/description" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" location="/description" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" location="/description" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" location="/description" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="C23" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="C27" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="C5" r:id="rId1" location="/description"/>
+    <hyperlink ref="C6" r:id="rId2" location="/description"/>
+    <hyperlink ref="C7" r:id="rId3" location="/description"/>
+    <hyperlink ref="C8" r:id="rId4" location="/description"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C15" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="C23" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C27" r:id="rId17"/>
+    <hyperlink ref="C26" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -15386,26 +15389,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
+    <col min="4" max="4" width="62.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -15566,7 +15569,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="73" customHeight="1">
+    <row r="7" spans="1:17" ht="73.05" customHeight="1">
       <c r="A7" s="5">
         <v>1143</v>
       </c>
@@ -15595,7 +15598,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17" ht="26" customHeight="1">
+    <row r="8" spans="1:17" ht="25.95" customHeight="1">
       <c r="A8" s="10">
         <v>70</v>
       </c>
@@ -15669,7 +15672,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:17" ht="85" customHeight="1">
+    <row r="10" spans="1:17" ht="85.05" customHeight="1">
       <c r="A10" s="10">
         <v>53</v>
       </c>
@@ -15735,7 +15738,7 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17" ht="26" customHeight="1">
+    <row r="12" spans="1:17" ht="25.95" customHeight="1">
       <c r="A12" s="22">
         <v>322</v>
       </c>
@@ -15764,7 +15767,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" ht="128" customHeight="1">
+    <row r="13" spans="1:17" ht="127.95" customHeight="1">
       <c r="A13" s="10">
         <v>198</v>
       </c>
@@ -15801,7 +15804,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="26" customHeight="1">
+    <row r="14" spans="1:17" ht="25.95" customHeight="1">
       <c r="A14" s="5">
         <v>213</v>
       </c>
@@ -15838,7 +15841,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="146" customHeight="1">
+    <row r="15" spans="1:17" ht="145.94999999999999" customHeight="1">
       <c r="A15" s="10">
         <v>121</v>
       </c>
@@ -15949,7 +15952,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" ht="106" customHeight="1">
+    <row r="18" spans="1:17" ht="106.05" customHeight="1">
       <c r="A18" s="5">
         <v>309</v>
       </c>
@@ -15986,7 +15989,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" spans="1:17" ht="101" customHeight="1">
+    <row r="19" spans="1:17" ht="100.95" customHeight="1">
       <c r="A19" s="11">
         <v>188</v>
       </c>
@@ -16081,7 +16084,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" ht="26" customHeight="1">
+    <row r="22" spans="1:17" ht="25.95" customHeight="1">
       <c r="A22" s="22">
         <v>279</v>
       </c>
@@ -16106,7 +16109,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="1:17" ht="26" customHeight="1">
+    <row r="23" spans="1:17" ht="25.95" customHeight="1">
       <c r="A23" s="21">
         <v>72</v>
       </c>
@@ -16156,7 +16159,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="26" customHeight="1">
+    <row r="25" spans="1:17" ht="25.95" customHeight="1">
       <c r="A25" s="21">
         <v>45</v>
       </c>
@@ -16181,7 +16184,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="1:17" ht="26" customHeight="1">
+    <row r="26" spans="1:17" ht="25.95" customHeight="1">
       <c r="A26" s="21">
         <v>980</v>
       </c>
@@ -16206,7 +16209,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="26" customHeight="1">
+    <row r="27" spans="1:17" ht="25.95" customHeight="1">
       <c r="A27" s="22">
         <v>518</v>
       </c>
@@ -16309,7 +16312,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="1:17" ht="26" customHeight="1">
+    <row r="32" spans="1:17" ht="25.95" customHeight="1">
       <c r="A32" s="5">
         <v>64</v>
       </c>
@@ -16383,7 +16386,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="1:17" ht="26" customHeight="1">
+    <row r="34" spans="1:17" ht="25.95" customHeight="1">
       <c r="A34" s="5">
         <v>221</v>
       </c>
@@ -16420,7 +16423,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="26" customHeight="1">
+    <row r="35" spans="1:17" ht="25.95" customHeight="1">
       <c r="A35" s="5">
         <v>621</v>
       </c>
@@ -16457,7 +16460,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="26" customHeight="1">
+    <row r="36" spans="1:17" ht="25.95" customHeight="1">
       <c r="A36" s="5">
         <v>647</v>
       </c>
@@ -16494,7 +16497,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" spans="1:17" ht="26" customHeight="1">
+    <row r="37" spans="1:17" ht="25.95" customHeight="1">
       <c r="A37" s="11">
         <v>32</v>
       </c>
@@ -16531,7 +16534,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" spans="1:17" ht="26" customHeight="1">
+    <row r="38" spans="1:17" ht="25.95" customHeight="1">
       <c r="A38" s="11">
         <v>363</v>
       </c>
@@ -16605,7 +16608,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="1:17" ht="26" customHeight="1">
+    <row r="40" spans="1:17" ht="25.95" customHeight="1">
       <c r="A40" s="11">
         <v>410</v>
       </c>
@@ -16642,7 +16645,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" spans="1:17" ht="26" customHeight="1">
+    <row r="41" spans="1:17" ht="25.95" customHeight="1">
       <c r="A41" s="11">
         <v>552</v>
       </c>
@@ -16679,7 +16682,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:17" ht="26" customHeight="1">
+    <row r="42" spans="1:17" ht="25.95" customHeight="1">
       <c r="A42" s="11">
         <v>76</v>
       </c>
@@ -16716,7 +16719,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:17" ht="26" customHeight="1">
+    <row r="43" spans="1:17" ht="25.95" customHeight="1">
       <c r="A43" s="11">
         <v>312</v>
       </c>
@@ -18987,66 +18990,66 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" location="/description" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="C32" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="C33" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="C34" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="C35" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="C36" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="C37" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="C38" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="C39" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="C40" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="C41" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="C42" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
-    <hyperlink ref="C43" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="D17" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11" location="/description"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C22" r:id="rId17"/>
+    <hyperlink ref="C23" r:id="rId18"/>
+    <hyperlink ref="C24" r:id="rId19"/>
+    <hyperlink ref="C25" r:id="rId20"/>
+    <hyperlink ref="C26" r:id="rId21"/>
+    <hyperlink ref="C27" r:id="rId22"/>
+    <hyperlink ref="C32" r:id="rId23"/>
+    <hyperlink ref="C33" r:id="rId24"/>
+    <hyperlink ref="C34" r:id="rId25"/>
+    <hyperlink ref="C35" r:id="rId26"/>
+    <hyperlink ref="C36" r:id="rId27"/>
+    <hyperlink ref="C37" r:id="rId28"/>
+    <hyperlink ref="C38" r:id="rId29"/>
+    <hyperlink ref="C39" r:id="rId30"/>
+    <hyperlink ref="C40" r:id="rId31"/>
+    <hyperlink ref="C41" r:id="rId32"/>
+    <hyperlink ref="C42" r:id="rId33"/>
+    <hyperlink ref="C43" r:id="rId34"/>
+    <hyperlink ref="D17" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R184"/>
   <sheetViews>
     <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" customWidth="1"/>
-    <col min="4" max="4" width="115.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="42.36328125" customWidth="1"/>
+    <col min="4" max="4" width="115.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="7" width="4.36328125" customWidth="1"/>
+    <col min="8" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.36328125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -19151,7 +19154,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="38" customHeight="1">
+    <row r="5" spans="1:18" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="22">
         <v>208</v>
       </c>
@@ -19183,7 +19186,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="32" customHeight="1">
+    <row r="6" spans="1:18" ht="31.95" customHeight="1">
       <c r="A6" s="21">
         <v>212</v>
       </c>
@@ -19213,7 +19216,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="59" customHeight="1">
+    <row r="7" spans="1:18" ht="58.95" customHeight="1">
       <c r="A7" s="22">
         <v>547</v>
       </c>
@@ -19243,7 +19246,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="22">
         <v>200</v>
       </c>
@@ -19273,7 +19276,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="73" customHeight="1">
+    <row r="9" spans="1:18" ht="73.05" customHeight="1">
       <c r="A9" s="22">
         <v>130</v>
       </c>
@@ -19333,7 +19336,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="26" customHeight="1">
+    <row r="11" spans="1:18" ht="25.95" customHeight="1">
       <c r="A11" s="22">
         <v>22</v>
       </c>
@@ -19483,7 +19486,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" ht="26" customHeight="1">
+    <row r="16" spans="1:18" ht="25.95" customHeight="1">
       <c r="A16" s="22">
         <v>433</v>
       </c>
@@ -19513,7 +19516,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="22">
         <v>1091</v>
       </c>
@@ -22898,22 +22901,22 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="D7" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://leetcode-cn.com/problems/number-of-islands/"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://leetcode-cn.com/problems/word-search-ii/solution/java-zi-dian-shu-hui-su-ji-bai-liao-9969-de-yong-h/"/>
+    <hyperlink ref="D7" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
@@ -22921,26 +22924,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.6328125" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="4.6328125" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" customWidth="1"/>
+    <col min="9" max="9" width="4.6328125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -23045,7 +23048,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="24">
         <v>191</v>
       </c>
@@ -23077,7 +23080,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="26" customHeight="1">
+    <row r="6" spans="1:18" ht="25.95" customHeight="1">
       <c r="A6" s="24">
         <v>231</v>
       </c>
@@ -23107,7 +23110,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="85" customHeight="1">
+    <row r="7" spans="1:18" ht="85.05" customHeight="1">
       <c r="A7" s="24">
         <v>190</v>
       </c>
@@ -23137,7 +23140,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="85" customHeight="1">
+    <row r="8" spans="1:18" ht="85.05" customHeight="1">
       <c r="A8" s="21">
         <v>51</v>
       </c>
@@ -23163,7 +23166,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="21">
         <v>52</v>
       </c>
@@ -23189,7 +23192,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" ht="26" customHeight="1">
+    <row r="10" spans="1:18" ht="25.95" customHeight="1">
       <c r="A10" s="22">
         <v>338</v>
       </c>
@@ -23225,8 +23228,12 @@
       <c r="C11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" s="54">
+        <v>5.1100000000000003</v>
+      </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -23323,7 +23330,7 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="26" customHeight="1">
+    <row r="16" spans="1:18" ht="25.95" customHeight="1">
       <c r="A16" s="24">
         <v>1122</v>
       </c>
@@ -23349,7 +23356,7 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="24">
         <v>242</v>
       </c>
@@ -23375,7 +23382,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="26" customHeight="1">
+    <row r="18" spans="1:18" ht="25.95" customHeight="1">
       <c r="A18" s="22">
         <v>1244</v>
       </c>
@@ -23401,7 +23408,7 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" ht="26" customHeight="1">
+    <row r="19" spans="1:18" ht="25.95" customHeight="1">
       <c r="A19" s="22">
         <v>56</v>
       </c>
@@ -23427,7 +23434,7 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
     </row>
-    <row r="20" spans="1:18" ht="26" customHeight="1">
+    <row r="20" spans="1:18" ht="25.95" customHeight="1">
       <c r="A20" s="21">
         <v>493</v>
       </c>
@@ -27083,44 +27090,44 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C19" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C20" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C17" r:id="rId9"/>
+    <hyperlink ref="C18" r:id="rId10"/>
+    <hyperlink ref="C19" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="4.453125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="18" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="18" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
@@ -27159,7 +27166,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="41" customHeight="1">
+    <row r="2" spans="1:18" ht="40.950000000000003" customHeight="1">
       <c r="A2" s="59" t="s">
         <v>257</v>
       </c>
@@ -27225,7 +27232,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" ht="26" customHeight="1">
+    <row r="5" spans="1:18" ht="25.95" customHeight="1">
       <c r="A5" s="24">
         <v>70</v>
       </c>
@@ -27251,7 +27258,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" ht="26" customHeight="1">
+    <row r="6" spans="1:18" ht="25.95" customHeight="1">
       <c r="A6" s="22">
         <v>62</v>
       </c>
@@ -27277,7 +27284,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="26" customHeight="1">
+    <row r="7" spans="1:18" ht="25.95" customHeight="1">
       <c r="A7" s="24">
         <v>198</v>
       </c>
@@ -27303,7 +27310,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="26" customHeight="1">
+    <row r="8" spans="1:18" ht="25.95" customHeight="1">
       <c r="A8" s="22">
         <v>64</v>
       </c>
@@ -27329,7 +27336,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="26" customHeight="1">
+    <row r="9" spans="1:18" ht="25.95" customHeight="1">
       <c r="A9" s="24">
         <v>121</v>
       </c>
@@ -27355,7 +27362,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="26" customHeight="1">
+    <row r="10" spans="1:18" ht="25.95" customHeight="1">
       <c r="A10" s="24">
         <v>746</v>
       </c>
@@ -27381,7 +27388,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="26" customHeight="1">
+    <row r="11" spans="1:18" ht="25.95" customHeight="1">
       <c r="A11" s="21">
         <v>72</v>
       </c>
@@ -27407,7 +27414,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="26" customHeight="1">
+    <row r="12" spans="1:18" ht="25.95" customHeight="1">
       <c r="A12" s="24">
         <v>709</v>
       </c>
@@ -27433,7 +27440,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="26" customHeight="1">
+    <row r="13" spans="1:18" ht="25.95" customHeight="1">
       <c r="A13" s="24">
         <v>58</v>
       </c>
@@ -27459,7 +27466,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="26" customHeight="1">
+    <row r="14" spans="1:18" ht="25.95" customHeight="1">
       <c r="A14" s="24">
         <v>771</v>
       </c>
@@ -27485,7 +27492,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="26" customHeight="1">
+    <row r="15" spans="1:18" ht="25.95" customHeight="1">
       <c r="A15" s="24">
         <v>387</v>
       </c>
@@ -27537,7 +27544,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="26" customHeight="1">
+    <row r="17" spans="1:18" ht="25.95" customHeight="1">
       <c r="A17" s="24">
         <v>14</v>
       </c>
@@ -27563,7 +27570,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="26" customHeight="1">
+    <row r="18" spans="1:18" ht="25.95" customHeight="1">
       <c r="A18" s="24">
         <v>344</v>
       </c>
@@ -27589,7 +27596,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:18" ht="26" customHeight="1">
+    <row r="19" spans="1:18" ht="25.95" customHeight="1">
       <c r="A19" s="24">
         <v>541</v>
       </c>
@@ -27615,7 +27622,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="26" customHeight="1">
+    <row r="20" spans="1:18" ht="25.95" customHeight="1">
       <c r="A20" s="22">
         <v>151</v>
       </c>
@@ -27641,7 +27648,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="26" customHeight="1">
+    <row r="21" spans="1:18" ht="25.95" customHeight="1">
       <c r="A21" s="24">
         <v>557</v>
       </c>
@@ -27667,7 +27674,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="26" customHeight="1">
+    <row r="22" spans="1:18" ht="25.95" customHeight="1">
       <c r="A22" s="24">
         <v>917</v>
       </c>
@@ -27693,7 +27700,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="26" customHeight="1">
+    <row r="23" spans="1:18" ht="25.95" customHeight="1">
       <c r="A23" s="24">
         <v>242</v>
       </c>
@@ -27719,7 +27726,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="26" customHeight="1">
+    <row r="24" spans="1:18" ht="25.95" customHeight="1">
       <c r="A24" s="22">
         <v>49</v>
       </c>
@@ -27745,7 +27752,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="26" customHeight="1">
+    <row r="25" spans="1:18" ht="25.95" customHeight="1">
       <c r="A25" s="22">
         <v>438</v>
       </c>
@@ -27771,7 +27778,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:18" ht="26" customHeight="1">
+    <row r="26" spans="1:18" ht="25.95" customHeight="1">
       <c r="A26" s="24">
         <v>125</v>
       </c>
@@ -27797,7 +27804,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:18" ht="26" customHeight="1">
+    <row r="27" spans="1:18" ht="25.95" customHeight="1">
       <c r="A27" s="24">
         <v>680</v>
       </c>
@@ -27823,7 +27830,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:18" ht="26" customHeight="1">
+    <row r="28" spans="1:18" ht="25.95" customHeight="1">
       <c r="A28" s="22">
         <v>5</v>
       </c>
@@ -27901,7 +27908,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="26" customHeight="1">
+    <row r="31" spans="1:18" ht="25.95" customHeight="1">
       <c r="A31" s="21">
         <v>44</v>
       </c>
@@ -27927,7 +27934,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="26" customHeight="1">
+    <row r="32" spans="1:18" ht="25.95" customHeight="1">
       <c r="A32" s="21">
         <v>115</v>
       </c>
@@ -27953,7 +27960,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="19" customHeight="1">
+    <row r="33" spans="1:18" ht="19.05" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -27973,7 +27980,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="19" customHeight="1">
+    <row r="34" spans="1:18" ht="19.05" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -28035,7 +28042,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="26" customHeight="1">
+    <row r="37" spans="1:18" ht="25.95" customHeight="1">
       <c r="A37" s="24">
         <v>205</v>
       </c>
@@ -28061,7 +28068,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" ht="26" customHeight="1">
+    <row r="38" spans="1:18" ht="25.95" customHeight="1">
       <c r="A38" s="22">
         <v>300</v>
       </c>
@@ -28087,7 +28094,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" ht="26" customHeight="1">
+    <row r="39" spans="1:18" ht="25.95" customHeight="1">
       <c r="A39" s="22">
         <v>91</v>
       </c>
@@ -28113,7 +28120,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" ht="26" customHeight="1">
+    <row r="40" spans="1:18" ht="25.95" customHeight="1">
       <c r="A40" s="21">
         <v>32</v>
       </c>
@@ -30975,36 +30982,36 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="C26" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
-    <hyperlink ref="C27" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
-    <hyperlink ref="C28" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
-    <hyperlink ref="C29" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
-    <hyperlink ref="C30" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
-    <hyperlink ref="C31" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
-    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0700-000019000000}"/>
-    <hyperlink ref="C38" r:id="rId27" xr:uid="{00000000-0004-0000-0700-00001A000000}"/>
-    <hyperlink ref="C39" r:id="rId28" xr:uid="{00000000-0004-0000-0700-00001B000000}"/>
-    <hyperlink ref="C40" r:id="rId29" xr:uid="{00000000-0004-0000-0700-00001C000000}"/>
-    <hyperlink ref="C41" r:id="rId30" xr:uid="{00000000-0004-0000-0700-00001D000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
+    <hyperlink ref="C11" r:id="rId7"/>
+    <hyperlink ref="C12" r:id="rId8"/>
+    <hyperlink ref="C13" r:id="rId9"/>
+    <hyperlink ref="C14" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="C22" r:id="rId16"/>
+    <hyperlink ref="C23" r:id="rId17"/>
+    <hyperlink ref="C24" r:id="rId18"/>
+    <hyperlink ref="C25" r:id="rId19"/>
+    <hyperlink ref="C26" r:id="rId20"/>
+    <hyperlink ref="C27" r:id="rId21"/>
+    <hyperlink ref="C28" r:id="rId22"/>
+    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="C30" r:id="rId24"/>
+    <hyperlink ref="C31" r:id="rId25"/>
+    <hyperlink ref="C32" r:id="rId26"/>
+    <hyperlink ref="C38" r:id="rId27"/>
+    <hyperlink ref="C39" r:id="rId28"/>
+    <hyperlink ref="C40" r:id="rId29"/>
+    <hyperlink ref="C41" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
